--- a/backend/embeddings_with_content.xlsx
+++ b/backend/embeddings_with_content.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,474 +458,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lakshana.txt-part-1</t>
+          <t>srinivas resume.pdf-part-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[ Skip to main content ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; # main-content &gt; ) [ LinkedIn ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; / ? trk=public_profile_nav-header-logo &gt; ) * [ Articles ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/pulse/topics/home/ ? trk=public_profile_guest_nav_menu_articles &gt; ) * [ People ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/pub/dir/+/+ ? trk=public_profile_guest_nav_menu_people &gt; ) * [ Learning ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/learning/search ? trk=public_profile_guest_nav_menu_learning &gt; ) * [ Jobs ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/jobs ? trk=public_profile_guest_nav_menu_jobs &gt; ) * [ Games ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/games ? trk=public_profile_guest_nav_menu_games &gt; ) [ Join now ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; session_redirect=https % 3A % 2F % 2Fin.linkedin.com % 2Fin % 2Flakshana-rajendran-a179a02a1 &amp; trk=public_profile_nav-header-join &gt; ) [ Sign in ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/login ? session_redirect=https % 3A % 2F % 2Fin % 2Elinkedin % 2Ecom % 2Fin % 2Flakshana-rajendran-a179a02a1 &amp; fromSignIn=true &amp; trk=public_profile_nav-header-signin &gt; ) [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/login ? session_redirect=https % 3A % 2F % 2Fin % 2Elinkedin % 2Ecom % 2Fin % 2Flakshana-rajendran-a179a02a1 &amp; fromSignIn=true &amp; trk=public_profile_nav-header-signin &gt; ) ! [ ] ( https : //static.licdn.com/aero-v1/sc/h/5q92mjc5c51bjlwaj3rs9aa82 ) # Lakshana Rajendran # # Sign in to view Lakshana ’ s full profile Sign in # # Welcome back Email or phone Password Show [ Forgot password ? ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/uas/request-password-reset ? trk=public_profile_top-card_title-modal_contextual-sign-in-modal_sign-in-modal_forgot_password &gt; ) Sign in or By clicking Continue to join or sign in , you agree to LinkedIn ’ s [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/user-agreement ? trk=public_profile_top-card_title-modal_contextual-sign-in-modal_sign-in-modal_auth-button_user-agreement &gt; ) , [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/privacy-policy ? trk=public_profile_top-card_title-modal_contextual-sign-in-modal_sign-in-modal_auth-button_privacy-policy &gt;</t>
+          <t>SRINIVASAN L Chennai , Tamil Nadu , India | 9710100306 | srilog.ed @ gmail.com | linkedin.com/in/srlog | github.com/srlog EDUCA TION Meenakshi Sundararajan Engineering College Chennai Bachelor of Information Technology , CGPA : 9.31 2022 - 2026 Guru Nanak School Chennai HSC , Percentage : 91.8 % 2022 SKILLS Programming Languages : Python , JavaScript , SQL , C++ Frameworks/Libraries : Flask , Django , React , Svelte , Express , Flutter , Pydantic AI , TensorFlow , Scikit-learn Databases : MongoDB , MySQL , Cloud Firestore Cloud tools/Deployment : Firebase , Vercel , Render , Mongodb Atlas , Hugging Face AI/ML : LLM , RAG , NumPy , Pandas , Agentic AI , Soft Skills : Problem Solving , Public Speaking , Team Leadership , Project Management EXPERIENCE The NEST School Chennai Flutter Development Intern Nov 2024 – Present ● Developed and maintained features for a student management application using Flutter , to log entry or exit time and mode of transport etc . DLK Career Development Centre Full Stack development Intern Feb 2024 – Mar 2024 ● Developed a drag-and-drop game using Flask to gamify HTML learning for students . PROJECTS Club Management App Jan 2024 ● Developed a full-stack web application using React , Vite , Firebase , and Tailwind CSS to streamline club event hosting , registration , and project management . Query With Ease : A chatbot powered by Agentic rag to answer queries about MSEC . Dec 2024 ● Developed an intelligent chatbot using Pydantic AI and Supabase to answer MSEC-related queries . ● The chatbot utilizes a website crawler and RAG agent to efficiently retrieve and process information from Supabase ensuring accessibility to information . Ease : Centralized Academic Support and Code Practice Platform Nov 2024 ● Developed a full-stack web application using React</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The provided text appears to be a LinkedIn login page with various navigation options and a prompt to sign in to view Lakshana Rajendran's full profile.</t>
+          <t>Srinivasan is a skilled IT student with experience in programming languages, AI, and full-stack development, and has worked on various projects and internships.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[-0.04772135615348816, 0.03326306492090225, 0.008940005674958229, -0.033747944980859756, 0.13472001254558563, 0.08332422375679016, 0.02608311176300049, -0.0797223150730133, -0.029187459498643875, 0.027110550552606583, 0.06524178385734558, -0.002493441803380847, 0.03142080083489418, -0.05791653320193291, 0.0062105790711939335, -0.006318149156868458, -0.07900317013263702, 0.030241362750530243, 0.003975661937147379, -0.04170800745487213, -0.014911563135683537, 0.013795685023069382, 0.003584131831303239, 0.019525012001395226, -0.041385550051927567, -0.06982096284627914, -0.018060386180877686, -0.03500888869166374, -0.023302149027585983, -0.07281485199928284, 0.0032715313136577606, 0.0785360187292099, -0.08983515948057175, -0.040030065923929214, -0.04622495174407959, -0.0270086582750082, 0.0017569264164194465, 0.0007057927432470024, 0.014125410467386246, -0.015089978463947773, 0.04333382844924927, -0.08205293864011765, -0.022700104862451553, -0.052985019981861115, -0.018040891736745834, 0.04500139132142067, -0.05944669991731644, -0.09756333380937576, -0.013737349770963192, -0.057376716285943985, -0.0657540112733841, -0.01910533756017685, -0.040725335478782654, -0.01744779571890831, 0.0241354051977396, -0.058600932359695435, -0.06631145626306534, 0.0026658272836357355, 0.038253266364336014, -0.006409771274775267, 0.05160049349069595, 0.0006665067048743367, -0.05571778863668442, 0.03804108127951622, 0.05356089398264885, -0.06860341131687164, -0.0415801927447319, 0.08133312314748764, -0.01059027574956417, 0.03083806298673153, 0.010893292725086212, 0.008238247595727444, -0.07645633816719055, -0.002874441212043166, 0.027232686057686806, -0.013528934679925442, -0.03672730177640915, 0.06528357416391373, -0.08321961760520935, -0.10063021630048752, -0.0018657866166904569, -0.05059091001749039, 0.05199991539120674, 0.03149184584617615, 0.007444900926202536, 0.0292973592877388, -0.018559740856289864, -0.04741835221648216, -0.009817310608923435, 0.001421039691194892, 0.1050720289349556, 0.07848211377859116, 0.07430548965930939, 0.015153147280216217, 0.023135321214795113, -0.008452889509499073, -0.042890675365924835, -0.04741599038243294, 0.04786357656121254, 0.11439994722604752, -0.04876834526658058, 0.009401082061231136, 0.04513043537735939, 0.04063575342297554, -0.075772225856781, -0.011350935325026512, 0.05712725222110748, 0.08961346000432968, 0.0462886206805706, 0.014392240904271603, -0.04805537313222885, 0.038819633424282074, -0.045613013207912445, -0.05668299272656441, -0.08257998526096344, -0.04416995123028755, 0.08511628955602646, -0.039753276854753494, 0.15151125192642212, -0.008612950332462788, 0.04099320247769356, 0.0635354146361351, -0.01971382461488247, 0.011105112731456757, -0.07132881134748459, -0.07955622673034668, -0.04145671799778938, 6.962827843539104e-35, 0.0854506567120552, 0.01940714567899704, -0.02385280653834343, -0.06175190955400467, 0.009697731584310532, -0.018065117299556732, -0.032093338668346405, -0.06994511932134628, -0.03064695931971073, 0.011982280761003494, -0.07969462126493454, 0.026018209755420685, 0.00620834669098258, 0.01982046663761139, -0.012781773693859577, -0.08659530431032181, 0.057857025414705276, 0.00735111627727747, -0.04269285127520561, -0.0040506222285330296, 0.05305900797247887, 0.049736879765987396, -0.010128582827746868, 0.048540931195020676, 0.0032882208470255136, 0.1026177778840065, 0.086098313331604, -0.032510511577129364, -0.04797198623418808, 0.027451274916529655, 0.0057644168846309185, 0.02555965632200241, -0.01707729883491993, -0.0005354630411602557, 0.06554899364709854, -0.006915783975273371, -0.0009197412291541696, -0.03652755171060562, -0.018581969663500786, -0.10854742676019669, 0.0157025083899498, -0.028433948755264282, 0.00313594751060009, 0.0006453557289205492, -0.09049917012453079, 0.03713369742035866, 0.07240839302539825, -0.028601959347724915, 0.09572745114564896, 0.0030090967193245888, -0.025691000744700432, 0.019541459158062935, -0.10887111723423004, -0.043413352221250534, -0.03116968646645546, -0.01188496220856905, -0.07044725120067596, 0.010769560001790524, 0.02806268073618412, 0.047399841248989105, 0.08246846497058868, 0.005566671956330538, -0.04918007180094719, -0.03404197096824646, -0.09155169129371643, -0.02165093831717968, 0.031886763870716095, -0.024947676807641983, 0.08149170875549316, -0.07963322103023529, -0.05123730003833771, 0.04508718103170395, 0.12953141331672668, 0.0162193663418293, -0.0215775053948164, 0.039867669343948364, -0.07537747174501419, -0.003601791337132454, -0.04051754251122475, 0.05244223400950432, 0.004075723700225353, -0.05116427317261696, -0.04887119308114052, -0.0846136063337326, 0.019204428419470787, -0.011928501538932323, 0.030918912962079048, -0.07106011360883713, 0.020899074152112007, 0.04231395199894905, 0.012094646692276001, 0.09849609434604645, -0.010439698584377766, -0.028786443173885345, -0.06150658056139946, -3.985999589908634e-33, 0.08117955923080444, 0.012929518707096577, 0.07970646023750305, -0.0017877195496112108, 0.0014386546099558473, 0.03667148947715759, 0.02220745198428631, 0.05770177021622658, 0.06586471199989319, -0.008577100932598114, 0.08442676812410355, 0.0008303910144604743, 0.022427737712860107, -0.067047618329525, -0.043047357350587845, 0.030824631452560425, 0.016710903495550156, 0.010184139013290405, -0.03782480210065842, -0.03045535460114479, 0.00596549641340971, 0.035625457763671875, -0.08005770295858383, 0.036843497306108475, 0.025355689227581024, -0.019919482991099358, 0.0787949338555336, 0.09185586124658585, -0.040248095989227295, 0.007629368454217911, 0.051385149359703064, -0.04943718761205673, -0.13123473525047302, -0.028690800070762634, -0.00272282212972641, 0.05402245745062828, -0.03245469927787781, 0.1296806037425995, 0.005300117656588554, 0.044177379459142685, 0.13546964526176453, -0.012082048691809177, 0.01183462142944336, -0.05284920707345009, 0.001615417655557394, -0.019348332658410072, -0.024789756163954735, -0.04986576363444328, -0.047090329229831696, -0.028664715588092804, 0.0957600474357605, -0.02411463111639023, 0.08925887942314148, -0.07817167043685913, 0.03131905943155289, 0.05724969506263733, 0.05693790316581726, 0.0031785196624696255, 0.04086222127079964, -0.012775198556482792, 0.045153941959142685, 0.026023296639323235, -0.03438263386487961, 0.04453214257955551, -0.014509515836834908, -0.056294672191143036, 0.023768780753016472, 0.024259215220808983, -0.03522893041372299, -0.05977169796824455, -0.016010981053113937, -0.06967361271381378, 0.03284545615315437, -0.029086358845233917, 0.015701040625572205, -0.06275897473096848, 0.05268716439604759, 0.05523039773106575, 0.027490820735692978, -0.028096355497837067, 0.02726277895271778, -0.02247656136751175, -0.038164667785167694, -0.0021792782936245203, 0.0605994313955307, 0.07463806867599487, -0.03655476123094559, -0.0074275522492825985, -0.02330983616411686, -0.04279055818915367, -0.038494862616062164, -0.0023160497657954693, 0.037445515394210815, 0.10666313022375107, -0.03535791113972664, -4.656521923607215e-08, 0.0025976705364882946, -0.0653887540102005, -0.035482920706272125, -0.034637998789548874, 0.02760012447834015, 0.038691744208335876, -0.02542654424905777, 0.046185579150915146, -0.08434666693210602, 0.034382786601781845, -0.04226779565215111, 0.03143002837896347, -0.07156359404325485, -0.021270446479320526, -0.017203381285071373, -0.05065688490867615, -0.05636933445930481, 0.0730663314461708, -0.011114723980426788, -0.0577067956328392, 0.012472232803702354, 0.013067390769720078, 0.008024119772017002, -0.020055750384926796, -0.015729540959000587, 0.04355199635028839, -0.020882226526737213, 0.006808420643210411, 0.0097508504986763, -0.06723775714635849, -0.05089518800377846, 0.06802622228860855, -0.0005077668465673923, -0.1770765483379364, -0.03158453106880188, 0.0882469043135643, 0.009761846624314785, -0.016325723379850388, -0.02922913432121277, 0.006066679023206234, 0.07140395045280457, -0.0882299542427063, 0.09756332635879517, 0.019198192283511162, 0.0005678532761521637, -0.0048561920411884785, 0.02166922390460968, -0.02332717925310135, 0.031176794320344925, -0.08394873142242432, -0.004733819980174303, -0.03146229684352875, 0.05297822877764702, 0.05014769360423088, -0.09850097447633743, -0.04996031895279884, -0.018027836456894875, 0.03617246821522713, 0.03728143125772476, 0.022807683795690536, 0.10915514081716537, 0.046972647309303284, -0.016843117773532867, 0.11241806298494339]</t>
+          <t>[-0.08291741460561752, -0.017705880105495453, -0.043431878089904785, 0.0061976793222129345, 0.0353410430252552, -0.06676781922578812, -0.012795235961675644, 0.0264836885035038, -0.07636643201112747, 0.03096931055188179, -0.016994988545775414, -0.05771486088633537, 0.04490244388580322, 0.052089136093854904, 0.047936275601387024, 0.014476283453404903, -0.0036858029197901487, -0.04951242357492447, 0.007365093566477299, -0.07147251069545746, -0.020031901076436043, -0.023879187181591988, 0.05758802592754364, -0.026986636221408844, -0.005191068630665541, -0.006121763959527016, -0.010321181267499924, -0.03299299255013466, -0.03391014039516449, -0.06709469854831696, 0.016068797558546066, 0.09887851029634476, -0.02719762921333313, 0.0753074660897255, -0.021329045295715332, 0.07659239321947098, -0.05440053716301918, -0.006372328381985426, 0.025758881121873856, -0.07525916397571564, -0.08726468682289124, -0.05926346778869629, -0.02450742945075035, -0.05730117857456207, 0.10149075090885162, -0.08477610349655151, -0.10793829709291458, -0.0658920407295227, 0.006948538590222597, 0.005273787304759026, -0.10164159536361694, -0.06571876257658005, -0.021882914006710052, 0.008372071199119091, -0.03723582625389099, 0.005390879698097706, 0.008320379070937634, -0.024759510532021523, -0.035917848348617554, -0.04705934599041939, 0.011699877679347992, 0.0028270441107451916, -0.023660704493522644, 0.05022882670164108, -0.029405130073428154, -0.052103493362665176, 0.007044066675007343, 0.09754113852977753, 0.13880452513694763, -0.011965143494307995, -0.01603560522198677, 0.015511563047766685, -0.05459124594926834, 0.0032100023236125708, -0.035380784422159195, -0.02823546715080738, 0.04653216525912285, 0.042220525443553925, 0.06960426270961761, -0.028397005051374435, -0.05095016211271286, -0.02188175730407238, -0.05893993005156517, 0.09291177988052368, -0.0362355075776577, -0.011306140571832657, 0.0044364845380187035, 0.030719194561243057, 0.011632139794528484, 0.02025323361158371, 0.0643201619386673, 0.048478953540325165, -0.016938231885433197, 0.03015846386551857, -0.02170010842382908, -0.02871541865170002, 0.037009067833423615, 0.01757126860320568, -0.04686914384365082, 0.03246384859085083, -0.08043618500232697, -0.004997489508241415, 0.005779829807579517, 0.0027546100318431854, -0.09175894409418106, -0.02710251323878765, 0.0585358589887619, -0.053459521383047104, 0.04150073230266571, -0.053289059549570084, -0.08202936500310898, -0.0024833898060023785, -0.10334723442792892, -0.05771035701036453, -0.011153111234307289, 0.04054359719157219, -0.039622463285923004, -0.007228444796055555, -0.03474193438887596, 0.12906309962272644, -0.00047035017632879317, 0.08966945111751556, -0.019233502447605133, -0.09770393371582031, -0.051132772117853165, -0.02356317825615406, -0.09498182684183121, 1.0926049544212293e-32, 0.07325727492570877, 0.04651735723018646, -0.02301388792693615, 0.005418393760919571, 0.07029229402542114, -0.015997692942619324, 0.02050868049263954, 0.014357388950884342, -0.05562228709459305, -0.052824605256319046, -0.05839851498603821, 0.06717386096715927, -0.01760116219520569, -0.0036284185480326414, 0.08007801324129105, -0.07836854457855225, -0.0007889887783676386, 0.07910248637199402, 0.0023412113077938557, 0.013363435864448547, 0.000581349479034543, -0.0475105457007885, 0.03669658675789833, -0.04273013770580292, 0.09257330000400543, 0.056771498173475266, 0.04612775892019272, 0.053141724318265915, 0.017064085230231285, 0.05692549794912338, 0.025695553049445152, -0.0699753388762474, -0.09050050377845764, 0.012948738411068916, 0.014467494562268257, -0.027025889605283737, -0.08272744715213776, -0.11600694060325623, 0.03901608660817146, -0.004116444382816553, -0.04817888140678406, 0.004047279711812735, -0.007483133114874363, 0.030653346329927444, -0.034598544239997864, 0.0012942455941811204, 0.05399937927722931, 0.03355507552623749, 0.028883863240480423, 0.02281210385262966, -0.1174979954957962, -0.04183635115623474, -0.005764532368630171, -0.06044967100024223, -0.005029011983424425, 0.01869846321642399, 0.06358475983142853, -0.030043553560972214, -0.0069098928943276405, -0.007044576574116945, -0.0742860957980156, -0.01813441514968872, -0.06896872073411942, -0.04709896072745323, 0.03719661757349968, -0.06535173952579498, -0.022458244115114212, 0.02439015917479992, 0.14787638187408447, -0.06225518509745598, 0.0330398865044117, -0.007305707782506943, 0.06843306869268417, 0.026188289746642113, 0.010438802652060986, 0.03051234595477581, 0.015637977048754692, -0.03807834908366203, -0.08578049391508102, 0.02932949736714363, -0.02969316951930523, 0.0053635891526937485, -0.06274528801441193, -0.09374073147773743, 0.0728120282292366, 0.01190008781850338, 0.08186095952987671, -0.05754586681723595, 0.03164522722363472, 0.042397040873765945, -0.022347990423440933, -0.03502311930060387, 0.11617585271596909, 0.024802444502711296, -0.079975925385952, -9.830239016696371e-33, -0.0050027198158204556, -0.013345597311854362, -0.055787283927202225, 0.05388130992650986, 0.12359979748725891, 0.007692819926887751, 0.04740533605217934, -0.005494013428688049, 0.053082335740327835, -0.007421796675771475, -0.038112573325634, -0.004260296933352947, 0.02956005372107029, 0.011974227614700794, -0.03355172276496887, 0.057981226593256, 0.008260013535618782, -0.047651492059230804, -0.039432503283023834, 0.021198194473981857, -0.07189471274614334, 0.09371723234653473, -0.10744711011648178, 0.039094746112823486, -0.02428620308637619, 0.005291913636028767, -0.08061843365430832, -0.02896871790289879, -0.03610832989215851, 0.049445804208517075, 0.028009291738271713, -0.07126840949058533, -0.0797685906291008, 0.0968824177980423, 0.03430601581931114, -0.04447609931230545, 0.08853625506162643, 0.0208106841892004, 0.03133683651685715, 0.08055570721626282, 0.0912981927394867, -0.003380104899406433, -0.014341083355247974, -0.029260871931910515, 0.032804060727357864, -0.02505960687994957, -0.0465206615626812, 0.026548078283667564, -0.01747039519250393, -0.046242814511060715, 0.031186718493700027, -0.016591763123869896, 0.007977395318448544, -0.014444432221353054, 0.0755806490778923, -0.031038902699947357, 0.05883597210049629, -0.0030973919201642275, -0.020796773955225945, -0.024038217961788177, 0.05169909819960594, -0.06288307160139084, 0.034234482795000076, 0.1010592058300972, -0.025197496637701988, -0.012529117055237293, 0.006163255777209997, 0.06945309042930603, -0.07546183466911316, -0.1003398671746254, -0.03206280618906021, -0.00227004149928689, 0.006656610406935215, 0.004439122509211302, -0.05572788417339325, 0.012972531840205193, -0.05580303072929382, -0.0484091117978096, 0.026597198098897934, 0.01644667610526085, -0.0027098774444311857, 0.03555995970964432, 0.003767371876165271, -0.014784625731408596, 0.00436413986608386, -0.04835684970021248, 0.0008929360774345696, 0.030420809984207153, 0.04067768529057503, -0.07993276417255402, -0.06743072718381882, 0.08653859049081802, -0.016788946464657784, 0.08402538299560547, 0.07792285084724426, -6.32386090160253e-08, 0.005646240431815386, -0.05889284610748291, 0.008105452172458172, 0.055600278079509735, 0.07333172857761383, -0.039380643516778946, -0.00932478066533804, 0.012480631470680237, 0.07509257644414902, 0.047260042279958725, 0.002394389361143112, -0.02038988471031189, -0.03887808695435524, -0.034915756434202194, 0.07916585355997086, -0.00615702522918582, 0.021837223321199417, 0.08427643775939941, -0.026226460933685303, -0.07604433596134186, 0.10546814650297165, 0.016228633001446724, -0.004875533748418093, 0.01585742086172104, -0.013756339438259602, -0.03347866237163544, -0.03559490293264389, -0.00838276743888855, -0.0034016843419522047, -0.03332459181547165, -0.021583495661616325, -0.005236081313341856, 0.10902389883995056, -0.06807617098093033, 0.07286270707845688, 0.04276953265070915, 0.06499996036291122, -0.04164483770728111, 0.054711565375328064, 0.15550142526626587, 0.015281520783901215, -0.027108481153845787, 0.03986688703298569, 0.006685594562441111, 0.013010364025831223, -0.005180313251912594, -0.009166770614683628, -0.07135078310966492, 0.0011001216480508447, -0.04927140101790428, -0.020863844081759453, -0.0374775230884552, 0.0004564438422676176, -0.0031658844090998173, 0.08820448815822601, 0.10483677685260773, -0.05228515341877937, -0.02218582108616829, 0.06128913536667824, 0.038471147418022156, 0.08094654977321625, 0.036789942532777786, -0.025546103715896606, 0.047039613127708435]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lakshana.txt-part-2</t>
+          <t>srinivas resume.pdf-part-2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>) , and [ Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/cookie-policy ? trk=public_profile_top-card_title-modal_contextual-sign-in-modal_sign-in-modal_auth-button_cookie-policy &gt; ) . New to LinkedIn ? [ Join now ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; trk=public_profile_top-card_title-modal_contextual-sign-in-modal_sign-in-modal_join-link &gt; ) or New to LinkedIn ? [ Join now ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; trk=public_profile_top-card_title-modal_contextual-sign-in-modal_join-link &gt; ) By clicking Continue to join or sign in , you agree to LinkedIn ’ s [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/user-agreement ? trk=linkedin-tc_auth-button_user-agreement &gt; ) , [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/privacy-policy ? trk=linkedin-tc_auth-button_privacy-policy &gt; ) , and [ Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/cookie-policy ? trk=linkedin-tc_auth-button_cookie-policy &gt; ) . # # BTech Information Technology Student | Full Stack Developer | AI Enthusiast | Exploring UI/UX Design &amp; Cloud Technologies # # # Chennai , Tamil Nadu , India Contact Info # # Sign in to view Lakshana ’ s full profile Sign in # # Welcome back Email or phone Password Show [ Forgot password ? ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/uas/request-password-reset ? trk=public_profile_profile-info-subheader_contact-info_modal_contextual-sign-in-modal_sign-in-modal_forgot_password &gt; ) Sign in or By clicking Continue to join or sign in , you agree to LinkedIn ’ s [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/user-agreement ? trk=public_profile_profile-info-subheader_contact-info_modal_contextual-sign-in-modal_sign-in-modal_auth-button_user-agreement &gt; ) , [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/privacy-policy ? trk=public_profile_profile-info-subheader_contact-info_modal_contextual-sign-in-modal_sign-in-modal_auth-button_privacy-policy &gt; ) , and [ Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/cookie-policy ? trk=public_profile_profile-info-subheader_contact-info_modal_contextual-sign-in-modal_sign-in-modal_auth-button_cookie-policy &gt; ) . New to LinkedIn ? [ Join now ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; trk=public_profile_profile-info-subheader_contact-info_modal_contextual-sign-in-modal_sign-in-modal_join-link &gt; ) or New to LinkedIn ? [ Join now ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp;</t>
+          <t>, Express , and MongoDB to provide students with a centralized platform for academic support and code practice . ● Implemented key features including a code editor , data storage , execution history tracking , user profiles , and settings management , enhancing the learning experience for young developers and students . EaseMind Dec 2024 ● Created a comprehensive mental health support platform featuring professional counseling services , community forums , educational resources , interactive challenges , and mood/progress tracking . ● This platform utilizes machine learning models to detect user stress levels and a fine-tuned Llama 3.1 8B model to provide virtual therapist support . LEADERSHIP AND ACADEMIC ACHIEVEMENTS ● President , DevDynasty Club ( Feb 2024 - Present ) : '' President ( 2024-Present ) : Leading a team of 20 members in organizing 6 workshops and events . Drove product development , oversaw team collaboration . ● Class Representative ( 2022 – 2024 ) : Demonstrated leadership and effective communication skills . ● Awarded Silver Medal for Outstanding Academic Performance ( 2023-2024 ) . OTHER ● Technical : Advanced in Python , Proficient in Javascript , HTML/CSS ; Proficient in React ● Languages : Fluent in English , Tamil ; Conversational Proficiency in Hindi .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lakshana Rajendran is a BTech Information Technology student, full-stack developer, and AI enthusiast based in Chennai, India.</t>
+          <t>Developed multiple platforms, including an academic support platform and a mental health support platform, utilizing technologies like Express, MongoDB, and machine learning models, while also holding leadership positions and achieving academic awards.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[-0.08815625309944153, -0.050542961806058884, -0.027681613340973854, -0.014898857101798058, 0.07101544737815857, 0.058368705213069916, 0.05529642105102539, 0.01506540086120367, -0.05235574021935463, -0.03457016870379448, 0.03573862090706825, -0.03184892237186432, -0.009586007334291935, 0.012871441431343555, 0.11268738657236099, 0.0068458206951618195, -0.0323086678981781, 0.009982758201658726, -0.058544643223285675, 0.014177598059177399, 0.02053981088101864, -0.03689748793840408, -0.018830781802535057, -0.03254678100347519, -0.0226888507604599, -0.1525958627462387, 0.02088090404868126, 0.01219145767390728, -0.03761381655931473, -0.007410642225295305, -0.01885306090116501, 0.11117034405469894, -0.12618893384933472, -0.0593351311981678, 0.02179570496082306, -0.08510518819093704, -0.0009090561652556062, -0.014698869548738003, 0.010302465409040451, -0.10577643662691116, -0.0017440776573494077, -0.05092686042189598, -0.06897541880607605, 0.02856697328388691, -0.019519014284014702, 0.05812930688261986, 0.024112163111567497, -0.0011988164624199271, 0.0066207521595060825, 0.011336049996316433, 0.005788366310298443, -0.008437257260084152, 0.049722153693437576, -0.033195458352565765, -0.01835697703063488, 0.01602817140519619, -0.04935026913881302, -0.03883780166506767, -0.016970239579677582, 0.03019230253994465, 0.03180176392197609, -0.021225064992904663, 0.008529430255293846, 0.02655741013586521, 0.049464013427495956, -0.03952649235725403, -0.031098658218979836, 0.01881481148302555, 0.003146660514175892, -0.05187166482210159, -0.018192538991570473, 0.0036326732952147722, -0.07609526813030243, -0.046042654663324356, -0.02494492009282112, -0.02775481529533863, -0.016011398285627365, 0.032962165772914886, -0.004036840982735157, -0.08354774117469788, -0.012219700962305069, 0.06112581491470337, -0.0026292563416063786, -0.012617671862244606, 0.028264980763196945, 0.0071430448442697525, -0.022570250555872917, 0.029553480446338654, -0.07318396121263504, -0.006969131529331207, 0.10923910140991211, 0.12922243773937225, 0.0273368451744318, -0.01780642755329609, 0.046265918761491776, -0.02500368282198906, -0.019388291984796524, 0.027672355994582176, -0.0025211770553141832, 0.04572049155831337, -0.037776846438646317, 0.02562038041651249, -0.03886152431368828, 0.03828718885779381, -0.00216211611405015, -2.4580684112152085e-05, 0.05082027241587639, 0.12373515218496323, 0.07977846264839172, 0.015038007870316505, -0.015485710464417934, -0.022729024291038513, 0.010501797311007977, -0.018160264939069748, -0.065123051404953, 0.02759484201669693, -0.010944044217467308, 0.05427515134215355, 0.20669080317020416, -0.03228771686553955, 0.043178461492061615, -0.004999994300305843, -0.049173321574926376, -0.0012146244989708066, -0.07732253521680832, -0.06688476353883743, -0.02111648954451084, 2.1584312475428646e-34, 0.1334153711795807, 0.11447875946760178, -0.029750028625130653, -0.04657716304063797, -0.014479379169642925, 7.385391654679552e-05, -0.0006073110271245241, -0.03416593745350838, -0.07306260615587234, 0.023897696286439896, -0.0794917419552803, 0.07319573312997818, 0.04842060059309006, 0.029914382845163345, -0.030223358422517776, -0.046697087585926056, 0.007388285826891661, 0.02589569054543972, -0.016993630677461624, 0.007283087354153395, -0.013159723952412605, 0.06956584006547928, 0.01611466519534588, 0.09844192862510681, 0.0005595815018750727, 0.050057291984558105, 0.08720903098583221, -0.03441886976361275, -0.003047273261472583, 0.012374715879559517, -0.063290074467659, -0.039749596267938614, -0.06752640753984451, 0.010208695195615292, 0.11295673251152039, -0.008291480131447315, 0.032103244215250015, -0.0420549176633358, -0.0580042339861393, -0.0880456268787384, 0.018998360261321068, -0.007523697335273027, -0.0017001009546220303, -0.02771793119609356, -0.057068392634391785, -0.000621556886471808, 0.006274954415857792, 0.021766422316432, 0.059587977826595306, 0.03883042186498642, -0.07202177494764328, -0.022550733759999275, -0.09703824669122696, -0.04375230893492699, -0.06896882504224777, -0.052685659378767014, -0.08008047193288803, 0.04258931428194046, -0.0209351759403944, -0.07691072672605515, 0.004452562425285578, -0.038055241107940674, -0.04469887912273407, 1.0770280823635403e-05, -0.08737961947917938, 0.005043509416282177, 0.0034113985020667315, -0.04455799609422684, 0.072661392390728, -0.12857618927955627, -0.04560433328151703, 0.0734814777970314, 0.046858664602041245, 0.08855148404836655, -0.010989243164658546, 0.041947320103645325, -0.016250455752015114, 0.04969896376132965, 0.0010956376791000366, 0.06540441513061523, 0.0628981962800026, 0.047888096421957016, -0.09493584930896759, 0.004803642630577087, 0.053204525262117386, 0.002750059822574258, -0.009642662480473518, -0.08006323128938675, -0.017028111964464188, 0.011621884070336819, 0.01533788163214922, 0.1082373782992363, 0.057210732251405716, 0.08741055428981781, -0.014377172105014324, -3.6274414868131886e-33, 0.04073343425989151, -0.0799984410405159, 0.07691435515880585, -0.027000851929187775, 0.009311279281973839, 0.013659419491887093, 0.0723099634051323, 0.0048157451674342155, 0.07975108176469803, -0.04394173622131348, 0.06538884341716766, 0.017180031165480614, 0.03642009571194649, -0.06450551003217697, 0.01874476671218872, 0.007358840201050043, -0.043869830667972565, 0.0625612810254097, -0.01535564474761486, -0.06940387189388275, 0.03646579384803772, 0.020428132265806198, -0.05031781271100044, 0.03862498700618744, 0.08018045127391815, -0.018244139850139618, 0.04648260399699211, 0.06349984556436539, -0.014058026485145092, -0.0031904266215860844, 0.04464926943182945, -0.03460460901260376, -0.08059410750865936, 0.048698462545871735, -0.017466474324464798, 0.05644005164504051, 0.06644811481237411, 0.024541199207305908, 0.039830226451158524, 0.016035601496696472, -0.004781611263751984, -0.05709220468997955, 0.08028390258550644, 0.008525741286575794, 0.009164023213088512, -0.026598958298563957, 0.01372453011572361, -0.08867043256759644, -0.08938464522361755, 0.04720790684223175, 0.0750027745962143, -0.06668055802583694, 0.04872933402657509, -0.10910860449075699, 0.01701287552714348, 0.013703902252018452, 0.030986567959189415, -0.01902773417532444, 0.0027343041729182005, -0.09451855719089508, 0.041959796100854874, 0.027989113703370094, 0.015811681747436523, 0.1207127720117569, 0.008304724469780922, -0.08707409352064133, -0.0002473572676535696, 0.015682712197303772, -0.005170006304979324, -0.030468422919511795, -0.054396405816078186, -0.0643264427781105, -0.0029775709845125675, 0.012646174989640713, 0.0011555706150829792, -0.05764974281191826, 0.08530550450086594, -0.03554868698120117, -0.038131941109895706, -0.011175157502293587, -0.06954895704984665, -0.0019945413805544376, -0.006547688506543636, -0.04368145391345024, 0.05100502073764801, 0.06402786076068878, 0.047131750732660294, 0.04494703561067581, -0.0007361277821473777, -0.0728466734290123, -0.09429112821817398, -0.045621827244758606, -0.0021157378796488047, 0.04900122806429863, -0.051935113966464996, -4.965838940051981e-08, 0.06784672290086746, 0.02027011476457119, 0.0007287608459591866, 0.00485283974558115, 0.010052493773400784, 0.054496124386787415, -0.0541921965777874, 0.05674593150615692, -0.05478726327419281, -0.030966022983193398, -0.006732472218573093, 0.07886631786823273, -0.08941423892974854, -0.05567459017038345, -0.08138760924339294, -0.03656986728310585, -0.024736056104302406, -0.059940826147794724, 0.022387661039829254, -0.06643230468034744, 0.00015548139344900846, -0.0001544822589494288, 0.010037059895694256, -0.0015485965413972735, -0.05994803458452225, 0.03435349836945534, 0.023528967052698135, 0.06576097011566162, 0.03948027640581131, -0.022259756922721863, -0.0431346669793129, 0.024226577952504158, 0.028016645461320877, -0.0725066214799881, -0.05972352623939514, -0.00863425713032484, -0.07247854024171829, -0.02496512047946453, 0.022253699600696564, -0.02558811753988266, 0.07566086947917938, 0.003392153885215521, 0.09012213349342346, -0.005697222892194986, 0.016007626429200172, -0.01771477796137333, 0.011809861287474632, -0.03753376379609108, -0.006077630445361137, -0.094779372215271, -0.02038310468196869, 0.005580554250627756, 0.05309890955686569, 0.036018796265125275, -0.06553906947374344, 0.025502042844891548, -0.007850931957364082, 0.08769451826810837, 0.09532414376735687, 0.003890624037012458, 0.10700258612632751, 0.0069266799837350845, -0.07039495557546616, 0.04382045194506645]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>trk=public_profile_profile-info-subheader_contact-info_modal_contextual-sign-in-modal_join-link &gt; ) By clicking Continue to join or sign in , you agree to LinkedIn ’ s [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/user-agreement ? trk=linkedin-tc_auth-button_user-agreement &gt; ) , [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/privacy-policy ? trk=linkedin-tc_auth-button_privacy-policy &gt; ) , and [ Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/cookie-policy ? trk=linkedin-tc_auth-button_cookie-policy &gt; ) . 738 followers 500+ connections # # # # See your mutual connections # # View mutual connections with Lakshana Sign in # # Welcome back Email or phone Password Show [ Forgot password ? ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/uas/request-password-reset ? trk=public_profile_mutual-connections_contextual-sign-in-modal_sign-in-modal_forgot_password &gt; ) Sign in or By clicking Continue to join or sign in , you agree to LinkedIn ’ s [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/user-agreement ? trk=public_profile_mutual-connections_contextual-sign-in-modal_sign-in-modal_auth-button_user-agreement &gt; ) , [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/privacy-policy ? trk=public_profile_mutual-connections_contextual-sign-in-modal_sign-in-modal_auth-button_privacy-policy &gt; ) , and [ Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/cookie-policy ? trk=public_profile_mutual-connections_contextual-sign-in-modal_sign-in-modal_auth-button_cookie-policy &gt; ) . New to LinkedIn ? [ Join now ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; trk=public_profile_mutual-connections_contextual-sign-in-modal_sign-in-modal_join-link &gt; ) or New to LinkedIn ? [ Join now ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; trk=public_profile_mutual-connections_contextual-sign-in-modal_join-link &gt; ) By clicking Continue to join or sign in , you agree to LinkedIn ’ s [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/user-agreement ? trk=linkedin-tc_auth-button_user-agreement &gt; ) , [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/privacy-policy ? trk=linkedin-tc_auth-button_privacy-policy &gt; ) , and [ Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/cookie-policy ? trk=linkedin-tc_auth-button_cookie-policy &gt; ) . [ Join to view profile ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; trk=public_profile_top-card-primary-button-join-to-view-profile &gt;</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>To access a LinkedIn profile, users must sign in or join, agreeing to LinkedIn's User Agreement, Privacy Policy, and Cookie Policy.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[-0.09292496740818024, 0.03247660771012306, -0.008212093263864517, -0.019569626078009605, 0.02495570108294487, 0.015391293913125992, 0.0900692343711853, -0.00547140184789896, -0.0426475815474987, -0.007739302236586809, 0.02876867912709713, -0.021539388224482536, 0.05974690243601799, 0.005685972049832344, 0.04296780005097389, 7.879296026658267e-05, -0.06578752398490906, -0.0156448632478714, -0.06723852455615997, -0.02317950502038002, -0.0043961782939732075, 0.005026890896260738, -0.0003910991072189063, -0.02238551713526249, -0.009465678595006466, -0.15179134905338287, 0.01880156807601452, 0.026477539911866188, -0.03307480365037918, 0.03478645533323288, -0.02023712731897831, 0.09311273694038391, -0.1405867636203766, -0.061209067702293396, -0.007463728077709675, -0.07728990167379379, -0.05048402026295662, -0.04081840068101883, -0.0068363347090780735, -0.06573131680488586, 0.010429897345602512, -0.08206508308649063, -0.034569378942251205, 0.018160121515393257, -0.02517714723944664, 0.0344894602894783, -0.017340272665023804, -0.0033216250594705343, -0.007919993251562119, 0.018839683383703232, -0.02492614835500717, 0.007350705098360777, 0.008310535922646523, -0.03188558667898178, -0.0072706020437181, -0.008158947341144085, -0.020354723557829857, -0.012659287080168724, -0.006133611313998699, 0.04057244583964348, 0.02168542519211769, -0.059681396931409836, -0.009199428372085094, 0.009654762223362923, 0.02892363630235195, 0.011725456453859806, -0.013828287832438946, 0.03617192059755325, -0.03534936159849167, -0.018274612724781036, 0.0028107231482863426, -0.004604296293109655, -0.11329098045825958, -0.013420561328530312, -0.018237067386507988, -0.0052942316979169846, -0.035923127084970474, 0.05712233483791351, 0.01180377509444952, -0.13877081871032715, -0.036286015063524246, 0.03740315139293671, -0.005805088672786951, 0.005399180576205254, -0.00979125127196312, 0.01774223893880844, -0.00046723175910301507, 0.027085483074188232, -0.04874059930443764, 0.04756927490234375, 0.09279315918684006, 0.08102316409349442, 0.01606440730392933, -0.06752823293209076, 0.06135144829750061, 0.004539065528661013, -0.04418550059199333, 0.0049136364832520485, -0.033722419291734695, 0.037407953292131424, -0.06931725889444351, 0.014110008254647255, -0.06258810311555862, 0.00456394674256444, -0.00229956884868443, -0.018145844340324402, 0.05200699344277382, 0.0627019852399826, 0.12732407450675964, 0.04951640963554382, -0.035715531557798386, -0.04380721226334572, -0.0010417832527309656, 0.01897592283785343, -0.03144913539290428, -0.0030780211091041565, 0.027085227891802788, 0.06488119810819626, 0.1948123425245285, -0.09446849673986435, 0.013156280852854252, 0.001194640644825995, -0.09989415109157562, -0.01663087122142315, -0.06712781637907028, -0.09809397161006927, 0.014806658960878849, 1.1987807102410847e-33, 0.09195604175329208, 0.09440593421459198, -0.012501348741352558, -0.02624315209686756, 0.021624570712447166, 0.005096709821373224, -0.034421809017658234, -0.06715735793113708, -0.10349053144454956, 0.06715228408575058, -0.09467633813619614, 0.051456596702337265, 0.05387849733233452, 0.013586440123617649, -0.026380587369203568, -0.05503108352422714, 0.024294883012771606, 0.050181567668914795, -0.014489864930510521, 0.011271318420767784, 0.05993669107556343, 0.036987289786338806, 0.010019339621067047, 0.1188475713133812, -0.023598933592438698, 0.018036236986517906, 0.03917551785707474, 0.013677558861672878, -0.007401925511658192, 0.012207189574837685, -0.028633104637265205, 0.012882303446531296, -0.013528152368962765, -0.00664893165230751, 0.11182701587677002, -0.04338005930185318, 0.001209051115438342, -0.03071904182434082, -0.0258666779845953, -0.027463840320706367, 0.034675564616918564, -0.03741990774869919, -0.02349163219332695, -0.008700834587216377, -0.08405748754739761, 0.0496571883559227, 0.008644809015095234, 0.05344236642122269, 0.06458798050880432, 0.02321321703493595, -0.053789444267749786, 0.004702079109847546, -0.07579942047595978, -0.017874030396342278, -0.011771916411817074, -0.043785907328128815, -0.0872470885515213, 0.04384160041809082, -0.04435101896524429, -0.03314310684800148, 0.06417921930551529, -0.014324547722935677, -0.04081602394580841, -0.00718988012522459, -0.07527212053537369, 0.010792840272188187, -0.030996184796094894, -0.03599528968334198, 0.04561670869588852, -0.12261492013931274, -0.02938847616314888, 0.10203322023153305, 0.03029530681669712, 0.03303711488842964, -0.023100361227989197, 0.0026847929693758488, -0.008844266645610332, 0.10818439722061157, 0.029066994786262512, 0.04280614107847214, 0.011962860822677612, 0.05677781254053116, -0.04628705978393555, -0.00922219455242157, 0.02651672624051571, 0.0016662845155224204, -0.024880066514015198, -0.0370459221303463, -0.04850336164236069, 0.037413883954286575, 0.04966168478131294, 0.056488025933504105, 0.028849409893155098, 0.08660035580396652, -0.05870731920003891, -4.2773341098164296e-33, 0.005473948549479246, -0.028752030804753304, 0.10457878559827805, -0.06815331429243088, 0.015120990574359894, 0.001253996742889285, 0.04765460267663002, 0.0524277538061142, 0.08491067588329315, -0.03341522812843323, 0.11137666553258896, -0.02698853425681591, 0.06297715753316879, -0.0774737074971199, -0.012993995100259781, -0.009642712771892548, 0.0026973215863108635, 0.0697517916560173, -0.04073579981923103, -0.039627980440855026, 0.03210768848657608, -0.043396346271038055, -0.024487944319844246, 0.04313695430755615, 0.0854794979095459, -0.05418138951063156, -0.0018111515091732144, 0.025221068412065506, 0.015982400625944138, 0.034670017659664154, 0.06522466987371445, -0.024875355884432793, -0.11890243738889694, 0.00696391798555851, -0.016976909711956978, -0.0057594352401793, 0.036939024925231934, 0.04701365530490875, 0.012355596758425236, -0.008900738321244717, 0.030404089018702507, -0.027915505692362785, 0.05098586902022362, 0.017277099192142487, 0.022336816415190697, -0.012772854417562485, 0.010514114052057266, -0.09508911520242691, -0.12704333662986755, 0.018459485843777657, 0.10761822015047073, -0.02182069793343544, 0.1167120635509491, -0.08462295681238174, -0.00792255811393261, 0.02285934053361416, 0.07299797981977463, -0.00988235417753458, 0.051850635558366776, -0.06014827638864517, 0.12542331218719482, -0.03623871132731438, 0.02295694686472416, 0.1340031772851944, 0.012552184984087944, -0.05505622923374176, 0.0103654395788908, 0.04735976830124855, 0.051068250089883804, -0.026818370446562767, -0.017550934106111526, -0.10822895169258118, 0.03432658687233925, -0.02543005719780922, 0.058208875358104706, -0.04649466648697853, 0.011260791681706905, -0.05634969472885132, -0.02743617817759514, 0.029664266854524612, -0.0368921123445034, 0.059853266924619675, -0.03379017859697342, -0.041224874556064606, 0.031964682042598724, 0.018272673711180687, 0.01192289125174284, 0.06581871211528778, 0.030295563861727715, 0.008874925784766674, -0.035726383328437805, -0.09038561582565308, 0.0037426468916237354, 0.0422249399125576, -0.04171939194202423, -5.1005681456217644e-08, 0.02868814393877983, -0.008239188231527805, 0.000100668978120666, -0.016327736899256706, 0.038656774908304214, 0.08250204473733902, 0.00364706595428288, 0.004409889690577984, -0.04348982125520706, -0.023190494626760483, -0.02988795004785061, 0.08010778576135635, -0.08369145542383194, -0.029751768335700035, -0.07196606695652008, -0.052791718393564224, -0.08022292703390121, -0.05798971652984619, 0.03756830841302872, -0.014992495998740196, -0.07721523940563202, -0.06693577021360397, -0.01831403374671936, 8.020260429475456e-05, -0.0479295514523983, 0.011697552166879177, 0.011626915074884892, 0.10517159104347229, 0.01907089352607727, -0.017356814816594124, -0.058697789907455444, -0.01947362907230854, -0.03638960421085358, -0.08136586099863052, -0.117425836622715, 0.05231058597564697, -0.07914358377456665, -0.0071494970470666885, 0.046719182282686234, -0.01552182249724865, 0.0604666993021965, 0.03177795559167862, 0.10101408511400223, 0.04089006409049034, 0.054262369871139526, 0.022377057000994682, 0.029701048508286476, 0.020463649183511734, -0.02113339491188526, -0.09106475859880447, 0.0001112183672375977, 0.023750074207782745, 0.04574453458189964, 0.026002565398812294, -0.0406157486140728, -0.056174781173467636, -0.0032620669808238745, 0.09203430265188217, 0.04398968443274498, -0.045868322253227234, 0.06671515852212906, 0.02644934505224228, -0.0379193052649498, -0.0002409924054518342]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>) Message # # Sign in to view Lakshana ’ s full profile Sign in # # Welcome back Email or phone Password Show [ Forgot password ? ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/uas/request-password-reset ? trk=public_profile_top-card_secondary-cta-modal_contextual-sign-in-modal_sign-in-modal_forgot_password &gt; ) Sign in or By clicking Continue to join or sign in , you agree to LinkedIn ’ s [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/user-agreement ? trk=public_profile_top-card_secondary-cta-modal_contextual-sign-in-modal_sign-in-modal_auth-button_user-agreement &gt; ) , [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/privacy-policy ? trk=public_profile_top-card_secondary-cta-modal_contextual-sign-in-modal_sign-in-modal_auth-button_privacy-policy &gt; ) , and [ Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/cookie-policy ? trk=public_profile_top-card_secondary-cta-modal_contextual-sign-in-modal_sign-in-modal_auth-button_cookie-policy &gt; ) . New to LinkedIn ? [ Join now ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; trk=public_profile_top-card_secondary-cta-modal_contextual-sign-in-modal_sign-in-modal_join-link &gt; ) or New to LinkedIn ? [ Join now ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; trk=public_profile_top-card_secondary-cta-modal_contextual-sign-in-modal_join-link &gt; ) By clicking Continue to join or sign in , you agree to LinkedIn ’ s [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/user-agreement ? trk=linkedin-tc_auth-button_user-agreement &gt; ) , [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/privacy-policy ? trk=linkedin-tc_auth-button_privacy-policy &gt; ) , and [ Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/cookie-policy ? trk=linkedin-tc_auth-button_cookie-policy &gt; ) . [ The NEST School Chennai ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/company/the-nest-school-chennai ? trk=public_profile_topcard-current-company &gt; ) [ Meenakshi Sundararajan Engineering College ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/school/meenakshi-sundararajan-engineering-college/ ? trk=public_profile_topcard-school &gt; ) * [ Report this profile ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /uas/login ? fromSignIn=true &amp; session_redirect=https % 3A % 2F % 2Fin.linkedin.com % 2Fin % 2Flakshana-rajendran-a179a02a1 &amp; trk=public_profile_ellipsis-menu-semaphore-sign-in-redirect &amp; guestReportContentType=PROFILE &amp; _f=guest-reporting &gt; ) # # About Hello , I ’ m Lakshana , a web developer with a strong passion for AI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Lakshana is a web developer with a strong passion for AI, as stated on her LinkedIn profile.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[-0.09963222593069077, -0.003840451827272773, 0.00023884607071522623, -0.005476432386785746, 0.02477855794131756, 0.06376314908266068, 0.051228489726781845, -0.0003054680419154465, -0.01875917613506317, -0.018974728882312775, 0.0359991118311882, -0.004978902172297239, 0.0432501919567585, -0.011353511363267899, 0.029011107981204987, -0.004999256692826748, -0.057035163044929504, -0.017376592382788658, -0.04620695486664772, 0.0002762878139037639, 0.02770630270242691, 0.013524350710213184, -0.03633274883031845, 0.011651149950921535, -0.008473576977849007, -0.15233485400676727, 0.008771136403083801, 0.04933593049645424, -0.07236950844526291, 0.014240994118154049, -0.007817080244421959, 0.14283041656017303, -0.1068003922700882, -0.05896119028329849, -0.011553623713552952, -0.06057969853281975, -0.08946316689252853, -0.02204829268157482, 0.0014031958999112248, -0.09245181828737259, -0.03267883509397507, -0.0857805609703064, -0.06060872972011566, 0.009371288120746613, 0.00574855599552393, 0.000561837456189096, -0.028927985578775406, 0.006121884565800428, 0.011823279783129692, 0.01656908355653286, 0.049571506679058075, -0.02390504814684391, -0.011505454778671265, -0.03450784087181091, -0.04584433510899544, 0.010402914136648178, 0.0025326041504740715, -0.009576817974448204, 0.004358276259154081, 0.026829086244106293, 0.026599284261465073, -0.041497211903333664, -0.027739277109503746, 0.029750093817710876, 0.013531689532101154, -0.0117576215416193, -0.01398877240717411, -0.04161082208156586, -0.03294392302632332, -0.053867340087890625, 0.024393534287810326, -0.010636823251843452, -0.05394291877746582, -0.03653554618358612, -0.005972921382635832, 0.048534590750932693, -0.03881574422121048, 0.0463382862508297, -0.006895976606756449, -0.04901736229658127, -0.014054089784622192, 0.02589954249560833, 0.003965779207646847, 0.01443351712077856, 0.033786214888095856, 0.038473937660455704, -0.04855715110898018, 0.02606867626309395, -0.022096754983067513, -0.02080206386744976, 0.13393338024616241, 0.08154679834842682, 0.023756837472319603, -0.036392711102962494, 0.02932405099272728, -0.0058274478651583195, -0.039807118475437164, -0.0036076626274734735, -0.05622021108865738, 0.02925872802734375, -0.0385601669549942, 0.035005707293748856, -0.034325242042541504, -0.0025395334232598543, 0.03028636798262596, -0.018295330926775932, 0.10947952419519424, 0.04744003340601921, 0.09360326826572418, 0.004782164469361305, -0.013881620019674301, -0.03438735753297806, 0.03494185954332352, 0.05215204879641533, -0.036461807787418365, 0.025803018361330032, 0.01084176916629076, 0.04755112901329994, 0.1773148626089096, -0.06830102950334549, -0.026114782318472862, -0.022720851004123688, -0.04100585728883743, -0.04143189266324043, -0.030932772904634476, -0.07792779803276062, -0.022323476150631905, 1.1483315232751653e-33, 0.06388877332210541, 0.11818842589855194, -0.007970787584781647, -0.03118596225976944, 0.021484771743416786, -0.04443170502781868, -0.006431999150663614, -0.11044242233037949, -0.06045088917016983, 0.030626563355326653, -0.05289279296994209, 0.07366681843996048, 0.039139386266469955, 0.006495148874819279, -0.03422747179865837, -0.03791133686900139, 0.03705446049571037, 0.03666061535477638, -0.022959807887673378, 0.03396611660718918, 0.030547192320227623, 0.05177005007863045, 0.06211841106414795, 0.07630007714033127, -0.017845647409558296, 0.04367437586188316, 0.06619899719953537, -0.0345831960439682, -0.002293322002515197, 0.024842005223035812, -0.047447558492422104, 0.005770800169557333, 0.01247442327439785, 0.03118271380662918, 0.06601981818675995, -0.022034000605344772, 0.06114963814616203, -0.022310875356197357, -0.048665594309568405, -0.0414632149040699, 0.05594496801495552, -0.02166997455060482, -0.0007497964543290436, -0.05962105840444565, -0.09229153394699097, 0.01715591736137867, 0.08951196819543839, 0.08135955780744553, 0.09088792651891708, 0.025387683883309364, -0.07012905925512314, 0.017979661002755165, -0.11801177263259888, -0.04924687743186951, -0.012107252143323421, -0.07346735149621964, -0.10062987357378006, -0.010697335936129093, -0.03093818947672844, -0.06290392577648163, 0.07700295746326447, -0.03012147918343544, -0.01766316033899784, -0.008060751482844353, -0.08457929641008377, -0.08430082350969315, -0.001173497294075787, -0.0879645049571991, 0.0036523952148854733, -0.09865811467170715, -0.035421550273895264, 0.08875490725040436, 0.048043392598629, 0.06548731029033661, -0.017019351944327354, 0.02826942503452301, 0.042297717183828354, 0.0889342874288559, -0.0004211557097733021, 0.07799962162971497, 0.027661869302392006, 0.02517913281917572, -0.06615924090147018, 0.007739953231066465, 0.036765288561582565, 0.008837979286909103, 0.02459329180419445, -0.03009280003607273, -0.06190861761569977, 0.05783838778734207, 0.022756433114409447, 0.04598396271467209, 0.0643918514251709, 0.06093094125390053, -0.003669505938887596, -4.210064976222686e-33, -0.014776860363781452, -0.06149950623512268, 0.07390878349542618, -0.06896770000457764, 0.0447593592107296, -0.008010784164071083, 0.04073076695203781, 0.06857467442750931, 0.05560077354311943, -0.06533139199018478, 0.09398197382688522, 0.035871487110853195, 0.018173497170209885, -0.07448119670152664, -0.017298733815550804, 0.010675565339624882, -0.003318361472338438, 0.08076564967632294, -0.04338383674621582, -0.02278086543083191, 0.08102762699127197, -0.03201313689351082, -0.054178424179553986, 0.0405619814991951, 0.09143578261137009, -0.037128522992134094, 0.01519862376153469, 0.054984599351882935, -0.020848384127020836, -0.014792071655392647, 0.07172615826129913, -0.058033961802721024, -0.07881111651659012, 0.0803709551692009, -0.016593437641859055, 0.012462751939892769, 0.028331182897090912, 0.04089025408029556, 0.00824296660721302, 0.05578234791755676, 0.06128266453742981, -0.00821655336767435, 0.021823793649673462, -0.0027556156273931265, 0.015306482091546059, -0.06486441195011139, 0.055371325463056564, -0.09824547916650772, -0.06719229370355606, 0.028075214475393295, 0.09293828904628754, -0.0410955585539341, 0.1253949999809265, -0.08387299627065659, -0.018968941643834114, 0.062100838869810104, 0.11782611161470413, -0.029687196016311646, 0.00979322288185358, -0.08026165515184402, 0.10043630003929138, -0.014444714412093163, 0.024381795898079872, 0.08522161096334457, -0.02730368822813034, -0.0473310723900795, 0.02376674860715866, 0.040896669030189514, 0.00020317720191087574, 0.01523724664002657, -0.027223175391554832, -0.06110061705112457, 0.014356457628309727, -0.00011319053737679496, 0.06983901560306549, -0.04382884129881859, -0.04834502190351486, -0.02894906885921955, -0.034179508686065674, -0.05694739520549774, 0.025178337469697, -0.021676361560821533, -0.05487390607595444, -0.044754333794116974, 0.05356065183877945, 0.007781301159411669, 0.054362665861845016, 0.02757052518427372, 0.03218698129057884, -0.01463035773485899, -0.07017553597688675, -0.08314807713031769, -0.009333197958767414, 0.0658368393778801, -0.019484125077724457, -5.232294242318858e-08, -0.0023750080727040768, -0.02894948050379753, -0.023909257724881172, -0.02352074347436428, 0.04864836484193802, 0.04963091388344765, -0.004626873880624771, -0.014734177850186825, -0.05431155115365982, -0.06680989265441895, -0.051033180207014084, 0.04625696688890457, -0.06872883439064026, -0.060492075979709625, -0.07450157403945923, -0.03370189294219017, -0.08250550925731659, -0.05464398115873337, 0.02931927517056465, -0.015213903971016407, -0.043339941650629044, -0.022396022453904152, -0.019128255546092987, 0.003806089283898473, -0.0753980278968811, 0.04480885714292526, -0.006589166354387999, 0.08311212807893753, 0.02244141697883606, -0.05889473855495453, -0.02458273246884346, 0.0003212793671991676, 0.01273900456726551, -0.09818471223115921, -0.13893058896064758, 0.04359123110771179, 0.02281107008457184, -0.024932002648711205, 0.06773108243942261, -0.02606118656694889, 0.06150521710515022, 0.012994729913771152, 0.09075555950403214, 0.002754817483946681, 0.006548454985022545, -0.013087396509945393, 0.045631252229213715, -0.01010051742196083, 0.0038180449046194553, -0.08974984288215637, -0.024127641692757607, 0.015181914903223515, 0.03712406009435654, 0.07502579689025879, -0.04465009644627571, -0.03175953030586243, 0.014939443208277225, 0.09511829167604446, 0.015556403435766697, -0.04214703291654587, 0.11103339493274689, 0.06008186936378479, -0.07099401950836182, -0.013455195352435112]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>and its ability to enhance web applications . I ’ m driven by creating intelligent , user-friendly solutions that simplify tasks and deliver real value.Currently , I ’ m focusing on expanding my skills in React , Flask , MongoDB , Firebase , while also diving into cloud technologies and UI/UX design . My goal is to build scalable , well-designed applications that leverage AI to tackle everyday challenges.Always eager to learn and grow , I thrive on taking on new challenges that push my boundaries and expand my knowledge.I ’ d love to connect and create something impactful together ! # # Activity Follow # # Sign in to view Lakshana ’ s full profile Sign in # # Welcome back Email or phone Password Show [ Forgot password ? ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/uas/request-password-reset ? trk=public_profile_follow_contextual-sign-in-modal_sign-in-modal_forgot_password &gt; ) Sign in or By clicking Continue to join or sign in , you agree to LinkedIn ’ s [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/user-agreement ? trk=public_profile_follow_contextual-sign-in-modal_sign-in-modal_auth-button_user-agreement &gt; ) , [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/privacy-policy ? trk=public_profile_follow_contextual-sign-in-modal_sign-in-modal_auth-button_privacy-policy &gt; ) , and [ Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/cookie-policy ? trk=public_profile_follow_contextual-sign-in-modal_sign-in-modal_auth-button_cookie-policy &gt; ) . New to LinkedIn ? [ Join now ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; trk=public_profile_follow_contextual-sign-in-modal_sign-in-modal_join-link &gt; ) or New to LinkedIn ? [ Join now ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; trk=public_profile_follow_contextual-sign-in-modal_join-link &gt; ) By clicking Continue to join or sign in , you agree to LinkedIn ’ s [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/user-agreement ? trk=linkedin-tc_auth-button_user-agreement &gt; ) , [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/privacy-policy ? trk=linkedin-tc_auth-button_privacy-policy &gt; ) , and [</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Lakshana is a developer focused on creating intelligent, user-friendly solutions with React, Flask, and AI, and is eager to connect and build impactful applications.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[-0.12303581833839417, -0.08209138363599777, -0.014431380666792393, 0.017869915813207626, 0.06920859962701797, 0.015149957500398159, 0.021739812567830086, 0.057205166667699814, -0.046337008476257324, -0.0377640537917614, -0.05037272348999977, 0.008850332349538803, 0.05492938309907913, 0.024961650371551514, 0.10006927698850632, 0.08671555668115616, 0.004929510876536369, -0.0421106293797493, -0.05519205704331398, -0.039128877222537994, 0.008634195663034916, -0.05287295952439308, 0.023761192336678505, 0.005143359769135714, -0.019057361409068108, -0.07505812495946884, 0.050280895084142685, -0.0440959706902504, -0.05483045428991318, -0.02924511581659317, 0.04011812061071396, 0.11764509230852127, -0.10085513442754745, -0.0036275754682719707, -0.12044189870357513, 0.033582184463739395, -0.001999602420255542, -0.032994695007801056, -0.029517073184251785, -0.14963245391845703, -0.04108051955699921, -0.09060325473546982, -0.061689428985118866, -0.006674600765109062, 0.026969032362103462, -0.050906937569379807, -0.040705472230911255, -0.04300691932439804, 0.02561156451702118, -0.012868190184235573, -0.018377063795924187, -0.07731130719184875, 0.012266801670193672, 0.027168355882167816, -0.06838832795619965, 0.04982241243124008, 0.01891380362212658, -0.024396121501922607, -0.018616143614053726, 0.004091744311153889, 0.05129561945796013, -0.05641520768404007, 0.06380651891231537, 0.05207753926515579, 0.019712410867214203, 0.016564005985856056, -0.011802544817328453, 0.02694343961775303, 0.044958703219890594, -0.039174217730760574, -0.009671969339251518, 0.040810439735651016, -0.0313311405479908, -0.021328099071979523, -9.24665728234686e-05, -0.03935951739549637, -0.03663061931729317, -0.05328145623207092, 0.03295871242880821, 0.026046793907880783, -0.01727420836687088, -0.016443440690636635, -0.04992996156215668, 0.12142885476350784, 0.035585176199674606, -0.012108555994927883, 0.018617739900946617, -0.04800693318247795, -0.018479658290743828, 0.0013250794727355242, 0.08455134183168411, 0.019907061010599136, 0.0647750198841095, -0.030614925548434258, 0.028072668239474297, 0.02379556931555271, -0.05839964747428894, 0.0027869483456015587, -0.072397381067276, 0.0002732804568950087, -0.06013339385390282, 0.06470422446727753, -0.014101902954280376, -0.06602569669485092, 0.0272980984300375, 0.007264035288244486, 0.042342912405729294, 0.0012691360898315907, 0.1115901991724968, 0.024492722004652023, -0.023352401331067085, -0.03147328644990921, 0.025738082826137543, 0.05556477978825569, 0.00680279778316617, 0.05168467015028, -0.009762673638761044, 0.010069575160741806, 0.1336274892091751, 0.06249641627073288, 0.029049096629023552, 0.06735153496265411, -0.025295022875070572, 0.01126052625477314, 0.044870126992464066, -0.05361403524875641, -0.11215993762016296, 4.7652296522809434e-33, 0.06373769044876099, 0.123931884765625, 0.018037769943475723, 0.0038330238312482834, 0.07159404456615448, -0.06380700320005417, 0.0002907427551690489, -0.07205253094434738, -0.12076135724782944, -0.014959880150854588, -0.05327976495027542, 0.16696083545684814, 0.043398160487413406, 0.045395627617836, 0.04719846695661545, -0.06698739528656006, -0.028281046077609062, 0.03348191827535629, 0.009781477972865105, -0.012423128820955753, -0.007871834561228752, -0.021645281463861465, 0.0035863318480551243, 0.07156626880168915, 0.06473749876022339, -0.020207185298204422, 0.10942365229129791, 0.060024961829185486, 0.0105179063975811, 0.004426431376487017, -0.06576402485370636, -0.030522361397743225, -0.07379673421382904, 0.04912680760025978, 0.01607881672680378, -0.042966052889823914, -0.015146338380873203, -0.10745299607515335, -0.02123766392469406, -0.029557880014181137, -0.03550991043448448, 0.013221453875303268, -0.03631458804011345, -0.0012235933681949973, -0.08926742523908615, 0.02343481220304966, 0.10652431100606918, 0.02721426449716091, 0.05179574340581894, -0.0015612593851983547, -0.10673872381448746, 0.0035682914312928915, -0.038983289152383804, -0.038706451654434204, -0.02072516456246376, -0.07165706157684326, -0.045481082051992416, -0.0464104600250721, 0.010401077568531036, -0.03291171044111252, -0.010852479375898838, -0.03235514834523201, -0.05171773582696915, 0.039890993386507034, -0.05934873968362808, -0.010723115876317024, 0.05565507337450981, 0.019863668829202652, 0.05598452687263489, -0.06206265836954117, -0.055645979940891266, 0.06917957216501236, 0.014530730433762074, 0.008126426488161087, -0.04699301719665527, -0.0013401979813352227, 0.05870058014988899, -0.008339004591107368, 0.023079534992575645, 0.056420158594846725, 0.08923178166151047, -0.02544354274868965, -0.043770287185907364, 0.10166705399751663, 0.024273043498396873, 0.00954187661409378, -0.00013130137813277543, -0.08133940398693085, -0.1040344312787056, 0.07193483412265778, 0.03265612572431564, 0.020352885127067566, 0.10289236903190613, 0.024776052683591843, -0.10037007927894592, -5.147696575788145e-33, 0.01169856172055006, -0.11618704348802567, 0.030384784564375877, -0.009720486588776112, 0.11514196544885635, 0.017057444900274277, 0.03205813094973564, 0.021432295441627502, 0.03408801555633545, -0.0523056797683239, 0.014153409749269485, 0.029131803661584854, 0.03352969139814377, -0.029497729614377022, -0.025214316323399544, 0.040026623755693436, 0.006801537238061428, -0.019107401371002197, -0.035705238580703735, -0.056857649236917496, 0.02210598811507225, 0.05465835705399513, -0.09695523977279663, -0.00606032507494092, 0.05561515688896179, -0.00961096677929163, -0.03445194661617279, 0.007137798238545656, -0.034460727125406265, 0.030255146324634552, 0.03471186384558678, -0.02606135606765747, -0.03883376717567444, 0.030032625421881676, -0.010161851532757282, 0.048373106867074966, 0.06272179633378983, -0.00791149865835905, -0.006010380107909441, -0.0016737220576032996, 0.038243234157562256, -0.025854328647255898, -0.01539867464452982, -0.0622280091047287, -0.01379272248595953, 0.017511824145913124, -0.02806353196501732, 0.011561864987015724, -0.1080433577299118, 0.006747211329638958, 0.05306309461593628, 0.01054746937006712, 0.02799890749156475, -0.12864725291728973, -0.031752362847328186, 0.020795682445168495, 0.08456722646951675, -0.008334229700267315, 0.02312662824988365, -0.024189908057451248, 0.05749599635601044, -0.034592777490615845, 0.06592866033315659, 0.07390681654214859, -0.02998247928917408, -0.06522447615861893, -0.0027656061574816704, 0.10630720108747482, -0.04706095531582832, 0.008065345697104931, 0.050874289125204086, -0.022920813411474228, 0.05375874042510986, 0.027684349566698074, -0.004137410782277584, -0.03760218247771263, 0.004102394916117191, -0.04490826651453972, -0.04533495008945465, -0.022530434653162956, -0.01096897479146719, 0.03461190313100815, 0.018954813480377197, -0.0746975764632225, 0.07341103255748749, 0.045193515717983246, -0.010352946817874908, 0.10060731321573257, 0.028029629960656166, 0.007914620451629162, -0.11586158722639084, 0.04121915623545647, -0.075850710272789, 0.04674278944730759, -0.05209612846374512, -6.734958901688515e-08, 0.028672732412815094, 0.0005903277778998017, -0.005568190477788448, 0.002402079524472356, 0.009618951939046383, 0.0292682908475399, -0.02841363288462162, 0.0132673941552639, -0.038264501839876175, -0.0019550358410924673, -0.014890581369400024, 0.031643953174352646, -0.09067782014608383, 0.05137906223535538, -0.004451578948646784, 0.006517382338643074, -0.00627452926710248, 0.001925267861224711, -0.005905836820602417, -0.014114731922745705, 0.03226737678050995, 0.0021804613061249256, -0.07533692568540573, 0.02486223541200161, -0.02770896814763546, 0.04454363137483597, 0.009592317044734955, 0.08767817169427872, 0.016992133110761642, -0.04607849940657616, -0.08091907203197479, -0.004281356930732727, 0.03346077725291252, -0.07469000667333603, -0.08395912498235703, 0.048124659806489944, -0.0053375898860394955, -0.0836043581366539, -0.024730375036597252, 0.03487611934542656, -0.0033887249883264303, 0.03500427305698395, 0.11907802522182465, -0.0028774759266525507, -0.014761232770979404, -0.019182365387678146, 0.043171849101781845, -0.03499630093574524, 0.07231348007917404, -0.04355817660689354, -0.016616476699709892, -0.037199679762125015, 0.012663092464208603, 0.07029088586568832, 0.1011345311999321, 0.040585074573755264, 0.00215054745785892, 0.023386307060718536, 0.028449948877096176, 0.045113224536180496, 0.13099658489227295, -0.005683889612555504, -0.04627188667654991, 0.02444167248904705]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/cookie-policy ? trk=linkedin-tc_auth-button_cookie-policy &gt; ) . * [ Excited to Start My Web Development Internship ! I 'm thrilled to share that I 've received an offer letter for a one-month online internship in the… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/akshaya-k-856b112a1_webdevelopment-internpe-internship-activity-7285532871857971200-6WIs &gt; ) # # # Excited to Start My Web Development Internship ! I 'm thrilled to share that I 've received an offer letter for a one-month online internship in the… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ I 'm thrilled to have attended the # Techobytes Technologies Flutter App Development workshop at # IITMadras 🎉on January 11th and 12th 2025 . This… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/ar-krithika-1562282a3_techobytes-iitmadras-techobytes-activity-7285221065541218305-Prby &gt; ) # # # I 'm thrilled to have attended the # Techobytes Technologies Flutter App Development workshop at # IITMadras 🎉on January 11th and 12th 2025 . This… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ 🎉 Reflecting on a Year of Growth and Innovation ! 🚀 As 2024 comes to an end , I ’ m taking a moment to reflect on the journey I ’ ve had this year—a… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/saarahakthar_reflecting-on-a-year-of-growth-and-innovation-activity-7279917445782323200-zVUo &gt; ) # # # 🎉 Reflecting on a Year of Growth and Innovation ! 🚀 As 2024 comes to an end , I ’ m taking a moment to reflect on the journey I ’ ve had this year—a… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Lakshana Rajendran is excited to start a web development internship and has also attended a Flutter app development workshop and reflected on a year of growth and innovation.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[-0.10407309979200363, 0.0295927245169878, 0.08058115839958191, -0.005730033852159977, 0.03729933872818947, 0.014436081983149052, 0.05443553254008293, -0.0809859037399292, -0.07100342959165573, 0.006147131323814392, 0.023147162050008774, -0.0020204882603138685, -0.010444771498441696, -0.007103991694748402, 0.012098647654056549, 0.05000351369380951, -0.01211511343717575, -0.07454182952642441, -0.05248893052339554, -0.04638702794909477, 0.002136348746716976, -0.04505610838532448, 0.0896584689617157, -0.041346073150634766, -0.011939249001443386, -0.05493823438882828, 0.017541075125336647, -0.013683024793863297, -0.1059357151389122, 0.013804244808852673, -0.008976726792752743, 0.13507255911827087, -0.07022302597761154, -0.0755360871553421, 0.04061199724674225, 0.034766748547554016, -0.15121442079544067, -0.0642344057559967, 0.06757768988609314, -0.06680399924516678, -0.008141584694385529, -0.031843122094869614, 0.009292766451835632, 0.016208602115511894, -0.0698128491640091, 0.012322012335062027, -0.021487494930624962, -0.03672603517770767, -0.06425299495458603, 0.011770457029342651, 0.034378085285425186, -0.026196694001555443, -0.018485091626644135, -0.019521061331033707, -0.04074709117412567, 0.020556673407554626, -0.08614461123943329, -0.06148416921496391, 0.02568094991147518, -0.041306622326374054, 0.01797621138393879, -0.04631136357784271, 0.05953812226653099, -0.007155803497880697, 0.024305246770381927, -0.08791615068912506, -0.023114986717700958, 0.013704177923500538, -0.02037973329424858, -0.02938031405210495, 0.013064473867416382, 0.012620107270777225, -0.111539825797081, 0.03625680133700371, -0.009070996195077896, -0.006048073526471853, 0.005572218913584948, 0.032148152589797974, 0.031129883602261543, -0.051059044897556305, -0.05869166553020477, -0.0418643057346344, 0.03259538486599922, 0.01250210776925087, -0.05499066039919853, -0.006209610961377621, -0.04487363249063492, -0.017575744539499283, 0.04385056719183922, 0.033656101673841476, 0.10493173450231552, 0.03929026052355766, 0.0016669896431267262, -0.033576324582099915, 0.02196992002427578, -0.04709174484014511, -0.08545241504907608, 0.02412678487598896, -0.004943943116813898, 0.03700900822877884, 0.026061223819851875, 0.024459730833768845, -0.04528230428695679, 0.00660641910508275, -0.02313959412276745, 0.0038367491215467453, 0.025741668418049812, -0.011183619499206543, 0.062281977385282516, 0.0210287906229496, -0.07159700989723206, 0.02344653382897377, 0.04521913453936577, -0.018388818949460983, -0.08792322874069214, 0.05503476411104202, 0.023948609828948975, 0.03174424543976784, 0.1841278076171875, 0.0024681773502379656, 0.03243057429790497, 0.03156055137515068, -0.0789136290550232, -0.05009843036532402, -0.12649254500865936, -0.11130765080451965, 0.022725574672222137, 1.1020417496012337e-33, 0.033887576311826706, 0.11577171832323074, -0.038106683641672134, -0.03888222202658653, 0.07750969380140305, -0.03440982475876808, 0.0646064281463623, 0.04987557232379913, -0.14046873152256012, -0.008205186575651169, -0.09169125556945801, 0.10740386694669724, 0.054149724543094635, 0.04339919239282608, -0.08874395489692688, 0.03183571994304657, 0.006165670696645975, 0.0045708343386650085, 0.032878246158361435, -0.0045393225736916065, 0.12993431091308594, 0.009060540236532688, 0.007471471559256315, 0.05121569707989693, -0.03806903213262558, -0.01047708559781313, 0.04858924821019173, -0.02132616750895977, 0.03632200509309769, 0.013357938267290592, -0.004866986535489559, -0.047043997794389725, -0.04930352419614792, -0.08004771173000336, 0.09924618899822235, -0.013520866632461548, 0.004487860482186079, -0.03706342354416847, -0.0009779039537534118, -0.04957202076911926, -0.061413101851940155, 0.0031061661429703236, -0.023634839802980423, -0.06590181589126587, -0.06302184611558914, 0.042273636907339096, 0.025430992245674133, 0.034860532730817795, 0.1197633296251297, 0.011396513320505619, -0.0882047563791275, -0.018754445016384125, 0.008358835242688656, 0.009064939804375172, -0.0344003289937973, 0.0312684141099453, 0.019568482413887978, 0.06799064576625824, -0.02864108979701996, -0.010239413939416409, 0.06656483560800552, 0.0029295526910573244, -0.024022506549954414, -0.09326732903718948, -0.12133864313364029, -0.0349809005856514, -0.002136294264346361, 0.04162725806236267, 0.063810333609581, -0.09754546731710434, -0.0012561139883473516, 0.07599973678588867, 0.02552957646548748, -0.031131066381931305, 0.013053182512521744, 0.03339449688792229, -0.011718392372131348, 0.05341588333249092, -0.005171664524823427, 0.021149134263396263, 0.04749222472310066, 0.0024167776573449373, -0.021317604929208755, -0.010522253811359406, -0.018924742937088013, 0.04425981268286705, 0.0020311695989221334, -0.11152857542037964, 0.015955230221152306, 0.09146109968423843, 0.0457577146589756, 0.03865847364068031, -0.020836995914578438, 0.06901542842388153, -0.017464280128479004, -5.049688632262383e-33, 0.008316053077578545, 0.008539549075067043, 0.03852054849267006, -0.05335087701678276, 0.03453740477561951, 0.08020611852407455, -0.004297320730984211, 0.05547095090150833, 0.07149586081504822, 0.01974634639918804, 0.048570629209280014, 0.08141719549894333, -0.01198159996420145, -0.057090140879154205, -0.08306252211332321, -0.0016306022880598903, -0.027537140995264053, 0.08025840669870377, 0.00768557284027338, -0.02669890783727169, 0.015105046331882477, 0.07784048467874527, -0.06983301788568497, 0.039126794785261154, 0.06809286028146744, -0.017327189445495605, 0.07985387742519379, 0.06465529650449753, -0.016883885487914085, 0.04748724028468132, 0.00014528949395753443, -0.0006629448616877198, -0.10358718037605286, 0.07076815515756607, 0.007926857098937035, -0.02507692016661167, 0.06039261445403099, 0.026907721534371376, 0.018393224105238914, 0.1200934648513794, 0.05768715217709541, -0.03690995275974274, 0.046029120683670044, -0.00028837291756644845, -0.0364561453461647, -0.03538457676768303, 0.007877732627093792, -0.05065469816327095, -0.003834157483652234, 0.008660311810672283, 0.01889285072684288, 0.048204414546489716, 0.025524713099002838, -0.05985222011804581, 0.004431359935551882, 0.022359639406204224, 0.0024100851733237505, -0.012839247472584248, -0.03320247679948807, -0.04520750418305397, 0.019699331372976303, 0.03502709046006203, 0.03709375113248825, 0.037995681166648865, 0.022039398550987244, -0.09355010837316513, 0.03286760300397873, -0.04504701495170593, -0.006089627742767334, -0.06035841628909111, 0.008285720832645893, -0.07345593720674515, -0.007500603329390287, -0.024906253442168236, 0.07620629668235779, -0.004869171883910894, 0.10427920520305634, -0.0544767901301384, -0.05651453882455826, 0.0006169422413222492, -0.04837462678551674, 0.03301132097840309, -0.003032803302630782, 0.0063177975825965405, 0.06537848711013794, -0.025621341541409492, -0.0338442325592041, 0.012502861209213734, -0.05645747482776642, 0.02193424105644226, -0.03615942969918251, -0.057060230523347855, 0.029412899166345596, 0.03760262951254845, -0.042807839810848236, -4.956651622478603e-08, 0.07056894898414612, 0.005510684102773666, -0.025431815534830093, 0.01597975566983223, 0.03291275352239609, -0.018184008076786995, -0.02086697891354561, -0.009495367296040058, -0.08505716174840927, -0.03078555129468441, 0.05219356715679169, 0.05826084315776825, -0.10996472090482712, -0.06847822666168213, -0.06789121776819229, -0.03285840153694153, -0.057996105402708054, -0.026945000514388084, 0.005530796479433775, -0.04844320937991142, 0.012103968299925327, 0.04618770256638527, -0.010171918198466301, -0.006561675108969212, -0.048110537230968475, 0.046582531183958054, 0.026402970775961876, 0.040972743183374405, -0.02144293673336506, 0.012914490886032581, -0.06838955730199814, -0.011995052918791771, 0.028865600004792213, -0.11227631568908691, -0.07533790171146393, -0.010589280165731907, -0.009510396048426628, -0.05983296036720276, 0.03528192266821861, -0.043135419487953186, 0.039382755756378174, -0.03742873668670654, 0.0632903128862381, -0.020507903769612312, 0.07106044143438339, 0.06060337275266647, -0.022068379446864128, -0.07872467488050461, 0.08417561650276184, -0.030857276171445847, -0.03778699412941933, -0.021003391593694687, 0.020529892295598984, 0.08267407864332199, -0.032165609300136566, -0.014719869010150433, -0.04665839672088623, 0.027068983763456345, 0.08336760103702545, 0.03533829748630524, 0.11356575042009354, -0.03954664617776871, -0.050206221640110016, 0.03968936577439308]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>&gt; ) [ Join now to see all activity ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/cold-join ? session_redirect=https % 3A % 2F % 2Fwww % 2Elinkedin % 2Ecom % 2Fin % 2Flakshana-rajendran-a179a02a1 % 2Frecent-activity % 2F &amp; trk=public_profile_see-all-posts &gt; ) # # Experience * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/company/the-nest-school-chennai ? trk=public_profile_experience-item_profile-section-card_image-click &gt; ) # # # Student Intern # # # # [ The NEST School Chennai ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/company/the-nest-school-chennai ? trk=public_profile_experience-item_profile-section-card_subtitle-click &gt; ) Nov 2024 - Present 3 months Chennai , Tamil Nadu , India Developing an application to manage student details , attendance , transportation , and after-school activities . Focused on designing features to streamline data management and improve efficiency . * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/company/msec-devdynasty-club ? trk=public_profile_experience-item_profile-section-card_image-click &gt; ) # # # Executive Committee Member # # # # [ MSEC DevDynasty Club ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/company/msec-devdynasty-club ? trk=public_profile_experience-item_profile-section-card_subtitle-click &gt; ) Sep 2024 - Present 5 months Chennai , Tamil Nadu , India Actively involved in organizing events , managing club activities , and fostering a collaborative environment for members to explore web development , gaming , and innovative tech solutions . * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/company/dlk-career-development-centre ? trk=public_profile_experience-item_profile-section-card_image-click &gt; ) # # # Engineer Intern # # # # [ DLK CAREER DEVELOPMENT CENTRE ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/company/dlk-career-development-centre ? trk=public_profile_experience-item_profile-section-card_subtitle-click &gt; ) Feb 2024 - Feb 2024 1 month Chennai , Tamil Nadu , India Learned web development fundamentals and to build responsive websites with HTML , CSS , and JavaScript . Created a portfolio website and an interactive contact form , enhancing skills in design and usability . #</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Lakshana Rajendran is a student with intern experience in web development, currently working on a student management application and holding executive roles in tech clubs.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[-0.08705911040306091, 0.060357868671417236, 0.0010134668555110693, 0.03272240236401558, 0.07381473481655121, 0.020347556099295616, 0.004429762717336416, 0.002756658010184765, -0.04680657386779785, -0.033835407346487045, 0.05255022272467613, -0.05168730393052101, 0.02462116628885269, 0.027195561677217484, 0.02729165181517601, 0.04173719882965088, -0.0462920218706131, -0.03408000245690346, -0.027176503092050552, -0.07080050557851791, 0.006566749885678291, -0.04007000848650932, -0.00508879404515028, -0.06520979851484299, -0.004121679812669754, -0.007459673099219799, -0.012446372769773006, -0.0498090498149395, -0.061308249831199646, -0.03112128935754299, 0.016952892765402794, 0.11527957767248154, -0.06486900895833969, 0.017099181190133095, 0.08043783903121948, 0.027659311890602112, 0.014442498795688152, -0.0002513265935704112, 0.025093642994761467, -0.07720372825860977, 0.041006531566381454, -0.02940274402499199, 0.0365452766418457, -0.048644158989191055, 0.036722637712955475, 0.03075740858912468, -0.05783291533589363, -0.05319683998823166, -0.0069814324378967285, 0.006438734009861946, -0.09937134385108948, -0.05519808828830719, -0.03539075702428818, 0.00337508087977767, -0.06274645775556564, 0.03482108190655708, -0.08148182928562164, -0.0630742609500885, -0.045161668211221695, -0.022409360855817795, 0.012437272816896439, 0.015576962381601334, -0.004877966828644276, 0.03137979283928871, 0.003968673758208752, -0.040692396461963654, -0.02885117568075657, 0.03613181412220001, 0.055490341037511826, -0.012318623252213001, 0.027095500379800797, -0.0008258799207396805, -0.13111548125743866, -0.07692554593086243, 0.02524345926940441, 0.013470628298819065, 0.003953332081437111, 0.009177695959806442, 0.021435413509607315, -0.13155360519886017, -0.03690448775887489, -0.01772562973201275, -0.014820125885307789, 0.042366642504930496, 0.008755424991250038, -0.004289440345019102, -0.006260250229388475, -0.04233155399560928, -0.03418676182627678, 0.0153987230733037, 0.029215484857559204, 0.09261150658130646, -0.060540445148944855, 0.017754115164279938, 0.0011205682530999184, -0.023403985425829887, -0.04412594810128212, 0.002614924916997552, -0.010155897587537766, 0.07549310475587845, -0.07718168944120407, 0.021349258720874786, 0.015321302227675915, 0.03349803015589714, -0.11039315164089203, -0.03755922615528107, 0.12369764596223831, 0.028867868706583977, 0.07239735871553421, 0.03838791698217392, -0.07563932985067368, -0.04150395095348358, -0.06661472469568253, -0.02863183617591858, -0.019733132794499397, 0.01608973555266857, 0.0363432876765728, 0.020605282858014107, 0.08719334751367569, 0.043551307171583176, 0.035722516477108, 0.05834465101361275, -0.04794279858469963, -0.019955739378929138, -0.12876884639263153, -0.11889442801475525, -0.07174479216337204, 5.570047287934777e-33, 0.11290294677019119, 0.04501146078109741, 0.034871842712163925, -0.005640129093080759, 0.038275498896837234, -0.03710482269525528, 0.020729321986436844, -0.030937546864151955, -0.04678061977028847, 0.0425654835999012, -0.11557178199291229, 0.08817476034164429, 0.021695280447602272, 0.049910105764865875, -0.011226187460124493, -0.04736378788948059, 0.011428485624492168, 0.05943078175187111, 0.002539887558668852, 0.030890950933098793, 0.002276130486279726, -0.013869578950107098, 0.003714191261678934, 0.06673360615968704, 0.039230380207300186, 0.06338714063167572, 0.0932963564991951, -0.008072604425251484, 0.003431212855502963, 0.024380864575505257, 0.011827901005744934, -0.007290724664926529, -0.08749546855688095, -0.04559734836220741, 0.08487101644277573, -0.001327964593656361, 0.029150141403079033, -0.07406363636255264, -0.031058073043823242, -0.0325365886092186, 0.02148699201643467, -0.008018871769309044, 0.021182622760534286, -0.045049481093883514, -0.05014006048440933, 0.020943325012922287, 0.04708552733063698, 0.03297705948352814, 0.05085810646414757, 0.021235210821032524, -0.045764241367578506, -0.03633853793144226, -0.08062492311000824, -0.06466713547706604, -0.08638621121644974, -0.003192496718838811, -0.0548342689871788, 0.075178362429142, -0.023315833881497383, -0.011974203400313854, 0.03812112659215927, -0.017061501741409302, -0.08629028499126434, -0.07127886265516281, -0.08198897540569305, -0.040773726999759674, 0.033286202698946, -0.05887064337730408, 0.0913376733660698, -0.11423363536596298, -0.022181548178195953, 0.06574173271656036, 0.06474928557872772, 0.013744503259658813, 0.008636394515633583, 0.05070541426539421, -0.05737200379371643, 0.024551372975111008, -0.05016098544001579, 0.04416352137923241, 0.038725219666957855, -0.015365409664809704, -0.07091570645570755, -0.057253967970609665, -0.0165549386292696, 0.020142044872045517, 0.07210677862167358, -0.08743292093276978, -0.012524409219622612, 0.0678100511431694, 0.020181890577077866, 0.07999761402606964, 0.05887840688228607, 0.02492896467447281, -0.04889567568898201, -7.020437237510595e-33, 0.06933987140655518, -0.021820584312081337, 0.047474175691604614, -0.09512998908758163, 0.08475909382104874, -0.003707901807501912, 0.09217514097690582, 0.037952471524477005, 0.10576481372117996, 0.007583717815577984, 0.08882132172584534, -0.013597938232123852, 0.015222020447254181, -0.07769954204559326, 0.017782438546419144, 0.053941093385219574, 0.027913115918636322, 0.1012231856584549, 0.003403934184461832, -0.0224081352353096, -0.01680505834519863, 0.10286356508731842, -0.03487618267536163, 0.045264795422554016, 0.027218416333198547, 0.03159785270690918, 0.077153779566288, 0.08308084309101105, -0.05593538656830788, 0.03448425233364105, 0.05896995589137077, -0.019186846911907196, -0.08472912758588791, 0.1002153605222702, 0.008078671991825104, 0.05473403260111809, 0.0268204715102911, 0.01652725413441658, 0.032202474772930145, -0.016094088554382324, 0.08524639904499054, -0.042962756007909775, -0.01359091978520155, 0.02374393865466118, 0.028586367145180702, -0.0223496425896883, 0.01701299287378788, -0.052237626165151596, -0.09605859965085983, 0.023591581732034683, 0.06990782916545868, -0.02895388938486576, -0.02345745638012886, -0.06551411747932434, 0.048123206943273544, 0.009917479008436203, 0.0710313618183136, -0.042986758053302765, 0.0020263271871954203, -0.08477649092674255, 0.07901354134082794, 0.004162780940532684, -0.007913431152701378, 0.08138470351696014, 0.02160179801285267, -0.10245972871780396, 0.003521644975990057, 0.0033709602430462837, -0.05320478975772858, -0.04890049248933792, -0.03285233676433563, -0.04487543925642967, -0.00804323609918356, -0.017045505344867706, -0.010759707540273666, -0.07965774834156036, 0.05030132830142975, -0.001980853732675314, 0.01920340582728386, 0.012195957824587822, -0.08146019279956818, -0.01839289627969265, -0.030182795599102974, -0.03406473249197006, 0.09929421544075012, 0.015486086718738079, 0.02371775358915329, 0.05372678115963936, 0.028016282245516777, -0.07527676224708557, -0.0624467097222805, -0.029813580214977264, 0.010005349293351173, 0.06929127871990204, 0.002553133061155677, -5.908909983531885e-08, 0.03211940824985504, -0.037344321608543396, -0.031066512688994408, 0.06573076546192169, 0.025906961411237717, -0.018620483577251434, -0.06087186932563782, 0.07559056580066681, 0.01198800839483738, 0.00013708586629945785, 0.004860544577240944, -0.027006840333342552, -0.06852433830499649, -0.06923232227563858, -0.02306670881807804, -0.052430011332035065, -0.07307440042495728, 0.0367644764482975, 0.0009476338746026158, -0.06213829293847084, 0.03780210390686989, -0.022147171199321747, -0.046548258513212204, -0.00380666833370924, -0.01585088111460209, 0.04122062027454376, -0.018023790791630745, -0.005514064803719521, 0.04371383413672447, -0.013715085573494434, -0.023181982338428497, 0.001897912472486496, 0.1057528629899025, -0.08247060328722, -0.052033621817827225, -0.03642614558339119, 0.02466427907347679, 0.0033443153370171785, 0.005188844166696072, 0.030053704977035522, 0.04058615490794182, -0.021453654393553734, 0.09981971234083176, 0.006746530998498201, 0.039833586663007736, 0.029403802007436752, 0.004297642502933741, -0.07125670462846756, 0.03581150993704796, -0.029893994331359863, -0.05143416300415993, -0.02354881539940834, 0.05160914734005928, 0.0357506237924099, -0.09445489197969437, -0.00011418582289479673, -0.008638444356620312, 0.03387695923447609, 0.06916744261980057, 0.03387412056326866, 0.13240230083465576, 0.028204061090946198, -0.10577898472547531, 0.08095617592334747]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t># Education * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/school/meenakshi-sundararajan-engineering-college/ ? trk=public_profile_school_profile-section-card_image-click &gt; ) # # # [ Meenakshi Sundararajan Engineering College ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/school/meenakshi-sundararajan-engineering-college/ ? trk=public_profile_school &gt; ) # # # # Bachelor of Technology - BTech Information Technology 2022 - 2026 # # Licenses &amp; Certifications * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/school/great-learning/ ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ AWS For Beginners ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.mygreatlearning.com/certificate/GEOQSJOE ? trk=public_profile_certification-title &gt; ) # # # # [ Great Learning ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/school/great-learning/ ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec 2024 [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.mygreatlearning.com/certificate/GEOQSJOE ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/company/infosys-springboard ? trk=public_profile_profile-section-card_image-click &gt; ) # # # An Introduction to Generative AI # # # # [ Infosys Springboard ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/company/infosys-springboard ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec 2024 * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/microsoft ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ Career Essentials in Data Analysis by Microsoft and LinkedIn ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/learning/certificates/c3454ae5a11471cb0782fd9af2166fbf7640001e708c90376258e82ab5b8e97e ? trk=public_profile_certification-title &gt; ) # # # # [ Microsoft ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/microsoft ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec 2024 [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/learning/certificates/c3454ae5a11471cb0782fd9af2166fbf7640001e708c90376258e82ab5b8e97e ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/hackerrank ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ Frontend Developer ( React ) ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.hackerrank.com/certificates/9ada474f6982 ? trk=public_profile_certification-title &gt; ) # # # # [ HackerRank ]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Lakshana Rajendran is pursuing a BTech in Information Technology and holds certifications in AWS, Generative AI, Data Analysis, and Frontend Development from Great Learning, Infosys Springboard, Microsoft, and HackerRank.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[-0.08962584286928177, 0.06034230813384056, 0.0003697403008118272, 0.013867555186152458, 0.032814882695674896, 0.014578623697161674, 0.03097156248986721, 0.01981537416577339, -0.07066261768341064, -0.05545508489012718, 0.04033645987510681, -0.03392679989337921, 0.029466968029737473, -0.017377935349941254, -0.07687577605247498, 0.013388864696025848, -0.0038366648368537426, -0.06012389436364174, 0.013778839260339737, -0.024238528683781624, 0.05973152816295624, 0.03984898328781128, 0.0204512570053339, -0.057486116886138916, -0.046408168971538544, -0.007306493353098631, 0.030835790559649467, -0.05257289111614227, -0.021512150764465332, -0.030985331162810326, -0.02353384718298912, 0.11912178248167038, -0.019263479858636856, -0.007608871441334486, 0.02502499334514141, -0.0038272824604064226, 0.05055796727538109, 0.029467150568962097, 0.039897046983242035, -0.06109297648072243, 0.005822551902383566, -0.05089521035552025, 0.0369027778506279, 0.01761730946600437, 0.0363670289516449, 0.034399550408124924, -0.07188858091831207, -0.13062289357185364, -0.013144190423190594, -0.01398294698446989, -0.09793303906917572, -0.030495868995785713, -0.05578218773007393, -0.03671378642320633, -0.04992114380002022, -0.06826882064342499, 0.004583965986967087, -0.004755652043968439, -0.016863752156496048, 0.008335532620549202, 0.06077628955245018, 0.03187902271747589, -0.019698061048984528, 0.05091046914458275, 0.03168671205639839, -0.01301396545022726, -0.03344351798295975, 0.04479912295937538, 0.020114503800868988, -0.05391648784279823, -0.003985454328358173, -0.035265158861875534, -0.08784870058298111, -0.05930499732494354, 0.022742334753274918, 0.0028816754929721355, -0.0035424837842583656, 0.039073068648576736, 0.03838453069329262, -0.10562063753604889, -0.032758262008428574, -0.025675112381577492, 0.0407920777797699, 0.005456448532640934, 0.01252666860818863, -0.007273618131875992, -0.009335673414170742, -0.012953126803040504, 0.0369507260620594, -0.06065065413713455, 0.08912343531847, 0.06471005082130432, -0.02530914917588234, 0.05741899088025093, 0.025529321283102036, -0.0275438129901886, -0.0440773069858551, -0.06822804361581802, 0.03531572222709656, 0.05817047134041786, -0.06341089308261871, -0.022071629762649536, -0.03987746685743332, 0.005821140483021736, -0.120890311896801, 0.027401570230722427, 0.06906329840421677, 0.026392869651317596, 0.06843771040439606, 0.00621370505541563, -0.02525610849261284, 0.03298354521393776, -0.10199875384569168, -0.0735606923699379, -0.051440075039863586, 0.05632782354950905, -0.013255290687084198, 0.028334563598036766, 0.14203117787837982, 0.007779840379953384, -0.04173273220658302, -0.0019538793712854385, -0.0325503833591938, -0.05563326179981232, -0.09694572538137436, -0.15531671047210693, -0.10700246691703796, 2.0346800695695905e-33, 0.06908123940229416, 0.039580076932907104, 0.021949294954538345, 0.013994970358908176, 0.03226388245820999, -0.050862573087215424, 0.010008496232330799, -0.004336767364293337, -0.0799739807844162, 0.019684553146362305, -0.07764080166816711, 0.10666405409574509, -0.014549853280186653, 0.046772778034210205, -0.012908539734780788, -0.08402717858552933, -0.016874808818101883, 0.023438377305865288, 0.039693910628557205, 0.041267864406108856, 0.042590752243995667, -0.020892532542347908, 0.03191344067454338, 0.030708981677889824, 0.009537278674542904, 0.05423428490757942, 0.06569010019302368, 0.05051596462726593, 0.0454869344830513, 0.041000258177518845, 0.0017808455741032958, -0.020511407405138016, -0.008467849344015121, -0.04056236147880554, 0.07792269438505173, -0.006154273636639118, -0.008230489678680897, -0.04231525585055351, 0.003824476385489106, -0.05091225728392601, 0.04548829048871994, 0.049482282251119614, 0.017840972170233727, -0.030888501554727554, -0.050176817923784256, 0.012126743793487549, 0.11404308676719666, 0.06399974972009659, 0.14744120836257935, -0.009061713702976704, -0.13082510232925415, 0.02218053676187992, -0.09926917403936386, -0.09673753380775452, 0.0019736080430448055, -0.022041957825422287, 0.008034409023821354, 0.06874080747365952, -0.010260067880153656, 0.019240234047174454, -0.04675294831395149, 0.015525531023740768, -0.08604934066534042, -0.062287937849760056, -0.013227184303104877, -0.05834252014756203, 0.011496597900986671, -0.05091644823551178, 0.09266125410795212, -0.11027795821428299, -0.05442643538117409, 0.016065699979662895, 0.05577497184276581, -0.017739716917276382, 0.00394032895565033, 0.05493013188242912, -0.039181556552648544, 0.04104267433285713, -0.10941633582115173, 0.06676989793777466, -0.039576444774866104, 0.012237071059644222, -0.025530006736516953, -0.09501244127750397, 0.026572007685899734, 0.04402143880724907, 0.06015412136912346, -0.0763339251279831, 0.039424702525138855, 0.0460074283182621, 0.04145238175988197, 0.036776766180992126, -0.02425866201519966, 0.03235407546162605, -0.0034450616221874952, -5.392028219394342e-33, 0.06978193670511246, 0.03253980353474617, 0.03844083845615387, -0.023954100906848907, 0.07085085660219193, 0.001335746725089848, 0.06751222163438797, 0.07594285160303116, 0.07028603553771973, -0.024629678577184677, 0.09323816001415253, 0.019093133509159088, -0.043865304440259933, -0.054088350385427475, -0.03631238266825676, -0.035465218126773834, -0.010921475477516651, 0.039992257952690125, -0.05546829476952553, -0.035608455538749695, 0.014648519456386566, 0.08096541464328766, -0.08369860053062439, 0.0010339622385799885, -0.0026911627501249313, 0.02072003297507763, -0.006876004859805107, 0.06283886730670929, -0.009746294468641281, 0.07615204155445099, -0.0038708853535354137, -0.053512342274188995, -0.1268051564693451, 0.13579267263412476, -0.013769218698143959, -0.021871695294976234, 0.03348663076758385, 0.05743123218417168, 0.02737782523036003, 0.09713989496231079, 0.03334053233265877, 0.0017378084594383836, -0.005167755763977766, -0.01418632734566927, 0.016868630424141884, -0.06353815644979477, 0.05289511755108833, -0.021223388612270355, 0.0042123147286474705, -0.021268967539072037, 0.08178873360157013, -0.065097376704216, 0.03325042873620987, -0.07817985862493515, 0.04706711694598198, 0.028868889436125755, 0.06180121749639511, 0.0569191575050354, -0.0009350301115773618, -0.02886231243610382, 0.10041743516921997, -0.028868159279227257, -0.006753516383469105, 0.051702555269002914, -0.04986889287829399, -0.05560244992375374, 0.02378847263753414, 0.01592393033206463, -0.028517650440335274, -0.027014339342713356, -0.025202905759215355, -0.036286212503910065, 0.037738874554634094, -0.04620921611785889, -0.024974538013339043, -0.029315834864974022, 0.07830582559108734, 0.05297434702515602, 0.01699172705411911, -0.00683926697820425, -0.010373850353062153, 0.011805683374404907, -0.03082037903368473, 0.04349636286497116, 0.06913929432630539, 0.009310023859143257, 0.003448131261393428, -0.08498270809650421, 0.05441044270992279, -0.08632858842611313, -0.10973372310400009, 0.021162061020731926, 0.03462037816643715, 0.03502056002616882, -0.01283065415918827, -4.835514744172542e-08, -0.028621837496757507, -0.08678034693002701, -0.09013985097408295, -0.013645739294588566, -0.005353943910449743, 0.04929806664586067, -0.04033106938004494, 0.011837188154459, -0.04974028095602989, -0.0021262227091938257, -0.002504104282706976, -0.01658005081117153, -0.06720118969678879, -0.04942186921834946, -0.04475787281990051, -0.027463726699352264, -0.03872397541999817, 0.07017908245325089, 0.025822272524237633, -0.05403972044587135, 0.060921747237443924, -0.08287414908409119, 0.07975881546735764, 0.012164334766566753, -0.06744696944952011, 0.04425520822405815, -0.02961421199142933, -0.029446614906191826, 0.03001490794122219, 0.023280659690499306, 0.01433771476149559, 0.014921865426003933, 0.12181004136800766, -0.1217898428440094, 0.03064652346074581, -0.0015825751470401883, 0.01766495779156685, 0.014483691193163395, 0.03821318969130516, 0.05818437784910202, 0.0012980460887774825, -0.06982167065143585, 0.01779898814857006, 0.034041039645671844, 0.105586476624012, -0.024541756138205528, -0.027310332283377647, -0.014183289371430874, -0.020547140389680862, 0.034982334822416306, -0.010725632309913635, -0.06107649207115173, -0.029874397441744804, -0.008115598000586033, -0.05584435537457466, -0.04172002896666527, -0.02259489893913269, 0.01147511787712574, -0.0013319470454007387, 0.043740130960941315, 0.0663464367389679, 0.009557808749377728, 0.007006304804235697, 0.05101358890533447]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/hackerrank ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec 2024 Credential ID 9ada474f6982 [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.hackerrank.com/certificates/9ada474f6982 ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/company/guviofficial ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ Generative AI ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.guvi.in/share-certificate/7G836H18e6F74D50rL ? trk=public_profile_certification-title &gt; ) # # # # [ GUVI Geek Networks , IITM Research Park ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/company/guviofficial ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec 2024 Credential ID 7G836H18e6F74D50rL [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.guvi.in/share-certificate/7G836H18e6F74D50rL ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/company/infosys-springboard ? trk=public_profile_profile-section-card_image-click &gt; ) # # # Generative AI Foundations : IT Integration with Generative AI # # # # [ Infosys Springboard ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/company/infosys-springboard ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec 2024 * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/school/great-learning/ ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ Introduction to Artificial Intelligence ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.mygreatlearning.com/certificate/FIXDBUHH ? trk=public_profile_certification-title &gt; ) # # # # [ Great Learning ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/school/great-learning/ ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec 2024 [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.mygreatlearning.com/certificate/FIXDBUHH ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/linkedin ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ Introduction to Career Skills in Data Analytics ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/learning/certificates/b55bc5400c1f6142b307f2971848054243266ef695ed325301ccf72a3fe78985 ? trk=public_profile_certification-title &gt; ) # # # # [ LinkedIn ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/linkedin ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Lakshana Rajendran has earned multiple certifications in December 2024, including Generative AI, Artificial Intelligence, and Data Analytics from various institutions such as HackerRank, GUVI, Infosys Springboard, Great Learning, and LinkedIn</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[-0.1483639031648636, 0.024852342903614044, -0.04564085602760315, -0.008575490675866604, 0.05270418897271156, 0.046729590743780136, 0.040524620562791824, 0.01969960890710354, -0.04396047815680504, -0.05500449240207672, 0.03868604823946953, -0.03985671326518059, 0.06412459909915924, -0.03659336268901825, -0.05914883315563202, 0.00854970421642065, -0.030506735667586327, -0.0035125946160405874, 0.0019688070751726627, -0.032980840653181076, -0.00450933026149869, -0.02319198101758957, -0.04794405773282051, -0.0655617043375969, -0.02596231922507286, -0.06273674219846725, 0.03627091273665428, -0.028786370530724525, -0.03261905163526535, -0.03423434868454933, 0.026013514026999474, 0.1033063754439354, -0.009733752347528934, 0.011473388411104679, -0.021928226575255394, 0.04021299630403519, -0.014122812077403069, 0.045738764107227325, 0.07599659264087677, -0.08116525411605835, 0.055183663964271545, -0.07636642456054688, -0.010283292271196842, -0.033777374774217606, 0.07172524929046631, 0.05233325436711311, -0.043429289013147354, -0.06529279798269272, -0.0712212547659874, -0.0344611331820488, -0.10949196666479111, -0.008494062349200249, -0.04684656485915184, -0.001667916658334434, -0.019590109586715698, -0.06678807735443115, -0.00016770082584116608, -0.04925516992807388, 0.024994229897856712, 0.03387172520160675, 0.04918840155005455, 0.01391114853322506, 0.02652004174888134, 0.02046075463294983, 0.03759140521287918, -0.03187336027622223, 0.015758853405714035, -0.00790994893759489, 0.00611688569188118, -0.07481560111045837, 0.06285709887742996, -0.014783698134124279, -0.09550219029188156, -0.06385643035173416, 0.0036882031708955765, 0.07963959127664566, -0.050353240221738815, 0.00948938075453043, 0.048593394458293915, -0.12117848545312881, -0.0006992911803536117, 0.0266311913728714, 0.09740029275417328, 0.06311175227165222, 0.036464788019657135, 0.05600028112530708, -0.016263430938124657, -0.008332604542374611, 0.03820579871535301, -0.005746563896536827, 0.12294364720582962, 0.074912428855896, 0.009071906097233295, 0.02595403417944908, 0.03267516940832138, -0.014206372201442719, -0.02931290864944458, -0.04575847089290619, 0.01446331012994051, 0.03522384911775589, -0.07236257195472717, -0.009600643068552017, -0.02488333359360695, -0.003573191585019231, -0.01966593973338604, 0.052634160965681076, 0.11904455721378326, 0.0564064122736454, 0.05510634928941727, -0.0305720716714859, -0.07280517369508743, -0.014902325347065926, -0.0693400427699089, -0.08294882625341415, -0.02423088811337948, 0.06687507778406143, -0.013409379869699478, 0.040453940629959106, 0.11209069937467575, -0.019149182364344597, 0.055850934237241745, -0.0013336911797523499, -0.06939525902271271, -0.029454145580530167, -0.09558451920747757, -0.08986754715442657, -0.015728555619716644, 5.142767581038353e-33, 0.02853366918861866, 0.05976249650120735, 0.012938609346747398, -0.026516836136579514, 0.06248385086655617, -0.02075924351811409, -0.01283116452395916, -0.05355740338563919, -0.05111969634890556, 0.022850748151540756, -0.15141205489635468, 0.060256559401750565, -0.03166128695011139, 0.07159202545881271, -0.013310364447534084, -0.06295031309127808, 0.03215524181723595, 0.05501582846045494, -0.0025418498553335667, -0.02886015549302101, 0.07772599160671234, -0.017898304387927055, -0.0011304608779028058, 0.05298792943358421, 0.02991270273923874, 0.08437643200159073, 0.06667032092809677, -0.04516661912202835, 0.05478116124868393, 0.03770258277654648, 0.012656907550990582, -0.02914716862142086, 0.011495206505060196, 0.011314108036458492, 0.06892135739326477, -0.012479592114686966, -0.01325532328337431, -0.027638603001832962, -0.061931971460580826, 0.015912437811493874, 0.052578993141651154, 0.01599844917654991, 0.023890240117907524, -0.07424327731132507, -0.09870874881744385, -0.013367445208132267, 0.09840311855077744, 0.07759475708007812, 0.08519890904426575, 0.046991895884275436, -0.0760449543595314, 0.031177924945950508, -0.0835801288485527, -0.0675845742225647, -0.01725778728723526, -0.031667694449424744, -0.04167057201266289, 0.006341775879263878, 0.0015896931290626526, -0.031827691942453384, 0.0022522551007568836, 0.01494312472641468, -0.11191733926534653, -0.014124801382422447, -0.08912704885005951, -0.06880851835012436, 0.03310376778244972, -0.08151091635227203, 0.03936700522899628, 0.01967993751168251, -0.03229650855064392, 0.07567555457353592, 0.034848932176828384, -0.030005473643541336, -0.037984415888786316, -0.0002895235375035554, -0.03139283508062363, 0.08905843645334244, -0.10705262422561646, 0.05949173495173454, -0.08105941861867905, 0.040744632482528687, -0.1025157943367958, -0.043504513800144196, 0.015709130093455315, 0.05230744555592537, 0.03707189857959747, -0.020289961248636246, -0.006845756433904171, 0.05861092731356621, 0.07059634476900101, 0.039098672568798065, 0.00642456766217947, 0.03546501323580742, -0.0454782173037529, -6.747293492681774e-33, -0.011711676605045795, -0.010404515080153942, 0.058848462998867035, -0.008241964504122734, 0.0303666889667511, -0.021522697061300278, 0.07093709707260132, 0.08094312250614166, 0.065824955701828, -0.01981448568403721, 0.06432858854532242, 0.044242311269044876, -0.010066837072372437, -0.06287694722414017, 0.04030410200357437, -0.018496498465538025, -0.048349324613809586, 0.0940697193145752, -0.03140578046441078, -0.03683743253350258, 0.08252624422311783, 0.09201579540967941, -0.06900454312562943, 0.027304189279675484, 0.05446295812726021, 0.06588917970657349, 0.03971254080533981, 0.09711852669715881, -0.028870806097984314, 0.04105489328503609, -0.004625243600457907, -0.025070054456591606, -0.16298355162143707, 0.13290154933929443, -0.0400238037109375, 0.028786785900592804, 0.06692565977573395, 0.05668239668011665, 0.01892501674592495, 0.03699270263314247, 0.021494846791028976, 0.010069923475384712, 0.017222121357917786, 0.022379672154784203, 0.007876335643231869, -0.04083053767681122, 0.06015743315219879, -0.027275515720248222, 0.03527488559484482, -0.017764868214726448, 0.05515052378177643, -0.02604302391409874, 0.018859179690480232, -0.011462756432592869, -0.03363209217786789, 0.01979677937924862, 0.06262332946062088, 0.025982320308685303, 0.03283523768186569, -0.03475248068571091, 0.07339401543140411, -0.00686850119382143, 0.009701890870928764, 0.03969891369342804, -0.02749529294669628, -0.035372182726860046, 0.006247765384614468, 0.026234570890665054, -0.02640361897647381, -0.052576448768377304, 0.02130415476858616, -0.05335326865315437, 0.026328429579734802, 0.026477621868252754, -0.030302563682198524, -0.12373366206884384, -0.005201564636081457, 0.03865544870495796, -0.016406618058681488, -0.020398272201418877, 0.023757467046380043, -0.04086750000715256, -0.049544237554073334, -0.00992374587804079, 0.02077835239470005, -0.010382252745330334, 0.02358427830040455, 0.0032326518557965755, 0.0216962993144989, -0.05520590767264366, -0.11599043011665344, -0.004025597125291824, -0.014295119792222977, 0.09746542572975159, -0.0017950126202777028, -6.273059938166625e-08, -0.034660741686820984, -0.051843054592609406, -0.03505396470427513, -0.03145479038357735, 0.056634608656167984, 0.009951305575668812, -0.06791546195745468, 0.03707052767276764, -0.028524504974484444, -0.0408773235976696, 0.03135431557893753, -0.0055242059752345085, -0.071841299533844, -0.04761319234967232, -0.024235937744379044, -0.07628732919692993, -0.08832249045372009, 0.01609918847680092, -0.007162917871028185, -0.09373240917921066, 0.06137007474899292, -0.040427081286907196, -0.02774178795516491, -0.03295804560184479, -0.06886016577482224, -0.002964938757941127, -0.009858903475105762, -0.005881655961275101, -0.04426703602075577, 0.002038293983787298, -0.024410337209701538, 0.056617822498083115, 0.10664274543523788, -0.06180519610643387, -0.03081408515572548, 0.059033531695604324, -0.005150812212377787, 0.0011125245364382863, -0.025563504546880722, 0.02436264604330063, 0.03578861430287361, -0.010221840813755989, 0.04907665029168129, 0.006023264490067959, 0.05231507495045662, -0.07134991139173508, 0.03217414394021034, -0.04870015010237694, 0.03622010722756386, 0.0033226199448108673, 0.009173126891255379, -0.0710686668753624, 0.046425994485616684, 0.09007640182971954, -0.0786530002951622, -0.0681331604719162, 0.000583285465836525, -0.018021773546934128, 0.07732462882995605, 0.035982150584459305, 0.0655854120850563, 0.024084754288196564, 0.004442709963768721, 0.05210496112704277]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2024 [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/learning/certificates/b55bc5400c1f6142b307f2971848054243266ef695ed325301ccf72a3fe78985 ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/linkedin ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ Learning Data Analytics Part 2 : Extending and Applying Core Knowledge ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/learning/certificates/03346aaeb4ba45ed1dface81da6c2c7b676c11a33051582cf38c12c2fe567b63 ? trk=public_profile_certification-title &gt; ) # # # # [ LinkedIn ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/linkedin ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec 2024 [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/learning/certificates/03346aaeb4ba45ed1dface81da6c2c7b676c11a33051582cf38c12c2fe567b63 ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/linkedin ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ Learning Data Analytics : 1 Foundations ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/learning/certificates/a491dca02bafad7c85c93285e3c6943564ec2d3269340573fd772ef61cd68da6 ? trk=public_profile_certification-title &gt; ) # # # # [ LinkedIn ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/linkedin ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec 2024 [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/learning/certificates/a491dca02bafad7c85c93285e3c6943564ec2d3269340573fd772ef61cd68da6 ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/the-mathworks_2 ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ MATLAB Onramp ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /matlabacademy.mathworks.com/progress/share/certificate.html ? id=3f9e77fa-8a5c-44f7-913d-53682680fc43 &amp; &amp; trk=public_profile_certification-title &gt; ) # # # # [ MathWorks ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/the-mathworks_2 ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec 2024 [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /matlabacademy.mathworks.com/progress/share/certificate.html ? id=3f9e77fa-8a5c-44f7-913d-53682680fc43 &amp; &amp; trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/school/cisco-networking-academy1/ ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ Python Essentials 1 ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.credly.com/badges/a440d572-854a-4e80-b48c-11fda3dceebb/public_url ? trk=public_profile_certification-title &gt; ) # # # # [ Cisco Networking Academy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Lakshana Rajendran earned certifications in Data Analytics, MATLAB, and Python Essentials from LinkedIn, MathWorks, and Cisco Networking Academy in Dec 2024.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[-0.06196776032447815, 0.028349479660391808, -0.01999654434621334, 0.002522449940443039, 0.019902991130948067, 0.03622688725590706, -0.0035966027062386274, 0.023405570536851883, -0.07637635618448257, -0.009780528023838997, 0.042222894728183746, -0.01919057033956051, 0.042375367134809494, -0.019198669120669365, -0.057494040578603745, 0.040879856795072556, -0.058288365602493286, -0.04583733528852463, -0.00794302299618721, -0.07064603269100189, 0.028398552909493446, 0.015293266624212265, -0.029716409742832184, -0.03311619535088539, -0.012403001077473164, -0.08695918321609497, 0.03946112468838692, -0.015467420220375061, -0.022268373519182205, 8.086564048426226e-05, 0.04161134734749794, 0.05666065588593483, -0.07792138308286667, 0.016697442159056664, -0.03708130121231079, 0.004253787454217672, 0.013830195181071758, 0.04645531252026558, 0.013465031050145626, -0.05250876769423485, 0.03970189020037651, -0.0962802916765213, -0.028943229466676712, -0.0044151246547698975, 0.05502813681960106, 0.020214516669511795, -0.05465647950768471, -0.10508538037538528, -0.03258807212114334, -0.01357264444231987, -0.10136168450117111, -0.03772267326712608, -0.03557688742876053, 0.02153322473168373, -0.026566332206130028, -0.022405555471777916, -0.06052911654114723, 0.002568767173215747, -0.03551502525806427, 0.01994049735367298, 0.028276661410927773, -0.04654265195131302, -0.030933478847146034, 0.04138116538524628, 0.010654222220182419, -0.04843677207827568, 0.014039427042007446, 0.05202877148985863, 0.0010348964715376496, -0.04335654899477959, 0.014808318577706814, -0.021960478276014328, -0.08865860104560852, -0.08529967814683914, 0.032728105783462524, 0.03388182446360588, -0.04664439335465431, 0.012802629731595516, 0.04723512381315231, -0.1273292750120163, -0.0050545805133879185, 0.02610398270189762, 0.034837380051612854, 0.06688373535871506, -0.0034212551545351744, 0.00528325280174613, 0.03094024956226349, -0.006280909758061171, -0.04943142458796501, 0.01095507387071848, 0.17990493774414062, 0.048129916191101074, -0.006775183603167534, 0.022978542372584343, 0.015603261068463326, -0.019355308264493942, -0.05406248942017555, -0.08106515556573868, 0.08039475977420807, 0.025511374697089195, -0.08944468945264816, 0.019349809736013412, -0.07125110924243927, 0.01734464056789875, -0.07610857486724854, -0.00409227330237627, 0.075400710105896, 0.047971971333026886, 0.05853129178285599, -0.02921089343726635, -0.03705277293920517, 0.0005959415575489402, -0.08974027633666992, -0.008960209786891937, -0.02185020223259926, 0.024214543402194977, -0.051706068217754364, -0.005588472355157137, 0.13740754127502441, -0.0036630660761147738, -0.00031809392385184765, 0.06620292365550995, -0.03838639333844185, -0.029663996770977974, -0.10588196665048599, -0.11039752513170242, -0.0317973829805851, 8.172670024498048e-33, 0.07915493100881577, 0.07173893600702286, 0.04317409545183182, -0.017514819279313087, 0.020648568868637085, -0.03695252165198326, -0.002275710692629218, -0.04785185679793358, -0.04781729727983475, 0.03288531303405762, -0.10613919049501419, 0.08651797473430634, -0.02661873586475849, -0.01653754897415638, -0.016895007342100143, -0.05589144676923752, 0.001672141021117568, 0.0823608860373497, 0.0013998012291267514, 0.015629053115844727, 0.07128982990980148, -0.013440008275210857, -0.013270393013954163, 0.04934639111161232, 0.05724512040615082, 0.045881014317274094, 0.06998651474714279, 0.03202565014362335, 0.04584403708577156, 0.03464983403682709, -0.0019463649950921535, 0.013131345622241497, -0.0289877001196146, 0.0027347635477781296, 0.09744341671466827, -0.02815689891576767, 0.03476374223828316, -0.04183753579854965, 0.005174841731786728, -0.03042074479162693, 0.07703417539596558, 0.017675820738077164, 0.08506716787815094, -0.04819153994321823, -0.05472705885767937, -0.00015443723532371223, 0.1274099051952362, 0.021292759105563164, 0.12737268209457397, 0.05493241921067238, -0.08370999991893768, -0.025481171905994415, -0.08578017354011536, -0.05906400457024574, 0.013208957388997078, 0.01980600319802761, -0.03495366871356964, 0.008032715879380703, -0.01794520951807499, -0.004869050811976194, -0.024206794798374176, -0.020519597455859184, -0.09339713305234909, -0.04664832726120949, -0.08124002814292908, -0.04022061824798584, -0.01856043189764023, -0.07655633240938187, 0.07965558767318726, -0.06602354347705841, -0.02237536758184433, 0.08474987745285034, 0.050018470734357834, -0.016810057684779167, 0.057368308305740356, -0.003117586486041546, -0.013024624437093735, 0.06532028317451477, -0.08926574885845184, 0.08971650898456573, -0.007128748577088118, 0.014634363353252411, -0.030918417498469353, -0.053387727588415146, 0.06175359711050987, 0.0410543791949749, 0.036536477506160736, -0.048656415194272995, 0.01578044891357422, 0.0783284530043602, 0.024023093283176422, 0.05732004716992378, -0.014120346866548061, 0.04977109655737877, -0.06920360773801804, -8.885349474198554e-33, 0.03325480967760086, 0.020873624831438065, 0.09989286214113235, 0.0498470738530159, 0.07706178724765778, 0.004740969743579626, 0.03987502306699753, 0.12764446437358856, 0.06610845029354095, -0.03067399002611637, 0.07196427881717682, -0.011566652916371822, 0.0185108445584774, -0.06408970803022385, -0.027633514255285263, 0.001709422329440713, -0.06240331009030342, 0.05152502283453941, -0.03762713819742203, -0.04931696131825447, 0.005951123312115669, 0.0641809031367302, -0.07448089122772217, 0.031670115888118744, 0.07741916179656982, 0.014796359464526176, 0.04610764980316162, 0.056387580931186676, 0.0020118297543376684, 0.0577009841799736, -0.013884472660720348, -0.09778907150030136, -0.1370040625333786, 0.10531750321388245, -0.09060689806938171, -0.032980285584926605, 0.06417927145957947, 0.027216795831918716, 0.024289056658744812, 0.09865611046552658, 0.05162771791219711, 0.018681837245821953, -0.006142018362879753, -0.04066765680909157, 0.0301061924546957, -0.06297232210636139, 0.06852566450834274, 0.018212780356407166, -0.0156622976064682, -0.03368549793958664, 0.06295330822467804, -0.024252112954854965, 0.05529884994029999, -0.040022678673267365, 0.027239540591835976, 0.026643089950084686, 0.10187677294015884, 0.021065251901745796, 0.006061865016818047, -0.029933562502264977, 0.10518001765012741, 0.014729822985827923, 0.009067822247743607, 0.10397875308990479, -0.01655198074877262, -0.07680834084749222, -0.003148493589833379, 0.02600143663585186, -0.0441526360809803, -0.02268923446536064, 0.01707461290061474, -0.057425811886787415, -0.011383743025362492, -0.08193915337324142, -0.006972605362534523, -0.08868181705474854, -0.007638875860720873, -0.0050395517610013485, -0.03135725483298302, 0.03388826921582222, -0.03140987083315849, 0.024234862998127937, -0.014848542399704456, 0.02095029316842556, 0.07008914649486542, 0.03313048928976059, 0.06258178502321243, -0.005939193069934845, -0.01117165107280016, -0.056492194533348083, -0.12276101112365723, -0.025433650240302086, -0.03024432063102722, 0.055716339498758316, -0.005741809029132128, -5.717894424606129e-08, -0.00227758614346385, -0.0059435381554067135, -0.05416208505630493, -0.01573888584971428, 0.0854024738073349, 0.020372658967971802, -0.0402887724339962, 0.040673162788152695, -0.026936929672956467, 0.007523860316723585, 0.0163656547665596, 0.03010166436433792, -0.0887523964047432, -0.052289530634880066, -0.05473525449633598, -0.04548373445868492, -0.02986380271613598, -0.013329615816473961, 0.010497480630874634, -0.053224705159664154, 0.046611905097961426, -0.06398622691631317, 0.008956680074334145, 0.010463075712323189, -0.06286623328924179, 0.02536417543888092, -0.00488046882674098, 0.09364943206310272, 0.013599426485598087, -0.04634028300642967, -0.0602097250521183, 0.012813597917556763, 0.08796685934066772, -0.10541559755802155, -0.005906460806727409, 0.0014852877939119935, -0.0038319521117955446, 0.02022494189441204, 0.028712568804621696, 0.06334493309259415, 0.03084188513457775, 0.015417003072798252, 0.0881645604968071, 0.04992701858282089, 0.044238124042749405, -0.04794943332672119, -0.01745365932583809, -0.01982475444674492, -0.023236971348524094, -0.04662727192044258, 0.017349768429994583, -0.03820175677537918, -0.007066418416798115, 0.03890002891421318, -0.061483222991228104, -0.02474967949092388, 0.008564187213778496, 0.030704548582434654, -0.051349151879549026, 0.03587859123945236, 0.06666736304759979, -0.027312064543366432, -0.060357715934515, 0.05942854285240173]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>&lt; https : /www.linkedin.com/school/cisco-networking-academy1/ ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec 2024 [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.credly.com/badges/a440d572-854a-4e80-b48c-11fda3dceebb/public_url ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/hackerrank ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ SQL ( Basic ) ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.hackerrank.com/certificates/69f4e6799acc ? trk=public_profile_certification-title &gt; ) # # # # [ HackerRank ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/hackerrank ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec 2024 Credential ID 69f4e6799acc [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.hackerrank.com/certificates/69f4e6799acc ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /is.linkedin.com/company/typingcom ? trk=public_profile_profile-section-card_image-click &gt; ) # # # Typing lesson - Beginner Unit # # # # [ Typing ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /is.linkedin.com/company/typingcom ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Dec 2024 * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/hackerrank ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ Problem Solving ( Basic ) ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.hackerrank.com/certificates/eb1d5846efb0 ? trk=public_profile_certification-title &gt; ) # # # # [ HackerRank ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/hackerrank ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Nov 2024 Credential ID eb1d5846efb0 [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.hackerrank.com/certificates/eb1d5846efb0 ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/hackerrank ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ Python ( Basic ) ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.hackerrank.com/certificates/12e86dc7a498 ? trk=public_profile_certification-title &gt; ) # # # # [ HackerRank ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/hackerrank ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Nov 2024 Credential ID 12e86dc7a498 [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.hackerrank.com/certificates/12e86dc7a498</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Lakshana Rajendran has earned certifications in SQL, Typing, Problem Solving, and Python from HackerRank, all issued in late 2024.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[-0.09895768761634827, 0.00486024422571063, -0.03673088550567627, -0.008054815232753754, 0.012783420272171497, 0.042177073657512665, 0.056648630648851395, 0.06079835072159767, -0.07632092386484146, -0.0404496043920517, 0.0656142458319664, -0.03049623779952526, 0.0768672376871109, -0.04728661850094795, -0.07684101909399033, 0.055333659052848816, -0.04612104222178459, -0.045741159468889236, 0.01399331446737051, 0.0029136391822248697, -0.03360936418175697, -0.05910613760352135, -0.03526002913713455, -0.02972932904958725, -0.018513208255171776, -0.02074899524450302, 0.020304176956415176, 0.013985583558678627, -0.03336816653609276, -0.01861327700316906, -0.040969982743263245, 0.06538745015859604, -0.036582231521606445, 0.052178218960762024, 0.0013580337399616838, -0.04027429595589638, 0.03306637331843376, 0.0029885766562074423, 0.05215099826455116, -0.05803664028644562, 0.0015048561617732048, -0.09293229877948761, -0.008183732628822327, 0.01779003255069256, 0.04203785955905914, -0.010440000332891941, -0.07884153723716736, -0.027588410302996635, -0.02888363040983677, -0.07309593260288239, -0.06896116584539413, 0.024411877617239952, -0.06080590933561325, -0.00390789657831192, 0.014744593761861324, -0.032442521303892136, -0.021307723596692085, -0.027284720912575722, 0.0399247407913208, 0.01987859420478344, 0.0416741743683815, 0.03413092717528343, 0.04152676835656166, 0.06982093304395676, 0.020012443885207176, -0.042316023260354996, -0.02509736269712448, -0.008235950954258442, 0.01920256018638611, -0.0749758705496788, -0.0042930422350764275, -0.024139413610100746, -0.10451298207044601, -0.05806026980280876, 0.016442807391285896, 0.08592619746923447, -0.027064209803938866, 0.025479702278971672, -0.007523373235017061, -0.0797184556722641, -0.03201755881309509, 0.008282715454697609, -0.007162609603255987, 0.0924520418047905, 0.09175784885883331, 0.02104610949754715, -0.023270996287465096, -0.04693906381726265, 0.041704628616571426, -0.04349425062537193, 0.08275339007377625, 0.09039544314146042, -0.02799651399254799, -0.014433642849326134, -0.008580950088799, -0.034633755683898926, -0.012333058752119541, -0.0538761243224144, 0.011899727396667004, 0.0884692370891571, -0.042619477957487106, 0.02544667385518551, -0.05780359357595444, 0.003669802099466324, -0.038754209876060486, 0.07716001570224762, 0.11878595501184464, 0.05725404620170593, 0.06657837331295013, -0.03587551787495613, -0.06115690618753433, 0.024548867717385292, -0.06883059442043304, -0.07658029347658157, -0.043095894157886505, 0.048435647040605545, -0.034455422312021255, -0.002504432573914528, 0.10479080677032471, 0.007848279550671577, 0.06355633586645126, -0.010311015881597996, -0.07990069687366486, -0.06189390644431114, -0.09122618287801743, -0.06667470186948776, -0.03194775432348251, 3.73522146181413e-33, 0.03925749287009239, 0.05835290998220444, 0.0360521636903286, -0.04459786415100098, 0.05189267545938492, -0.014597500674426556, 0.027791297063231468, -0.045965757220983505, -0.07290128618478775, 0.07487398386001587, -0.14223214983940125, 0.0982663705945015, 0.015401124954223633, 0.04887673631310463, 0.0037096571177244186, -0.0034582267981022596, 0.02490273490548134, 0.03690408542752266, 0.008309048600494862, 0.0005893936613574624, 0.06654416024684906, -0.01676785945892334, 0.009507325477898121, 0.04648623615503311, 0.10004399716854095, 0.0787971019744873, 0.019751815125346184, 0.0006036965060047805, 0.030444269999861717, 0.041838761419057846, -0.00402095727622509, -0.02958139404654503, -0.03457339480519295, -0.031447406858205795, 0.0916316881775856, -0.020942533388733864, 0.02996298484504223, -0.019752945750951767, -0.026261106133461, -0.04679860919713974, 0.05119607597589493, -0.012675406411290169, -0.008123347535729408, -0.08430904150009155, -0.04240625724196434, -0.013041342608630657, 0.046189822256565094, 0.07300856709480286, 0.06899087131023407, 0.006817706860601902, -0.05771992728114128, -0.0003590004635043442, -0.08405763655900955, -0.04779020696878433, -0.009794206358492374, -0.05022919550538063, -0.010983554646372795, 0.04031384736299515, -0.004386939108371735, 0.018970130011439323, -0.03900626674294472, 0.006741708144545555, -0.10687243193387985, -0.04787922278046608, -0.053062472492456436, -0.0622546449303627, -0.02175118587911129, -0.10289089381694794, 0.05794893577694893, -0.03351258859038353, -0.008853896521031857, 0.09346339106559753, 0.04032788425683975, -0.03628111630678177, 0.005527793895453215, 0.032062362879514694, -0.01912379078567028, 0.05038563534617424, -0.08776992559432983, 0.08920057862997055, -0.06180388107895851, 0.011538110673427582, -0.08998766541481018, -0.0186809953302145, 0.005571175366640091, 0.020183973014354706, 0.05684451758861542, -0.06245879456400871, -0.01183297112584114, 0.05659490451216698, 0.07282290607690811, 0.029115524142980576, 0.04353021830320358, 0.017957936972379684, -0.06990578025579453, -5.600595447376771e-33, 0.005745035596191883, 0.02184591256082058, 0.0891500934958458, -0.06631147116422653, 0.05324561521410942, -0.0500788539648056, 0.0876922458410263, 0.09786161780357361, 0.031595099717378616, -0.024043967947363853, 0.09248214960098267, 0.04005177319049835, -0.018559591844677925, -0.10013459622859955, 0.06591080129146576, 0.03996036574244499, -0.05792718753218651, 0.11409503221511841, -0.03623388335108757, 0.02877584472298622, 0.0630151703953743, 0.15296974778175354, -0.06409576535224915, 0.038102973252534866, 0.032310083508491516, 0.07087886333465576, 0.06173749640583992, 0.07646527886390686, -0.0320088155567646, 0.04626302793622017, 0.018709631636738777, -0.047698356211185455, -0.1421053558588028, 0.1079513281583786, -0.061578281223773956, 0.01836947724223137, 0.04027827829122543, 0.06493902206420898, 0.03658338636159897, 0.02213607169687748, 0.025165002793073654, 0.012092139571905136, 0.02067367359995842, 0.01244884729385376, 0.01714446395635605, -0.04901101812720299, 0.04248518869280815, -0.04945981875061989, -0.02614663541316986, -0.03352096304297447, 0.07130426913499832, -0.06353708356618881, 0.04970838129520416, 0.044129569083452225, 0.012375958263874054, 0.06258294731378555, 0.03691072762012482, 0.009328950196504593, 0.05293229594826698, -0.04775957018136978, 0.06348086148500443, 0.022645581513643265, -0.001184584223665297, 0.07251989841461182, -0.012628372758626938, -0.0989673063158989, -0.04620832949876785, 0.041009098291397095, -0.08334793150424957, -0.024260669946670532, -0.04749482497572899, 0.0013850786490365863, 0.05169421061873436, 0.026073874905705452, -0.009426930919289589, -0.03979237377643585, -0.07411991059780121, 0.05580263212323189, -0.048212047666311264, 0.04954536631703377, -0.019521251320838928, -0.02756309323012829, -0.048842545598745346, -0.014495247974991798, -0.024111801758408546, 0.02541179582476616, 0.049233730882406235, -0.0018599956529214978, 0.054665856063365936, -0.07477575540542603, -0.09911365061998367, -0.04408244788646698, 0.002105299150571227, 0.0654696524143219, 0.011763045564293861, -5.819536852413876e-08, -0.005698313936591148, -0.043922215700149536, -0.060614585876464844, 0.005150929093360901, 0.059172287583351135, 0.0476638600230217, -0.07261312007904053, 0.022689251229166985, -0.05798014998435974, -0.01981986127793789, 0.030534617602825165, 0.04169926792383194, -0.05771701782941818, -0.05563187599182129, -0.06807009130716324, -0.04367221146821976, -0.09843559563159943, -0.03338079899549484, 0.003147719893604517, -0.08529336005449295, 0.04317280277609825, -0.041228484362363815, -0.0154157355427742, -0.001591385342180729, -0.06114770844578743, -0.0020868971478194, -0.02239922061562538, 0.0061347209848463535, -0.011826729401946068, -0.010144215077161789, -0.03668859601020813, 0.021849922835826874, 0.13426382839679718, -0.07252011448144913, 0.014714841730892658, 0.031900689005851746, 0.02875666506588459, 0.003945775330066681, -0.03166639804840088, 0.02947600744664669, 0.0038204260636121035, -0.03428692743182182, 0.05162820965051651, -0.009326147846877575, 0.03811149299144745, -0.049602918326854706, -0.0058902050368487835, -0.012902765534818172, 0.05401286855340004, -0.050149932503700256, 0.04620771110057831, -0.10300958901643753, -0.033550526946783066, 0.031119707971811295, -0.07466518133878708, -0.027093324810266495, 0.00010335182014387101, 0.02801666036248207, 0.01719043217599392, -0.03210417181253433, 0.03725874051451683, 0.04089423641562462, 0.0022740999702364206, 0.05149795114994049]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/hackerrank ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ React ( Basic ) ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.hackerrank.com/certificates/95b6c5c2c404 ? trk=public_profile_certification-title &gt; ) # # # # [ HackerRank ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/hackerrank ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Nov 2024 Credential ID 95b6c5c2c404 [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.hackerrank.com/certificates/95b6c5c2c404 ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ Connecting to a MongoDB Database ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/vHMnl4WSQduLpCM4RmB9fg ? trk=public_profile_certification-title &gt; ) # # # # [ MongoDB ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Aug 2024 Credential ID MDBcz7nwpjvei [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/vHMnl4WSQduLpCM4RmB9fg ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ Getting Started with MongoDB Atlas ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/n3Tdh_gPQZi0IetSgtpjpQ ? trk=public_profile_certification-title &gt; ) # # # # [ MongoDB ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Aug 2024 Credential ID MDB8r5195iotc [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/n3Tdh_gPQZi0IetSgtpjpQ ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ Introduction to MongoDB ( For Students ) ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/ceCZIzmMRCWWj0nwZgdzCw ? trk=public_profile_certification-title &gt; ) # # # # [ MongoDB ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Aug 2024 Credential ID</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Lakshana Rajendran has earned certifications in React, HackerRank, and various MongoDB courses, including Connecting to a MongoDB Database, Getting Started with MongoDB Atlas, and Introduction to MongoDB.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[-0.11669789254665375, 0.025327572599053383, -0.03752348572015762, -0.025060949847102165, 0.04963038116693497, 0.06975919008255005, 0.05037009343504906, 0.04349030554294586, -0.046218935400247574, -0.06095969304442406, 0.02821444161236286, -0.05207842215895653, 0.06536675244569778, 0.03285764902830124, -0.07840117067098618, 0.002347582019865513, -0.07256384193897247, -0.022108258679509163, 0.0023440923541784286, -0.032568760216236115, -0.03129323944449425, -0.03793419152498245, -0.031163156032562256, -0.06133923679590225, -0.03282011300325394, -0.02271936647593975, -0.0034294105134904385, 0.014267212711274624, -0.09658420830965042, -0.04344280809164047, 0.04799587279558182, 0.1065029576420784, -0.030163094401359558, -0.006639652885496616, -0.015180123038589954, 0.008012890815734863, -0.011792645789682865, -0.006689888425171375, 0.053762853145599365, -0.06947313994169235, 0.030291974544525146, -0.059677351266145706, -0.006953545846045017, 0.011061745695769787, 0.005677148699760437, 0.005334231536835432, -0.02126697450876236, -0.055490221828222275, -0.06819303333759308, -0.05004994198679924, -0.09585601836442947, 0.008610579185187817, -0.021604472771286964, -0.013625205494463444, -0.024930564686655998, -0.08369985222816467, 0.013705889694392681, -0.04873998090624809, 0.07427247613668442, -0.000641229678876698, 0.06393412500619888, 0.023345867171883583, 0.028716666623950005, 0.04489721730351448, 0.048553187400102615, -0.04243713617324829, 0.01041396614164114, -0.025431975722312927, 0.025085603818297386, -0.020041512325406075, 0.027307096868753433, 0.020221952348947525, -0.002204516902565956, -0.061365023255348206, 0.019573627039790154, 0.015037045814096928, -0.05682290717959404, 0.05158984661102295, 0.045733675360679626, -0.10970919579267502, 0.01651257462799549, -0.012665045447647572, 0.008082562126219273, 0.06009995937347412, 0.03990587964653969, 0.04889816790819168, 0.0022962784860283136, -0.03624032065272331, 0.03161732107400894, -0.005610072053968906, 0.1230379268527031, 0.051921550184488297, 0.08096343278884888, 0.04279165714979172, 0.016245204955339432, -0.02512625977396965, -0.04423623904585838, -0.018454473465681076, -0.006979348603636026, 0.042472995817661285, -0.041234590113162994, 0.0026715563144534826, -0.07036149501800537, -0.00658185500651598, -0.00957032386213541, 0.04122724011540413, 0.07293038070201874, 0.08509906381368637, 0.03856198862195015, 0.016494818031787872, -0.02965673990547657, 0.023866329342126846, -0.06524577736854553, -0.01308270264416933, -0.03562704101204872, 0.06992477923631668, -0.0011466284049674869, 0.004439454060047865, 0.08267800509929657, -0.009026308543980122, 0.10628171265125275, 0.04512478783726692, -0.048887163400650024, -0.053205255419015884, -0.06511418521404266, -0.050316959619522095, -0.03710820525884628, 2.9846471966499833e-33, 0.06451357901096344, 0.08334958553314209, 0.021928001195192337, -0.030329590663313866, 0.017372097820043564, -0.004406881518661976, 0.01349584385752678, -0.008198454044759274, -0.07175593078136444, 0.057186100631952286, -0.14077650010585785, 0.0850285217165947, 0.024875234812498093, 0.06440597772598267, -0.028145089745521545, -0.0018079174915328622, 0.07372040301561356, 0.039714936167001724, -0.0626150444149971, -0.020271562039852142, 0.04966682568192482, -0.012103402987122536, -0.013458729721605778, 0.0263157207518816, 0.036595918238162994, 0.05124061927199364, 0.034136369824409485, 0.005290769971907139, 0.015933487564325333, 0.019997093826532364, 0.010403186082839966, -0.03526240959763527, -0.024386903271079063, 0.024378543719649315, 0.12768372893333435, -0.03354543820023537, 0.03643643110990524, -0.052617911249399185, -0.06754862517118454, -0.05190889909863472, 0.04687083140015602, -0.0032587333116680384, -0.029559116810560226, -0.04946129024028778, -0.03858332335948944, -0.02684335969388485, 0.036964524537324905, 0.07204561680555344, 0.05844387412071228, 0.08216296881437302, -0.10864810645580292, 0.03615140542387962, -0.02646266482770443, -0.05169091001152992, -0.03371720761060715, -0.04515042528510094, -0.037081990391016006, 0.023420674726366997, 0.004402356222271919, 0.023448141291737556, -0.02832401543855667, 0.014211602509021759, -0.13694502413272858, -0.022585272789001465, -0.09010004997253418, -0.0575578436255455, 0.023737775161862373, -0.08280256390571594, 0.0280463844537735, 0.010426328517496586, -0.043936945497989655, 0.09606466442346573, 0.10857781767845154, 0.016515444964170456, -0.04521922022104263, 0.012972931377589703, -0.023312561213970184, 0.09628978371620178, -0.0927785336971283, 0.04397587478160858, -0.04896610602736473, -0.014420484192669392, -0.031673185527324677, -0.04921075701713562, 0.0072377948090434074, 0.04515744373202324, 0.0062154969200491905, -0.035586267709732056, 0.00369468261487782, 0.08662207424640656, 0.04224039241671562, -0.008550316095352173, -0.0006937960279174149, 0.037013519555330276, -0.05574316158890724, -4.9187628061517656e-33, -0.028732813894748688, -0.035615984350442886, 0.0745178684592247, -0.04703805595636368, 0.03370609134435654, -0.03176072984933853, 0.026653053238987923, 0.06680358946323395, 0.0370362214744091, -0.0015646987594664097, 0.09902693331241608, 0.02433113381266594, 0.03653433546423912, -0.08343181759119034, 0.07384444773197174, 0.043771740049123764, -0.05980920419096947, 0.05840432643890381, -0.03308577090501785, -0.021877773106098175, 0.05748043581843376, 0.0910099521279335, -0.08305704593658447, 0.04919896274805069, 0.035693056881427765, 0.09174346923828125, 0.09147389978170395, 0.07034210115671158, -0.03270239010453224, 0.05789902061223984, 0.01667805388569832, -0.04022781178355217, -0.1431608647108078, 0.13521482050418854, -0.056317418813705444, 0.0033442815765738487, 0.031086627393960953, 0.00687230471521616, 0.031547922641038895, 0.0731506422162056, 0.007449147757142782, 0.044914983212947845, 0.004807379096746445, 0.03305226191878319, -0.003237728727981448, -0.09120636433362961, 0.05751862749457359, -0.019812624901533127, 0.03241654485464096, -0.03870384395122528, 0.05348518490791321, -0.030360355973243713, 0.07205281406641006, -0.02736836113035679, 0.0025632542092353106, 0.05200710520148277, 0.003833772148936987, 0.029562978073954582, 0.03140758350491524, -0.06229832395911217, 0.11409517377614975, 0.03974265977740288, -0.016365885734558105, 0.06582073867321014, 0.01475448627024889, -0.10667020827531815, -0.056784745305776596, 0.04061192274093628, -0.03608394041657448, -0.04844798147678375, 0.013848278671503067, -0.03919120132923126, 0.03792166709899902, -0.05551084503531456, -0.008585263974964619, -0.06235111504793167, -0.04095840081572533, 0.06587699800729752, -0.037697501480579376, 0.05410929024219513, 0.040072306990623474, -0.02482275292277336, -0.02097444422543049, -0.008160755038261414, 0.01916048303246498, 0.024648621678352356, 0.05343467742204666, -0.002488484838977456, 0.04329043999314308, -0.09226382523775101, -0.06391622871160507, -0.04819812253117561, -0.018942303955554962, 0.05890148505568504, 0.019013121724128723, -5.588303508829995e-08, 0.017214354127645493, -0.03209768608212471, -0.0784212201833725, 0.014015743508934975, 0.031560707837343216, 0.040628667920827866, -0.09493833035230637, -0.019602352753281593, -0.0728977620601654, 0.02413560077548027, 0.03383006900548935, 0.014465214684605598, -0.08255298435688019, -0.0473165288567543, -0.051832981407642365, -0.08346472680568695, -0.16010816395282745, 0.025797350332140923, -0.02915542759001255, -0.06631380319595337, 0.023325517773628235, -0.04092860594391823, -0.01768594980239868, 0.03776610270142555, -0.03328629583120346, 0.011795638129115105, 0.01878572255373001, -0.0065208845771849155, 0.01920805685222149, 0.020055701956152916, -0.06580790132284164, 0.005156300496309996, 0.06946359574794769, -0.10336640477180481, -0.03227795287966728, 0.042019303888082504, 0.03386601060628891, -0.003960761241614819, -0.012357798404991627, 0.08548614382743835, -0.014827404171228409, -0.021286379545927048, 0.05105391889810562, 0.03495845943689346, -0.008773946203291416, -0.06569502502679825, -0.03719305247068405, -0.06781009584665298, 0.05910765007138252, -0.09001968801021576, 0.03865881636738777, -0.07007808238267899, -0.0177597813308239, 0.08053319901227951, -0.09149158746004105, 0.008802552707493305, -0.027372995391488075, 0.038674309849739075, 0.00572987413033843, 0.003631247440353036, 0.07049930840730667, -0.0012726042186841369, 0.026274563744664192, 0.04723334312438965]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MDBs2zxi5jzbp [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/ceCZIzmMRCWWj0nwZgdzCw ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ MongoDB Aggregation ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/Cpiz8OmaQdigdhu39dg_0g ? trk=public_profile_certification-title &gt; ) # # # # [ MongoDB ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Aug 2024 Credential ID MDB1csoxmn2im [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/Cpiz8OmaQdigdhu39dg_0g ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ MongoDB and the Document Model ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/nssyNXafSveGp0jo_mhlHA ? trk=public_profile_certification-title &gt; ) # # # # [ MongoDB ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Aug 2024 Credential ID MDBtqqptsyt9a [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/nssyNXafSveGp0jo_mhlHA ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ MongoDB Atlas Search ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/9qGYawhJQ6iY8k_g7EQZbA ? trk=public_profile_certification-title &gt; ) # # # # [ MongoDB ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Aug 2024 Credential ID MDBn02nifpx2l [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/9qGYawhJQ6iY8k_g7EQZbA ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ MongoDB CRUD Operations : Insert and Find Documents ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/NejuogT3Q2imAzxAqfq-yA ? trk=public_profile_certification-title &gt; ) # # # # [ MongoDB ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https :</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[-0.05707937479019165, 0.04419557377696037, -0.06465274095535278, 0.01415698416531086, 0.06302618235349655, 0.0006237266934476793, -0.014568724669516087, 0.019583651795983315, -0.03533640876412392, -0.016900286078453064, -0.021789290010929108, -0.05279009789228439, 0.023887937888503075, 0.0019560419023036957, -0.06665405631065369, 0.02834021858870983, -0.042280275374650955, 0.004344156943261623, 0.027292385697364807, -0.015850132331252098, -0.04358541592955589, -0.05281392112374306, 0.018640775233507156, -0.04409268870949745, -0.006809877697378397, -0.06840986758470535, 0.0007395235588774085, 0.029602766036987305, -0.05029962211847305, -0.062258921563625336, 0.033508919179439545, 0.058479439467191696, 0.0028894764836877584, -0.03210429102182388, 0.001394767896272242, 0.03919168934226036, 0.0615319162607193, -0.01267855055630207, 0.003364597214385867, -0.11434251815080643, 0.04363532364368439, -0.058716773986816406, -0.012897039763629436, -0.024224750697612762, 0.031523823738098145, -0.030295975506305695, -0.08788793534040451, 0.021248146891593933, 0.014888669364154339, -0.0319143645465374, -0.03365086019039154, -0.09643099457025528, -0.05216588079929352, 0.049026984721422195, 0.006389530375599861, 0.08539246022701263, -0.07308913767337799, -0.02651933766901493, -0.015201592817902565, 0.0033018882386386395, 0.04701250419020653, 0.0036190489772707224, -0.0737711638212204, 0.06722823530435562, 0.012330141849815845, 0.03097754903137684, 0.00947888009250164, 0.033607278019189835, -0.005325254984200001, -0.035814739763736725, 0.0006596348248422146, -0.023275911808013916, -0.07203437387943268, -0.06337416917085648, 0.0024406590964645147, 0.06367920339107513, -0.007666159886866808, -0.028725752606987953, 0.03195613622665405, -0.06269623339176178, -0.09327183663845062, -0.04875897988677025, 0.021024180576205254, 0.014955373480916023, 0.041360851377248764, -0.0029058177024126053, -0.025234544649720192, -0.04318961501121521, -0.02920919843018055, -0.029250971972942352, 0.147852823138237, 0.10889376699924469, -0.008495637215673923, 0.020228151232004166, 0.02588207647204399, 0.01946839690208435, -0.017799224704504013, -0.0036204319912940264, 0.05115335062146187, 0.04763349890708923, -0.05087840557098389, -0.014640247449278831, 0.011630338616669178, -0.02356979250907898, 0.008371317759156227, 0.045436792075634, 0.061833254992961884, 0.0355825237929821, 0.012274348177015781, -0.009957670234143734, -0.014764213934540749, 0.01597142219543457, -0.10169671475887299, -0.0221055019646883, -0.05087073892354965, 0.09712842106819153, -0.053924065083265305, -0.031827688217163086, 0.05926511809229851, -0.02064291574060917, 0.03907299414277077, 0.06331262737512589, -0.0396895594894886, -0.11351004242897034, -0.07589560747146606, -0.08070652931928635, -0.03262444585561752, 7.304807688073738e-33, 0.11004429310560226, 0.006206323858350515, 0.0795784518122673, -0.03522656112909317, 0.021158898249268532, 0.058635905385017395, -0.010825695469975471, -0.054046474397182465, -0.07785135507583618, 0.056267283856868744, -0.13798736035823822, 0.10499414801597595, 0.004026478622108698, 0.017881304025650024, 0.0056218733079731464, -0.07834033668041229, 0.03999229893088341, 0.08687429875135422, 0.019282715395092964, 0.03468688949942589, 0.025837909430265427, 0.048008207231760025, -0.04171052202582359, 0.06218530237674713, 0.04706583172082901, 0.10163412243127823, 0.041470807045698166, -0.004334282595664263, 0.029099583625793457, 0.07757370918989182, -0.027012648060917854, -0.010748988017439842, 0.017897475510835648, 0.018013719469308853, 0.06430865824222565, -0.02987145073711872, -0.011009493842720985, -0.03867806866765022, -0.022707583382725716, -0.0502418614923954, 0.10104171931743622, -0.03033214807510376, 0.015634911134839058, -0.050369348376989365, -0.13273192942142487, 0.050720587372779846, 0.09585562348365784, 0.01882261224091053, 0.12562702596187592, 0.07811295986175537, -0.08757825195789337, -0.05017852783203125, -0.10746512562036514, -0.02220609225332737, 0.013806125149130821, -0.03467120975255966, -0.030038485303521156, 0.03417810797691345, -0.03730671480298042, -0.02457311935722828, -0.04787934944033623, 0.025822816416621208, -0.07467599958181381, -0.02030758745968342, -0.03173333778977394, -0.0675559714436531, -0.025246992707252502, -0.046645134687423706, -0.01562182605266571, -0.022119848057627678, -0.03281795233488083, 0.12943965196609497, 0.04436030238866806, -0.010399922728538513, 0.05158279091119766, -0.042933400720357895, 0.007893554866313934, 0.047806266695261, -0.11515437066555023, 0.09907347708940506, -0.007250738795846701, -0.019194630905985832, -0.08215853571891785, -0.05856083333492279, 0.0015423570293933153, 0.1270575374364853, 0.05220948904752731, -0.023093784227967262, 0.012590491212904453, 0.02677273377776146, 0.03530312329530716, 0.09983976930379868, -0.0031055130530148745, 0.0011420175433158875, -0.07582525908946991, -8.545230469363695e-33, 0.07075070589780807, -0.05169298127293587, 0.12157296389341354, -0.016814596951007843, 0.06846125423908234, -0.004695533309131861, 0.045763857662677765, 0.06267324090003967, 0.04921705648303032, -0.07311512529850006, 0.08543980866670609, -0.030698414891958237, -0.008671614341437817, -0.12169352918863297, -0.026511041447520256, -0.05928831547498703, -0.05378270149230957, -0.011733472347259521, -0.013710714876651764, -0.036394424736499786, 0.01708698831498623, 0.06037818640470505, -0.03595279902219772, 0.05714607238769531, -0.0055442871525883675, 0.003111035330221057, 0.022892175242304802, 0.01903279311954975, -0.007467722985893488, 0.08948028087615967, 0.02140808291733265, 0.000793027225881815, -0.10579158365726471, 0.10959492623806, -0.03368896618485451, -0.024240583181381226, 0.03130683675408363, 0.05257772281765938, 0.04870331659913063, 0.028462346643209457, 0.03231849521398544, 0.025637326762080193, -0.03135474771261215, -0.056169550865888596, 0.05898662284016609, -0.07120370864868164, 0.027921011671423912, -0.011491646058857441, 0.004312565084546804, -0.045413561165332794, -0.007160400506108999, -0.06654569506645203, 0.03610445186495781, 0.027962297201156616, -0.02185918763279915, 0.018072929233312607, 0.029443660750985146, -0.011087890714406967, 0.09397362917661667, -0.00885882880538702, 0.08678373694419861, 0.036923713982105255, -0.058883242309093475, 0.0872228741645813, -0.0031572487205266953, -0.04350536689162254, -0.056415826082229614, 0.005063180346041918, -0.038418225944042206, 0.04162140190601349, -0.02947308123111725, -0.055867839604616165, 0.00017866342386696488, -0.0005957254325039685, 0.004863130860030651, -0.034227605909109116, -0.039603397250175476, -0.01592738926410675, -0.013459369540214539, 0.009463532827794552, 0.032556187361478806, 0.0456068329513073, 0.02218903973698616, 0.0324031338095665, 0.04833684861660004, -0.0198101494461298, 0.004022378008812666, -0.030652092769742012, -0.02401873469352722, -0.020396769046783447, -0.11285421997308731, 0.004063532687723637, -0.015841824933886528, 0.10176515579223633, 0.03297816962003708, -5.795136104325138e-08, -0.060634881258010864, 0.0025304679293185472, -0.021047964692115784, -0.02073429338634014, 0.05976146087050438, 0.038618478924036026, -0.04080831632018089, 0.005975155159831047, 0.02451157756149769, 0.03187438100576401, 0.02270742505788803, 0.015546172857284546, -0.0757378488779068, -0.05977590009570122, -0.05909786373376846, -0.03748154267668724, -0.052169546484947205, 0.012061537243425846, 0.018656248226761818, -0.04070986807346344, 0.04800611734390259, -0.0667126253247261, 0.04075343534350395, -0.04937225952744484, -0.016946887597441673, 0.053213637322187424, -0.007349721156060696, 0.0914861410856247, 0.017316505312919617, -0.021156826987862587, -0.028568224981427193, 0.03574509546160698, 0.14604823291301727, -0.08219017833471298, 0.04109511524438858, 0.07114008069038391, -0.058130621910095215, 0.0066091138869524, -0.031895726919174194, 0.054755449295043945, 0.007556746248155832, -0.0019221823895350099, 0.03686753287911415, 0.002368966117501259, 0.010630728676915169, -0.11653005331754684, 0.033490292727947235, 0.0347161702811718, 0.024292923510074615, -0.03280793875455856, 0.04609985649585724, -0.10957390069961548, 0.010150539688766003, 0.0340806320309639, -0.050167813897132874, -0.01371788140386343, -0.004065891727805138, 0.0015439944108948112, 0.03944160044193268, 0.025449788197875023, 0.08970987796783447, -0.041243940591812134, -0.04533064737915993, 0.04546055570244789]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>/www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Aug 2024 Credential ID MDB3gc1fpo8tl [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/NejuogT3Q2imAzxAqfq-yA ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ MongoDB CRUD Operations : Modifying Query Results ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/JsDpqY1jQ5mtBptW1Yzvxg ? trk=public_profile_certification-title &gt; ) # # # # [ MongoDB ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Aug 2024 Credential ID MDBr24uvh4a4x [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/JsDpqY1jQ5mtBptW1Yzvxg ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ MongoDB CRUD Operations : Replace and Delete Documents ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/3W_8k_9cSZuFI7VzS_aqIA ? trk=public_profile_certification-title &gt; ) # # # # [ MongoDB ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Aug 2024 Credential ID MDBens6ah4biv [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/3W_8k_9cSZuFI7VzS_aqIA ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ MongoDB Data Modeling Intro ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/X5zRamZ-Ti -- gbOAJBUGTQ ? trk=public_profile_certification-title &gt; ) # # # # [ MongoDB ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Aug 2024 Credential ID MDB2db4x3ny5t [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/X5zRamZ-Ti -- gbOAJBUGTQ ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ MongoDB Indexes ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/L4fNXrQTTxGS9smWvQxU5Q ?</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[-0.06489458680152893, 0.06309211999177933, -0.08658628910779953, 0.0169183611869812, 0.018697388470172882, 0.011538800783455372, -0.006154082715511322, 0.05894787982106209, -0.028838012367486954, 0.011136009357869625, 0.011953558772802353, -0.03735075891017914, 0.036962468177080154, -0.03557945415377617, -0.0635019987821579, 0.012073926627635956, -0.018099108710885048, -0.0003327112935949117, -0.008875560015439987, 0.007200016640126705, -0.002310490235686302, 0.0037325213197618723, 0.03082357533276081, -0.030564643442630768, -0.013050267472863197, -0.09886958450078964, 0.027283066883683205, 0.009532037191092968, -0.06418342143297195, -0.01572738215327263, 0.001718777697533369, 0.09886796772480011, -0.0016501868376508355, -0.0021036542020738125, -0.017941411584615707, 0.053201887756586075, 0.031223781406879425, -0.0009627098334021866, 0.009065767750144005, -0.11071684956550598, 0.012472884729504585, -0.0881451964378357, -0.02743448130786419, -0.018841829150915146, 0.08608139306306839, -0.02248893305659294, -0.09564877301454544, 0.02159811183810234, -0.0007972396560944617, -0.003833881812170148, -0.05072329193353653, -0.06289820373058319, -0.06938587874174118, 0.041723642498254776, 0.020331915467977524, 0.06356409192085266, -0.05584080517292023, -0.033487655222415924, -0.025190813466906548, 0.01312913279980421, 0.04880784451961517, -0.02783043496310711, -0.004791346378624439, 0.053575415164232254, -0.002966279862448573, -0.010213945060968399, 0.038885511457920074, -0.03583299368619919, 0.03051898628473282, -0.06789492815732956, 0.04070551320910454, 0.0030027288012206554, -0.126747265458107, -0.08740832656621933, -0.01894635334610939, 0.11072372645139694, -0.010055732913315296, 0.018622534349560738, 0.00032351206755265594, -0.07687203586101532, -0.0557989664375782, -0.004158854950219393, 0.03702860698103905, -0.016223011538386345, 0.0571548193693161, -0.023791639134287834, -0.0031548854894936085, -0.0739821270108223, -0.005673836451023817, -0.02515523135662079, 0.12085961550474167, 0.0884769856929779, -0.03543578460812569, -0.030681660398840904, 0.011895652860403061, 0.014065895229578018, 0.0006947465590201318, 0.0032454614993184805, 0.02588033489882946, 0.007618557196110487, -0.03788851201534271, 0.022718260064721107, -0.06843411177396774, 0.026720348745584488, 0.01504986546933651, 0.04798048734664917, 0.10228439420461655, 0.0455249659717083, -0.005565348081290722, -0.029526634141802788, -0.034477196633815765, 0.019223716109991074, -0.0692271888256073, -0.04503180831670761, -0.05582255870103836, 0.09364866465330124, -0.055765241384506226, -0.0108654098585248, 0.030096575617790222, 0.01168056484311819, 0.0520322285592556, 0.04024556651711464, -0.05837291106581688, -0.08468536287546158, -0.09239356964826584, -0.0949757993221283, -0.014063171111047268, 5.416890292256218e-33, 0.1427358239889145, 0.04461800307035446, 0.06459783017635345, -0.045136988162994385, 0.028262784704566002, 0.04525739327073097, -0.0387386754155159, -0.017179040238261223, -0.0388912670314312, 0.047639451920986176, -0.12530112266540527, 0.07669159024953842, 0.011005334556102753, 0.028441904112696648, -0.005045305471867323, -0.055902086198329926, 0.027792731299996376, 0.0559295117855072, 0.0492812842130661, 0.06708492338657379, 0.04537293314933777, 0.0333494171500206, -0.06620389968156815, 0.029981333762407303, 0.048091329634189606, 0.1016971617937088, 0.014300036244094372, -0.021784331649541855, 0.010280962102115154, 0.04381333664059639, -0.04523080587387085, -0.026263495907187462, -0.035134606063365936, 0.008149201050400734, 0.07783152908086777, -0.04215370863676071, -0.0036816135980188847, -0.042939893901348114, -0.04437674582004547, -0.011849391274154186, 0.09153443574905396, -0.008610773831605911, 0.015273503959178925, -0.07797557860612869, -0.12510325014591217, 0.01804800145328045, 0.0958588570356369, 0.03407534956932068, 0.04913770407438278, 0.09945046156644821, -0.07707156240940094, -0.02619577944278717, -0.09000910818576813, -0.04491585120558739, 0.004667984321713448, -0.052104365080595016, -0.0007622251287102699, -0.021834898740053177, -0.03402528911828995, -0.048201724886894226, -0.020434755831956863, 0.007487775292247534, -0.07893893867731094, 0.000716818671207875, -0.04488321766257286, -0.08208362013101578, 0.0074016982689499855, -0.06284768879413605, 0.02510892227292061, -0.03022031858563423, -0.02740255743265152, 0.13030536472797394, 0.009154751896858215, -0.02827969379723072, 0.029216933995485306, -0.025540757924318314, -0.006246777717024088, 0.060345448553562164, -0.11406008154153824, 0.0985056683421135, 0.011346492916345596, 0.04693513363599777, -0.09337378293275833, -0.026479393243789673, -0.0012125232024118304, 0.09805553406476974, 0.05920625850558281, -0.02960008755326271, 0.0246887244284153, -0.02719135396182537, 0.10628292709589005, 0.08959343284368515, 0.01378623116761446, -0.011739368550479412, -0.021116869524121284, -7.162365690744909e-33, 0.05033355578780174, -0.0850716382265091, 0.1036059558391571, -0.03559260815382004, 0.03751404210925102, -0.008426293730735779, 0.06773295998573303, 0.06656744331121445, 0.05144466087222099, -0.11432112753391266, 0.051563967019319534, -0.014975110068917274, 0.00512758269906044, -0.13574445247650146, -0.006362969987094402, -0.032462675124406815, -0.09770722687244415, 0.00926966592669487, -0.03393689915537834, -0.015597698278725147, 0.011849835515022278, 0.08885513246059418, -0.013862274587154388, 0.031216608360409737, 0.031144050881266594, 0.021826162934303284, 0.011414402164518833, 0.02165902964770794, -0.033098235726356506, 0.03698604553937912, -0.006658890750259161, -0.0219834316521883, -0.14606288075447083, 0.13493089377880096, -0.019038429483771324, 0.015530703589320183, 0.046166080981492996, 0.07981724292039871, 0.06145823001861572, 0.04799938574433327, 0.0367962010204792, 0.04972004145383835, -0.00873588677495718, -0.024339331313967705, 0.021579239517450333, -0.05097100883722305, 0.023568933829665184, 0.0013996956404298544, -0.003048300975933671, -0.0151173435151577, 0.037625208497047424, -0.04428175091743469, 0.020088592544198036, 0.02216915413737297, 0.026302333921194077, -0.019201304763555527, 0.04851169139146805, -0.05634870007634163, 0.1308908611536026, -0.04373928904533386, 0.05930725857615471, 0.041655175387859344, -0.01919488050043583, 0.08832575380802155, -0.008447746746242046, -0.03678280487656593, -0.0644976869225502, -0.0025483216159045696, -0.013475717976689339, -0.00836203247308731, -0.025407642126083374, -0.07901608943939209, 0.021937834098935127, 0.03780284523963928, 0.04838304966688156, -0.06663765758275986, -0.04895113408565521, -0.04400191456079483, -0.040509480983018875, 0.044875748455524445, 0.01895139180123806, 0.01621232181787491, 0.005675944499671459, 0.03644992783665657, -0.050059571862220764, -0.0241892971098423, -0.002051542978733778, -0.016020458191633224, -0.022821364924311638, -0.020656784996390343, -0.13350141048431396, 0.024391761049628258, -0.036331724375486374, 0.10259532183408737, 0.0038773769047111273, -5.8364559407664274e-08, -0.057427652180194855, -0.0020372611470520496, -0.021278372034430504, 0.02130746655166149, 0.08060091733932495, 0.006820234004408121, -0.05976556986570358, 0.0545516274869442, 0.029339352622628212, -0.020660733804106712, 0.013948844745755196, 0.06054273247718811, -0.04987097159028053, -0.07407314330339432, -0.04767053574323654, -0.030792778357863426, 0.0010565873235464096, -0.022030599415302277, 0.02464812994003296, -0.044523075222969055, 0.03472498059272766, -0.04562057927250862, -0.0035929735749959946, -0.044015783816576004, -0.006449386943131685, 0.03014409728348255, 0.012947802431881428, 0.058148372918367386, 0.02352280169725418, -0.0271848626434803, -0.013984831050038338, 0.005827113054692745, 0.16147878766059875, -0.020608389750123024, 0.017390865832567215, 0.04286760836839676, -0.03212863206863403, 0.021748729050159454, -0.0432475283741951, 0.057191889733076096, 0.014740601181983948, 0.008699038065969944, 0.023064685985445976, -0.0034477701410651207, 0.0027693668380379677, -0.1111164391040802, 0.05740389972925186, -0.0013731945073232055, 0.006844513583928347, -0.0454983189702034, 0.006752706598490477, -0.06622612476348877, 0.054831620305776596, 0.03720280900597572, -0.06369315087795258, -0.0336134247481823, 0.040064387023448944, -0.0025189851876348257, 0.05543690174818039, 0.01715967431664467, 0.03530239686369896, -0.010159856639802456, -0.028284097090363503, 0.047119662165641785]</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>trk=public_profile_certification-title &gt; ) # # # # [ MongoDB ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Aug 2024 Credential ID MDB0y4x8o1kh9 [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/L4fNXrQTTxGS9smWvQxU5Q ? trk=public_profile_see-credential &gt; ) * [ ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_image-click &gt; ) # # # [ MongoDB Transactions ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/ac9ViNbPQQS2WnuwdrCFAg ? trk=public_profile_certification-title &gt; ) # # # # [ MongoDB ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/company/mongodbinc ? trk=public_profile_profile-section-card_subtitle-click &gt; ) Issued Aug 2024 Credential ID MDBidpyworx4v [ See credential ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /learn.mongodb.com/c/ac9ViNbPQQS2WnuwdrCFAg ? trk=public_profile_see-credential &gt; ) # # Honors &amp; Awards * # # # Runner-Up ( 2nd Place ) — Hackintym Hackathon # # # # Meenakshi Sundararajan Engineering College Aug 2024 Awarded 2nd place and a cash prize of ₹5,000 for developing Ease Mind , an AI-powered web platform that analyzes users ' mental health and provides personalized video and article recommendations based on their current emotional state.Key Features : Mental health analysis using validated questionnaires.AI-driven content recommendations.Focused on improving user well-being . * # # # Class Representative # # # # Meenakshi Sundararajan Engineering College Jan 2024 Acknowledging my role and contributions as the Class Representative for the year 2023-2024 . # # Languages * # # # English # # # # Full professional proficiency # # More activity by Lakshana * [ ✨ I am excited to share that I have successfully completed the course `` What is Generative AI ? '' on LinkedIn learning . This course provided valuable… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/mahalakshmi-c-b-938b202a1_generativeai-linkedinlearning-activity-7285593146351132672-20f5 &gt; ) # # # ✨ I am excited to share that</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[-0.06398466974496841, 0.050087206065654755, -0.08116503059864044, -0.01694226823747158, 0.04120209813117981, 0.03421580791473389, 0.02133726328611374, 0.0030560758896172047, -0.05078684911131859, -0.03725876286625862, 1.1940234799112659e-05, -0.07002489268779755, 0.013597778975963593, -0.028964007273316383, -0.08846589922904968, -0.0014678376028314233, -0.026516301557421684, -0.022998452186584473, 0.013616460375487804, 0.013098533265292645, -0.016894781962037086, 0.020752184092998505, -0.01860087364912033, -0.01464732177555561, -0.014760639518499374, -0.10311268270015717, 0.013956483453512192, 0.0234823040664196, -0.052102696150541306, -0.02894701436161995, 0.05427004396915436, 0.10528480261564255, -0.010058398358523846, -0.057053711265325546, -0.017426660284399986, 0.019887596368789673, 0.05004774406552315, -0.01989690214395523, 0.013152371160686016, -0.10472961515188217, 0.03627302870154381, -0.09340763092041016, -0.02358327805995941, -0.00892226304858923, 0.04711690545082092, -0.03230052441358566, -0.07004303485155106, 0.019877202808856964, -0.01950637437403202, -0.026090441271662712, -0.01812225952744484, -0.07375374436378479, -0.047173503786325455, 0.049231547862291336, -0.014626700431108475, 0.03726987913250923, -0.056855857372283936, -0.016725249588489532, -0.0014983200235292315, 0.033333756029605865, 0.05859469622373581, 0.005683093797415495, -0.045126888900995255, 0.06312833726406097, 0.008256735280156136, -0.004664223175495863, 0.008341368287801743, -0.003178670769557357, 0.0072075980715453625, -0.022100040689110756, 0.03188692405819893, -0.008935710415244102, -0.10650886595249176, -0.06992492824792862, 0.005972276907414198, 0.0547003298997879, -0.026646656915545464, -0.01383591815829277, 0.02178042009472847, -0.06652608513832092, -0.06335562467575073, -0.026404865086078644, 0.0352645106613636, 0.008557836525142193, 0.014229298569262028, -0.010231462307274342, 0.000707015919033438, -0.06601041555404663, -0.009484401904046535, 0.011639202944934368, 0.15795806050300598, 0.07860831916332245, -0.00896125566214323, -0.01910223811864853, 0.0004714132519438863, 0.016706433147192, -0.008992458693683147, 0.031205445528030396, 0.05107114464044571, 0.029630763456225395, -0.04724423959851265, -0.0080178901553154, -0.037745147943496704, 0.00741982739418745, 0.000534604478161782, 0.06045948714017868, 0.06881454586982727, 0.02055460959672928, 0.022155720740556717, -0.014925423078238964, -0.03005279041826725, -0.0024803918786346912, -0.0738162249326706, -0.014539997093379498, -0.03512739762663841, 0.11088097840547562, -0.025353869423270226, -0.00210565491579473, 0.06717995554208755, -0.0004368321388028562, 0.031441476196050644, 0.043879833072423935, -0.03527059778571129, -0.09147725254297256, -0.10215683281421661, -0.08901552110910416, -0.012682557106018066, 5.885290628254329e-33, 0.1290183961391449, 0.04110291600227356, 0.03632599487900734, -0.030939890071749687, 0.011218694038689137, 0.03565336763858795, -0.02546382136642933, -0.041969336569309235, -0.0480823740363121, 0.06789945065975189, -0.11026730388402939, 0.08989189565181732, 0.0334131084382534, -0.018926696851849556, -0.020648565143346786, -0.05243279039859772, 0.04927570000290871, 0.07284177839756012, 0.0015416883397847414, 0.05163267254829407, 0.050537433475255966, 0.026800569146871567, -0.05024898797273636, 0.04477093741297722, 0.037980902940034866, 0.12099576741456985, 0.05835776776075363, -0.015828410163521767, 0.01533889677375555, 0.06764514744281769, -0.018532274290919304, 0.0005115048261359334, 0.012082918547093868, 0.02727513015270233, 0.08826757967472076, -0.02837565541267395, -0.0055183833464980125, -0.058084480464458466, -0.006680077873170376, -0.06568026542663574, 0.10691674053668976, -0.004243201110512018, 0.0022360379807651043, -0.05133723095059395, -0.12067309021949768, 0.028125612065196037, 0.10541378706693649, 0.04239112138748169, 0.11473206430673599, 0.1020483747124672, -0.09750969707965851, -0.023680251091718674, -0.11497301608324051, -0.026059532538056374, -0.013043664395809174, -0.057499948889017105, -0.03085254691541195, 0.023700786754488945, -0.02497708424925804, -0.03099098429083824, -0.012872089631855488, 0.022845391184091568, -0.09144452959299088, -0.004383125342428684, -0.05149758234620094, -0.09647940844297409, -0.018790699541568756, -0.06581266969442368, -0.00034686841536313295, -0.04617752507328987, -0.0494193434715271, 0.0883532166481018, 0.03795185312628746, -0.013585120439529419, 0.014030818827450275, -0.02872915379703045, -0.0025477265007793903, 0.06352721154689789, -0.11374729871749878, 0.11095936596393585, -0.009579448029398918, 0.03572068363428116, -0.0909472405910492, -0.049050234258174896, 0.0011802311055362225, 0.12391985207796097, 0.04304221644997597, -0.019008763134479523, 0.015430768020451069, 0.013510706834495068, 0.05046463385224342, 0.08855791389942169, -0.002318162703886628, 0.007257440127432346, -0.05447986721992493, -8.234433436426128e-33, 0.06324516981840134, -0.07217178493738174, 0.10282295197248459, -0.02828417718410492, 0.06511853635311127, -0.02301798015832901, 0.03619017452001572, 0.086934894323349, 0.0716577023267746, -0.0433468297123909, 0.08897949755191803, -0.04446227848529816, 0.001660595298744738, -0.08948347717523575, 0.017119865864515305, -0.04981749504804611, -0.07578226178884506, 0.047488994896411896, -0.03204056993126869, -0.014022580347955227, 0.034076664596796036, 0.04029226303100586, -0.03700881078839302, 0.06080818921327591, 0.028886038810014725, -0.019731059670448303, 0.017828499898314476, 0.021224651485681534, -0.019616594538092613, 0.0423329696059227, -0.01303956564515829, 0.004703801590949297, -0.1549302190542221, 0.13138020038604736, -0.06755784153938293, -0.022753402590751648, 0.05639905482530594, 0.05758006498217583, 0.06887797266244888, 0.036324452608823776, 0.036713045090436935, 0.047172509133815765, -0.02227972261607647, -0.02664000913500786, 0.046343617141246796, -0.056999389082193375, 0.02851749025285244, -0.015063170343637466, 0.005509895272552967, -0.06742797046899796, 0.028465263545513153, -0.04103913530707359, 0.08545662462711334, 0.012760975398123264, 0.008245686069130898, 0.026439625769853592, 0.03851461410522461, -0.008974531665444374, 0.09088346362113953, -0.011155316606163979, 0.09039001911878586, 0.04361986368894577, -0.029255274683237076, 0.10120158642530441, -0.0020908054430037737, -0.05732065811753273, -0.04920467361807823, 0.015074700117111206, -0.014341031201183796, -0.020844003185629845, -0.003283946542069316, -0.07397802919149399, -0.02219235710799694, 0.0022833002731204033, 0.0050175124779343605, -0.05704827606678009, -0.05741303414106369, -0.052619438618421555, -0.03693342208862305, 0.028983034193515778, 0.03091883845627308, 0.030771560966968536, 0.002770886057987809, -0.003825098741799593, 0.024966968223452568, -0.05973120033740997, 0.014556785114109516, -0.018968403339385986, -0.04053082317113876, -0.02372777834534645, -0.10370999574661255, 0.004426034167408943, -0.049893733114004135, 0.0749673917889595, 0.002798796398565173, -5.6374798163005835e-08, -0.04776379466056824, -0.012543180026113987, -0.032765019685029984, -0.017421800643205643, 0.07114505767822266, 0.051522597670555115, -0.041606172919273376, -0.01034093089401722, 0.01598505675792694, -0.0036451478954404593, -0.0028726758901029825, 0.009222446009516716, -0.060089655220508575, -0.059726934880018234, -0.043322719633579254, -0.07379905879497528, -0.06396329402923584, -0.003313870634883642, 0.006110350135713816, -0.0009954697452485561, 0.06528295576572418, -0.05137566849589348, 0.03866763412952423, -0.042652904987335205, -0.04516956955194473, 0.0329844169318676, 0.016923753544688225, 0.09797515720129013, 0.0032069142907857895, -0.015700524672865868, -0.043003614991903305, 0.02049253135919571, 0.114968441426754, -0.07103492319583893, 0.005128419958055019, 0.10353006422519684, -0.053578849881887436, 0.02573523111641407, -0.014796257019042969, 0.1034272238612175, 0.0026672722306102514, -0.00533681083470583, 0.05176364257931709, 0.02950790897011757, -0.0010007994715124369, -0.09579205513000488, 0.014450008049607277, 0.0023609348572790623, 0.019940892234444618, -0.05984850600361824, 0.012467813678085804, -0.07589754462242126, 0.0440111942589283, 0.0235167033970356, -0.09496470540761948, -0.010818351060152054, -0.004837667569518089, 0.019281888380646706, 0.009314223192632198, -0.014188188128173351, 0.08413718640804291, 0.0025802459567785263, -0.02341427281498909, 0.04871975630521774]</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>I have successfully completed the course `` What is Generative AI ? '' on LinkedIn learning . This course provided valuable… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ With happiness , I want to share something I ’ ve recently accomplished ! I just completed a course on Simplilearn about Prompt Engineering using GitHub… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/lingeswar-m_with-happiness-i-want-to-share-something-activity-7285562592410902528-LTG6 &gt; ) # # # With happiness , I want to share something I ’ ve recently accomplished ! I just completed a course on Simplilearn about Prompt Engineering using GitHub… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ Patience is not the ability to wait , but how we act while waiting ! . Embarking on my internships with HACKSEC and CYFOXGEN marks an exciting first… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/dharun-kumar-80a9102a1_cybersecurity-internships-hacksec-activity-7285578348548734976-iPqf &gt; ) # # # Patience is not the ability to wait , but how we act while waiting ! . Embarking on my internships with HACKSEC and CYFOXGEN marks an exciting first… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ 🎉 Excited to Share a Milestone ! 🎉 I ’ m thrilled to announce that I ’ ve been offered an * * internship at InternPe * * in the exciting and… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/kalashree-selvam-2ba189264_internship-ai-machinelearning-activity-7285219268131004416-c8u8 &gt; ) # # # 🎉 Excited to Share a Milestone ! 🎉 I ’ m thrilled to announce that I ’ ve been offered an * * internship at</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>The writer has completed a course on "What is Generative AI?" and is sharing their recent accomplishments, including completing a course on Prompt Engineering and starting internships.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[-0.07099758833646774, -0.02518981695175171, -0.01013481430709362, 0.0029843247029930353, -0.022976260632276535, 0.015454178676009178, 0.027942776679992676, 0.00881687831133604, -0.0676368921995163, -0.00048108890769071877, 0.046965695917606354, -0.04254657402634621, 0.045182228088378906, -0.03157036006450653, 0.002979204524308443, 0.05597337335348129, -0.010471794754266739, 0.015350600704550743, -0.06083455681800842, -0.03432013466954231, 0.012264493852853775, 0.014078180305659771, -0.0053029488772153854, -0.025593003258109093, 0.04403899610042572, -0.019579097628593445, 0.03286852315068245, -0.015446559526026249, 0.07318731397390366, -0.013299581594765186, 0.08834211528301239, 0.12293573468923569, -0.05979136377573013, 0.04563724622130394, -0.05388360470533371, 0.12811440229415894, -0.06889253109693527, -0.055299676954746246, 0.07541776448488235, -0.06815221160650253, 0.00034793815575540066, -0.019099161028862, 0.0026879864744842052, -0.04189697653055191, 0.025496259331703186, -0.015014301985502243, 0.014961901120841503, -0.12040167301893234, 0.025333045050501823, -0.03277449309825897, -0.12906403839588165, -0.07568012923002243, -0.034087274223566055, -0.008384308777749538, -0.0018047631019726396, -0.001245429739356041, 0.005548474378883839, 0.010922190733253956, -0.02623174712061882, -0.03352295607328415, -0.055822573602199554, 0.01261795125901699, 0.01801176182925701, -0.043541789054870605, 0.019323932006955147, -0.0908697098493576, -0.024029327556490898, 0.16883641481399536, 0.04731299728155136, -0.03929624706506729, 0.07498106360435486, 0.029007261618971825, -0.04210302606225014, -0.001064835349097848, 0.023320866748690605, 0.027089251205325127, -0.05006180703639984, 0.05527474358677864, 0.008430678397417068, -0.12690779566764832, 0.0013350880471989512, 0.024586237967014313, 0.017229601740837097, 0.036707885563373566, -0.05583437532186508, 0.03475513309240341, 0.06415139883756638, 0.034546904265880585, 0.0015996352303773165, 0.0385114885866642, 0.025583157315850258, 0.04794987663626671, 0.017295844852924347, -0.0081975432112813, 0.08634614199399948, -0.01581401564180851, -0.07589679956436157, -0.04524235427379608, -0.00802808441221714, 0.07430396229028702, -0.07168926298618317, 0.058020155876874924, -0.02200854942202568, -0.05122657120227814, -0.08915504068136215, 0.032760679721832275, 0.013214674778282642, 0.015140550211071968, 0.07630842179059982, -0.050878722220659256, -0.05976682901382446, 0.014659801498055458, -0.06601345539093018, -0.043648794293403625, 0.015193525701761246, 0.05700236186385155, 0.0065325358882546425, 0.022990962490439415, 0.14675132930278778, -0.03934512659907341, 0.03516692668199539, 0.03172389790415764, -0.020536387339234352, 0.08026141673326492, -0.012429795227944851, -0.1645982414484024, -0.0363706573843956, 3.926799490349316e-33, 0.08090633898973465, 0.0031812924426048994, 0.042937103658914566, 0.09973474591970444, 0.02006128430366516, 0.015989312902092934, -0.015069118700921535, -0.041322432458400726, -0.10587312281131744, -0.03779757767915726, -0.027782833203673363, 0.05115395411849022, -0.07414273172616959, 0.09782259166240692, -0.027872052043676376, -0.09455770254135132, -0.04264064505696297, 0.004220965784043074, 0.03528624773025513, 0.027089398354291916, 0.02846834436058998, -0.029279476031661034, -0.018092650920152664, 0.03132234513759613, 0.006643469911068678, 0.02852274477481842, 0.08505073189735413, -0.02461293339729309, 0.0628131702542305, 0.016956429928541183, 0.008273272775113583, 0.015743179246783257, -0.09783487766981125, -0.03967048227787018, 0.04285091906785965, 0.02048029750585556, -0.021309299394488335, -0.04249655455350876, -0.028433961793780327, 0.018115108832716942, 0.03086387738585472, -0.024832770228385925, 0.012016876600682735, -0.02219584956765175, -0.09309078752994537, 0.07390744984149933, 0.09053924679756165, -0.001999862026423216, 0.07986230403184891, 0.012690549716353416, -0.03431772440671921, -0.029907699674367905, 0.022845378145575523, -0.06523532420396805, 0.0047441828064620495, -0.0004029259434901178, -0.07161135226488113, 0.009197837673127651, 0.04485984146595001, -0.010761365294456482, -0.005122776608914137, 0.059814441949129105, -0.025669855996966362, 0.028783077374100685, -0.034217480570077896, 0.04541243985295296, -0.09317386895418167, -0.07949882745742798, 0.1747816652059555, -0.026308150961995125, -0.06452948600053787, 0.05872098356485367, -0.048406898975372314, -0.08092977851629257, 0.028760984539985657, 0.0005036694929003716, -0.08685211092233658, -0.03394308313727379, -0.02736761048436165, 0.01695863902568817, -0.05184100940823555, 0.005578378681093454, -0.07677287608385086, -0.019745860248804092, 0.011527689173817635, 0.01687205769121647, 0.027963116765022278, -0.024839719757437706, -0.03162161260843277, 0.11539134383201599, 0.03839429095387459, 0.010939483530819416, -0.03551255911588669, 0.03260042518377304, -0.030338270589709282, -6.031317148669197e-33, -0.0003582293284125626, 0.03666055575013161, -0.05039670318365097, 0.03747786954045296, 0.015352685004472733, 0.030880503356456757, -0.028366291895508766, -0.022297149524092674, 0.005989579483866692, 0.06506142020225525, -0.01568758860230446, 0.028481831774115562, -0.002781695919111371, -0.05518379062414169, -0.025943515822291374, -0.003588486695662141, 0.004171445965766907, 0.008682720363140106, -0.02794724330306053, 0.003932381514459848, -0.0641779825091362, 0.17620909214019775, -0.1220436617732048, -0.026403676718473434, 0.05618446692824364, 0.06546058505773544, -0.018309999257326126, 0.09673403948545456, 0.03813832625746727, -0.003797170938923955, 0.02918029949069023, -0.03832622244954109, -0.14408186078071594, -0.005216298159211874, -0.04149208962917328, 0.03422865644097328, 0.044720835983753204, 0.027973519638180733, 0.03623940423130989, 0.03500622883439064, 0.038066476583480835, -0.06231294944882393, -0.054145753383636475, 0.011223231442272663, -0.06342725455760956, -0.037300094962120056, 0.026528427377343178, -0.004617383237928152, 0.02006000466644764, 0.03998157009482384, 0.06712687760591507, -0.006289891432970762, 0.0025183334946632385, -0.11102431267499924, 0.06261022388935089, -0.02750096470117569, 0.0756181925535202, -0.005083554890006781, -0.05252036824822426, -0.02275855466723442, -0.039036884903907776, -0.025590337812900543, 0.01541387289762497, 0.010989797301590443, -0.0408804714679718, -0.15298829972743988, 0.010261942632496357, -0.024275057017803192, -0.000698257761541754, -0.0653962716460228, -0.0061691696755588055, 0.06497576087713242, 0.08422692120075226, -0.08309688419103622, 0.0895434021949768, -0.022322002798318863, 0.01692057214677334, 0.04237353801727295, -0.018304018303751945, 0.003481893567368388, -0.008273528888821602, 0.024050716310739517, -0.0009855289245024323, -0.019587548449635506, 0.04580257833003998, 0.05401727929711342, 0.038077402859926224, 0.1106698215007782, 0.025145580992102623, -0.03476203233003616, -0.05575470253825188, 0.0023012845776975155, 0.005952971056103706, 0.03332974761724472, -0.026226632297039032, -7.064244300636346e-08, -0.06706251949071884, -0.041408721357584, -0.047963861376047134, 0.00016477065219078213, -0.04550161585211754, -0.005952268838882446, -0.033906515687704086, 0.039859794080257416, -0.06822742521762848, 0.01112160924822092, -0.024574005976319313, -0.032595034688711166, -0.06966642290353775, 0.048054780811071396, 0.009309818968176842, -0.05926481634378433, 0.0842895582318306, 0.004488357342779636, -0.04418843239545822, -0.058746349066495895, 0.03218444064259529, -0.05909756198525429, -0.07487225532531738, 0.004050291609019041, -0.061441145837306976, -0.006062027532607317, 0.03033946268260479, -0.026030022650957108, -0.054903436452150345, 0.0030478104017674923, 0.04389294609427452, 0.016120461747050285, -0.05677353963255882, -0.036185748875141144, -0.025595664978027344, -0.04487882927060127, 0.030644318088889122, -0.028214752674102783, 0.07559800893068314, -0.002726492006331682, -0.007589115295559168, 0.015475152991712093, 0.0692039206624031, 0.04273696616292, 0.059103745967149734, 0.01193905808031559, 0.03221769258379936, -0.09205803275108337, -0.017656877636909485, 0.0464494563639164, -0.02102392539381981, -0.02051001973450184, -0.030864648520946503, 0.04351453110575676, 0.01942843571305275, 0.0007089717546477914, -0.015072798356413841, 0.04886956140398979, 0.005923547316342592, 0.02283456362783909, 0.02120289020240307, 0.051891595125198364, -0.08335622400045395, 0.05708334222435951]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-17</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>InternPe * * in the exciting and… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ 🌟 Excited to Showcase Our Working Prototype ! 🌟 Thrilled to present the prototype of SmartPOS , a revolutionary Mobile POS Billing System App that… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/mohanakumar-k-7a0b712a1_smartpos-innovation-retailtech-activity-7285233321847013376-xTad &gt; ) # # # 🌟 Excited to Showcase Our Working Prototype ! 🌟 Thrilled to present the prototype of SmartPOS , a revolutionary Mobile POS Billing System App that… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ 🎓 𝙲𝚎𝚛𝚝𝚒𝚏𝚒𝚌𝚊𝚝𝚎 𝚘𝚏 𝙲𝚘𝚖𝚙𝚕𝚎𝚝𝚒𝚘𝚗 – 𝚂𝚒𝚐𝚗𝚊𝚕 𝙿𝚛𝚘𝚌𝚎𝚜𝚜𝚒𝚗𝚐 𝙾𝚗𝚛𝚊𝚖𝚙 🎓 Excited to share that I ’ ve successfully… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/madhan-raj-77621528a_signalprocessing-matlab-learningjourney-activity-7284246772493774848-YU88 &gt; ) # # # 🎓 𝙲𝚎𝚛𝚝𝚒𝚏𝚒𝚌𝚊𝚝𝚎 𝚘𝚏 𝙲𝚘𝚖𝚙𝚕𝚎𝚝𝚒𝚘𝚗 – 𝚂𝚒𝚐𝚗𝚊𝚕 𝙿𝚛𝚘𝚌𝚎𝚜𝚜𝚒𝚗𝚐 𝙾𝚗𝚛𝚊𝚖𝚙 🎓 Excited to share that I ’ ve successfully… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ ✨ Stepping Into a New Chapter ✨ I am glad to announce that I have kickstarted my professional journey in Zoho as a Project Trainee . I am eager to… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/venkateshk1220_careerjourney-zoho-newbeginnings-activity-7284210443730984960-l7NV &gt; ) # # # ✨ Stepping Into a New Chapter ✨ I am glad to announce that I have kickstarted my professional journey in Zoho as a Project Trainee . I am eager to… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ Thrilled to share my Task 1 with Main Flow Services and</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[-0.15371271967887878, 0.06647958606481552, 0.044970300048589706, -0.10520487278699875, 0.020674241706728935, -0.022625043988227844, 0.08614277094602585, 0.05571315065026283, -0.02803511917591095, 0.016176622360944748, 0.0612918883562088, 0.02910076454281807, 0.07116716355085373, -0.0244696456938982, -0.0024097177665680647, 0.004816360305994749, 0.05253439396619797, -0.08537232130765915, 0.06238793209195137, 0.06197700649499893, -0.008344773203134537, -0.08261819183826447, 0.034292034804821014, -0.010564019903540611, -0.019042834639549255, 0.03147895634174347, 0.009514386765658855, -0.0010331692174077034, -0.0489351712167263, -0.06389705836772919, 0.029930228367447853, 0.09181772172451019, 0.022727424278855324, -0.010550548322498798, -0.025990450754761696, -0.03459656238555908, 0.01642601564526558, 0.009091629646718502, 0.008950368501245975, -0.08821000903844833, 0.018297599628567696, -0.1583746075630188, -0.0749191865324974, 0.02231588028371334, 0.06410039216279984, 0.02500240132212639, -0.037133991718292236, -0.07225042581558228, -0.06311775743961334, 0.032183144241571426, -0.06595052033662796, -0.1256532073020935, 0.07386939972639084, -0.027120385318994522, -0.07632239907979965, -0.014132402837276459, 0.05017256736755371, -0.04160090163350105, 0.04211889207363129, -0.015668537467718124, 0.018456948921084404, 0.04926491156220436, 0.0497862882912159, -0.0012576892040669918, 0.006576686631888151, -0.043420542031526566, -0.039131950587034225, 0.014924107119441032, -0.00829649344086647, -0.023106200620532036, 0.034170541912317276, 0.028206467628479004, 0.007380501367151737, -0.04249085113406181, -0.026832206174731255, 0.011814524419605732, -0.02546108141541481, -0.032174136489629745, -0.007366901729255915, -0.08792640268802643, 0.03447854518890381, -0.033571746200323105, -0.06502178311347961, 0.07511711865663528, -0.05454343184828758, -0.02779957465827465, -0.021295439451932907, -0.040411267429590225, 0.029449300840497017, -0.044075530022382736, 0.036032043397426605, 0.12021596729755402, 0.008134309202432632, -0.006003048736602068, -0.01106185745447874, -0.04491950944066048, -0.11318007111549377, -0.07664519548416138, 0.02530248463153839, 0.0588352270424366, 0.019899968057870865, 0.07817988842725754, 0.051511332392692566, -0.04368779808282852, -0.04060649499297142, -0.029593754559755325, -0.03207991644740105, -0.020590804517269135, 0.0899212583899498, 0.00890368316322565, -0.07746296375989914, -0.051134299486875534, 0.01547185704112053, -0.05672602728009224, -0.028926117345690727, 0.04065919294953346, -0.04983770474791527, 0.09016573429107666, 0.14764273166656494, -0.025115905329585075, 0.08027539402246475, 0.07829304784536362, -0.09249703586101532, -0.045236505568027496, -0.016901321709156036, -0.011620193719863892, -0.00964999571442604, 7.097761255907685e-33, -0.012632272206246853, 0.05646699666976929, 0.035373784601688385, 0.05513954907655716, 0.05625288560986519, -0.05469848960638046, 0.002912224270403385, -0.02100164070725441, -0.11989151686429977, -0.012152932584285736, -0.052628085017204285, 0.06293102353811264, 4.9678681534715e-05, 0.09215841442346573, -0.04577016457915306, -0.10876968502998352, -0.03851792961359024, 0.022468212991952896, 0.03471706062555313, 0.02274087257683277, -0.012922423891723156, -0.055353015661239624, 0.003659650916233659, -0.022923925891518593, 0.08281498402357101, 0.12084846198558807, 0.07552114129066467, 0.014421406202018261, -0.0016133718891069293, 0.05254692584276199, -0.018855858594179153, 0.026044249534606934, 0.007861258462071419, 0.03260324150323868, -0.032927870750427246, -0.07813718914985657, -0.028242910280823708, -0.16392843425273895, 0.01796121336519718, -0.04117614030838013, -0.029199227690696716, -0.020592471584677696, -0.011353726498782635, 0.0010554296895861626, -0.07833139598369598, 0.08057818561792374, 0.05176414176821709, 0.06368289142847061, 0.11106134951114655, 0.016438402235507965, -0.08169830590486526, 0.009434799663722515, -0.062316786497831345, 0.02600771002471447, -0.022652920335531235, -0.04744251072406769, -0.04456561431288719, -0.0053239488042891026, 0.08589700609445572, -0.06382289528846741, 0.000563083856832236, 0.05902382731437683, -0.07226710021495819, -0.07547248154878616, -0.09235938638448715, -0.019602591171860695, 0.04761034995317459, -0.010316591709852219, 0.028638381510972977, 0.04683205485343933, -9.89233740256168e-05, 0.028748605400323868, 0.03743487596511841, -0.034296490252017975, -0.04795117303729057, 0.026879657059907913, -0.04105030372738838, 0.04935520142316818, -0.06503074616193771, -0.022206835448741913, -0.03042878583073616, -0.049435805529356, -0.039090752601623535, -0.023440688848495483, 0.021706579253077507, 0.006858183536678553, 0.01370995957404375, -0.09148994833230972, -0.05341266095638275, 0.09054522216320038, 0.038221221417188644, 0.016083048656582832, -0.08682563900947571, 0.042225856333971024, -0.050123315304517746, -9.202162834160423e-33, -0.003720872802659869, 0.05890612304210663, -0.03472227230668068, -0.025183891877532005, 0.05725174397230148, -0.02580355294048786, -0.009800364263355732, 0.09048398584127426, 0.018476657569408417, 0.03140948712825775, -0.005888098850846291, 0.02319425530731678, -0.05956871807575226, -0.05066521838307381, 0.02267604134976864, 0.07004309445619583, 0.007754311431199312, -0.04213623329997063, -0.002457189606502652, -0.002339897910133004, 0.06143008917570114, 0.10705152899026871, -0.05929175391793251, 0.0752074345946312, 0.03608063980937004, 0.0013979924842715263, 0.0019193057669326663, 0.05696745216846466, 0.0032441189978271723, 0.013811775483191013, -0.049312446266412735, -0.08376777172088623, -0.06416117399930954, 0.038496073335409164, 0.03568091616034508, -0.03325421363115311, 0.0311603844165802, 0.009187476709485054, 0.05473213270306587, -0.00936044566333294, 0.04854460060596466, -0.026877066120505333, -0.0028729175683110952, -0.034058891236782074, -0.026947766542434692, -0.04875317960977554, -0.012240822426974773, -0.019636621698737144, -0.004935748875141144, -0.020518295466899872, -0.0025423651095479727, 0.05209551751613617, 0.008822078816592693, -0.04332777485251427, -0.02665458433330059, 0.03400769829750061, 0.06288710981607437, -0.0063325995579361916, -0.023251762613654137, -0.0519401840865612, 0.03171652927994728, 0.02919023483991623, 0.06565281748771667, 0.028323078528046608, -0.009717745706439018, -0.04849988594651222, 0.11758636683225632, -0.026981236413121223, -0.005352291278541088, -0.06182067468762398, -0.0167922992259264, 0.009654639288783073, -0.03790036588907242, -0.034009359776973724, -0.006388247478753328, 0.02188398875296116, 0.02487907186150551, 0.008023304864764214, 0.011953181587159634, -0.08253485709428787, 0.02427111752331257, 0.04944941774010658, 0.07758156955242157, -0.06157778948545456, 0.019362647086381912, 0.013434561900794506, -0.051707714796066284, 0.026496056467294693, -0.027201436460018158, 0.04494916647672653, -0.06269484013319016, 0.10360686480998993, -0.05679843947291374, 0.1261274218559265, -0.02106909453868866, -6.570991928356307e-08, -0.002456599846482277, -0.03880669176578522, -0.018463172018527985, -0.03491365164518356, -0.02423412911593914, -0.10239744931459427, -0.0005633686669170856, 0.02176392637193203, -0.017607884481549263, -0.043555162847042084, 0.047617074102163315, 0.004978006239980459, -0.0706760361790657, 0.08450032025575638, 0.05007021129131317, -0.035464782267808914, 0.029327046126127243, 0.08344505727291107, -0.06412477791309357, 0.014707974158227444, 0.03760211542248726, 0.0635080337524414, -0.029393739998340607, -0.03877061977982521, -0.02054356411099434, 0.04160255193710327, -0.0488307848572731, 0.002539360197260976, 0.035845037549734116, -0.03167164325714111, -0.0042640576139092445, 0.045834753662347794, 0.011236858554184437, -0.08819521963596344, 0.01170164905488491, 0.04127950221300125, -0.02161591313779354, -0.0396306999027729, 0.022942906245589256, 0.013972743414342403, 0.02745954878628254, -0.0580405630171299, -0.009685636498034, -0.008198149502277374, 0.02097357250750065, -0.03679922968149185, -0.02581385336816311, -0.11942055821418762, 0.01488909125328064, 0.016192983835935593, -0.04079775512218475, -0.024307984858751297, -0.0032649885397404432, 0.01155251543968916, -0.021673019975423813, -0.030972011387348175, -0.024861304089426994, -0.014154852367937565, 0.05585566535592079, 0.07822851091623306, 0.12849992513656616, -0.002599885454401374, 0.019659176468849182, 0.10053011029958725]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-18</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Technologies Pvt . Ltd. as part of my Internship in Data Science with Python ! 🚀 Where I : 🔹… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/ajith-raghavendra-106247290_datascience-python-mainflow-activity-7284166811279859712 -- uI- &gt; ) # # # Thrilled to share my Task 1 with Main Flow Services and Technologies Pvt . Ltd. as part of my Internship in Data Science with Python ! 🚀 Where I : 🔹… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ 📈Thrilled to Announce : Internship Accomplished at InternPe ! 📈 🌟I ’ m excited to share that I ’ ve successfully completed my internship at InternPe… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/ramalakshmi-muthuraman-197b732a1_internshipexperience-dsa-c-activity-7284141737126645760-cFLX &gt; ) # # # 📈Thrilled to Announce : Internship Accomplished at InternPe ! 📈 🌟I ’ m excited to share that I ’ ve successfully completed my internship at InternPe… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ Proud to share the 12 certifications I earned from MongoDB University ! 🎉 These certifications have been an incredible journey of learning and have… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/mathan-kumar-055768246_mongodb-nosql-certifications-activity-7284076583336734722-Am1W &gt; ) # # # Proud to share the 12 certifications I earned from MongoDB University ! 🎉 These certifications have been an incredible journey of learning and have… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ 🎉 Excited to Share : Successful Completion of My Internship at InternPe ! 🎉 ✨I 'm thrilled to announce that I 've completed my internship at InternPe… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt;</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[-0.1260661482810974, 0.04395148530602455, 0.10157295316457748, -0.041199877858161926, 0.021006297320127487, -0.02995939925312996, 0.10717180371284485, -0.0425611212849617, -0.022387802600860596, -0.027424223721027374, 0.0036384952254593372, -0.08477850258350372, 0.046872906386852264, 0.024000154808163643, -0.021128373220562935, 0.07384172081947327, -0.019935840740799904, -0.06326604634523392, -0.10300438851118088, -0.07387380301952362, 0.011789575219154358, -0.02680625021457672, 0.028161142021417618, 0.006061229854822159, 0.04028641805052757, -0.013576075434684753, 0.017778219655156136, -0.016782846301794052, -0.036368228495121, -0.007843058556318283, 0.019219914451241493, 0.10924795269966125, -0.09471865743398666, 0.028474630787968636, 0.018708473071455956, 0.0964406207203865, -0.10148094594478607, -0.06986933946609497, 0.08387517184019089, -0.036775607615709305, 0.01790199801325798, -0.0797974169254303, 0.008809533901512623, -0.029931027442216873, -0.037077803164720535, -0.013162086717784405, 0.010407083667814732, -0.1051240786910057, -0.020215734839439392, -0.0005544995656237006, -0.10612740367650986, -0.051489029079675674, -0.010182138532400131, -0.0188089981675148, 0.002794223837554455, -0.03618149086833, -0.000100225857750047, -0.0938088595867157, -0.013738030567765236, -0.12696662545204163, -0.012629683129489422, 0.017764858901500702, 0.061760809272527695, 0.017441127449274063, 0.012147219851613045, -0.10730431973934174, -0.046353887766599655, 0.07530800998210907, 0.012301106005907059, 0.017937246710062027, 0.014856131747364998, 0.016028722748160362, -0.09713827818632126, 0.02768988534808159, -0.03344368189573288, -0.039254605770111084, 0.052053071558475494, 0.025774432346224785, -0.026260841637849808, -0.07705029845237732, -0.01143437810242176, -0.022002525627613068, 0.006904877722263336, 0.04805894196033478, -0.07634589076042175, -0.028827765956521034, -0.02046293020248413, -0.009090469218790531, 0.030874110758304596, -0.02823636494576931, 0.0043700519017875195, 0.06785938888788223, -0.02085510827600956, 0.010153701528906822, 0.04921148717403412, 0.007964525371789932, -0.08627795428037643, -0.02969377487897873, -0.034535519778728485, 0.11808651685714722, -0.006349179428070784, 0.0258707907050848, -0.03634518384933472, 0.01833365298807621, -0.06227289140224457, 0.021370064467191696, 0.016084780916571617, -0.0051064444705843925, 0.038666073232889175, -0.008896479383111, -0.04375571385025978, -0.025546010583639145, 0.006246302276849747, -0.029488837346434593, -0.0361727811396122, 0.09526841342449188, -0.027084166184067726, 0.07037290185689926, 0.08659117668867111, -0.015515090897679329, 0.0447603277862072, 0.08656730502843857, -0.08137103170156479, 0.0015440060524269938, -0.116659015417099, -0.0677499994635582, -0.00039169564843177795, 5.9359713325060626e-33, 0.047939687967300415, 0.03375418111681938, 0.04412253201007843, 0.039660874754190445, 0.05321435257792473, 0.0039090849459171295, 0.0011360084172338247, 0.009603222832083702, -0.09634776413440704, -0.05411680415272713, -0.08771812915802002, 0.10008309036493301, -0.013850300572812557, -0.009249459020793438, -0.07389939576387405, 0.0038159822579473257, 0.018011821433901787, 0.03393383324146271, -0.0036602711770683527, 0.043803174048662186, 0.09592088311910629, -0.01023124624043703, -0.01420357171446085, 0.009706040844321251, 0.004622984677553177, -0.03113272786140442, 0.0741921067237854, -0.024018917232751846, 0.0256571676582098, 0.03982510417699814, -0.0029113092459738255, -0.01602352038025856, -0.0377492681145668, -0.03093651495873928, 0.016891876235604286, -0.019154680892825127, -0.06211310625076294, -0.08986518532037735, 0.051679663360118866, -0.02455352060496807, -0.03973635658621788, 0.011938528157770634, -0.03819917142391205, -0.0869332104921341, -0.11995689570903778, 0.0343969464302063, 0.014679654501378536, 0.03896215185523033, 0.07913633435964584, -0.009430435486137867, 0.007165777031332254, -0.024176260456442833, 0.018824094906449318, -0.024741867557168007, -0.030047757551074028, 0.028645342215895653, 0.007923541590571404, -0.01120541337877512, 0.01826166734099388, -0.02076810412108898, 0.04080292955040932, 0.04918560013175011, -0.011936744675040245, -0.03745364770293236, -0.06556450575590134, -0.007205288857221603, 0.008485250174999237, 0.07996008545160294, 0.1587979793548584, -0.07273822277784348, -0.09528356045484543, 0.05601656064391136, -0.01917942427098751, -0.043707676231861115, 0.06700446456670761, -0.0035103238187730312, -0.02846757508814335, -0.04981578141450882, -0.0008350118878297508, 0.04086260125041008, 0.00401258235797286, -0.049880146980285645, -0.04836398363113403, -0.049620937556028366, 0.0008963993168435991, 0.012915156781673431, 0.048642054200172424, -0.07965368777513504, -0.01665249466896057, 0.10072468221187592, -0.04552610218524933, 0.012461671605706215, -0.011388806626200676, 0.07692693173885345, -0.022295907139778137, -9.124139396624593e-33, 0.0413515605032444, 0.05279652401804924, 0.007549833040684462, -0.08011975884437561, 0.08389837294816971, -0.023028366267681122, 0.012048568576574326, -0.010080335661768913, 0.05369164049625397, 0.050749439746141434, 0.013038651086390018, 0.021794913336634636, -0.03663793206214905, -0.09064941108226776, 0.012624343857169151, 0.018639588728547096, 0.026819266378879547, 0.06511121243238449, -0.03631121665239334, 2.160493386327289e-05, -0.06305815279483795, 0.16921795904636383, -0.13118188083171844, 0.014186384156346321, 0.00436456548050046, 0.018192673102021217, 0.04476679861545563, 0.059981007128953934, -0.000884239561855793, -0.0024190733674913645, -0.03544608876109123, -0.02160080522298813, -0.13414272665977478, 0.04542890563607216, 0.013996722176671028, -0.016308628022670746, 0.04974480718374252, -0.029918236657977104, 0.0021965999621897936, 0.05573108792304993, 0.09249459207057953, -0.0075171934440732, -0.03864975646138191, 0.048231784254312515, -0.040039725601673126, -0.05375906452536583, -0.005103446077555418, -0.03640253096818924, -0.022293293848633766, -0.012875834479928017, -0.01141833234578371, 0.019255148246884346, 0.032788798213005066, -0.030962441116571426, 0.04411660134792328, 0.030740078538656235, 0.10141076147556305, 0.01592135801911354, -0.10815766453742981, -0.038257453590631485, -0.021190114319324493, 0.0420185811817646, 0.07685048878192902, 0.016256308183073997, -0.010032634250819683, -0.11229875683784485, 0.033332906663417816, -0.027447380125522614, -0.02938280813395977, -0.06692168116569519, 0.05143611505627632, 0.024400360882282257, -0.04463406652212143, -0.025265449658036232, 0.08975856006145477, 0.0014901955146342516, 0.028733165934681892, -0.03269311040639877, 0.01886557787656784, 0.0364743210375309, -0.04378010705113411, 0.042764924466609955, 0.06432680040597916, -0.029373377561569214, 0.043825678527355194, 0.0044058081693947315, 0.0419548824429512, 0.038967765867710114, -0.006840348709374666, -0.05116500332951546, -0.0649450346827507, -0.017427708953619003, 0.006883848458528519, 0.0682101771235466, 0.02858072705566883, -6.646178718483498e-08, -0.0557992123067379, 0.008456396870315075, -0.043006330728530884, -0.012370897457003593, -0.036846354603767395, -0.07333578914403915, -0.08165391534566879, 0.051885321736335754, 0.002139256102964282, -0.027869338169693947, 0.03782887011766434, -0.037040114402770996, -0.08824127912521362, -0.02176932990550995, 0.011651446111500263, -0.024193262681365013, -0.02240588888525963, 0.04008417949080467, -0.04622282087802887, -0.059195518493652344, 0.0591592863202095, 0.015165675431489944, -0.025600653141736984, 0.01897919923067093, -0.0660853162407875, 0.0041390410624444485, 0.03464358672499657, 0.023452429100871086, -0.020673442631959915, 0.02396191470324993, -0.031043557450175285, -0.06530287116765976, 0.00797505397349596, -0.021882833912968636, -0.02566704899072647, -0.028980277478694916, 0.05583125352859497, -0.041571006178855896, 0.07961451262235641, 0.0795382633805275, 0.04136916622519493, -0.019317643716931343, 0.08035741746425629, 0.02375851944088936, 0.09590034931898117, 0.047455817461013794, 0.006392720155417919, -0.08989237248897552, 0.001034083659760654, -0.0018562370678409934, -0.024140194058418274, -0.05129636079072952, -0.017541594803333282, 0.08304435014724731, 0.0033237726893275976, 0.03884949907660484, -0.08851294219493866, 0.05861760303378105, -0.006782603450119495, 0.05238382890820503, 0.11843672394752502, 0.046596214175224304, -0.05274931713938713, 0.0688960999250412]</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-19</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https : /www.linkedin.com/posts/ragul-m-ab2b772a1_internpe-internship-internshipcompletion-activity-7284088768691687424-P_Ce &gt; ) # # # 🎉 Excited to Share : Successful Completion of My Internship at InternPe ! 🎉 ✨I 'm thrilled to announce that I 've completed my internship at InternPe… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ ✨ Excited to Share ! ✨ Thrilled to announce that I , Mohana Kumar K , along with my amazing team JoiningIn from Meenakshi Sundararajan Engineering… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/mohanakumar-k-7a0b712a1_startuppitch-innovation-entrepreneurship-activity-7284086049264254977-Zphv &gt; ) # # # ✨ Excited to Share ! ✨ Thrilled to announce that I , Mohana Kumar K , along with my amazing team JoiningIn from Meenakshi Sundararajan Engineering… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ Thrilled to share the working model of INVENGO , the mobile app we proudly presented at the Startup Pitch competition ! 🚀 INVENGO , developed using… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/mathan-kumar-055768246_startuppitch-mobileapp-invengo-activity-7283858828276678656 -- ebH &gt; ) # # # Thrilled to share the working model of INVENGO , the mobile app we proudly presented at the Startup Pitch competition ! 🚀 INVENGO , developed using… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ Thrilled to share our journey as a team—myself , MOHANAKUMAR K , Ajith Raghavendra , and HARI KRISHNAN.P —where we participated in the `` Startup… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/mathan-kumar-055768246_innovation-startuppitch-ai-activity-7283853660436971520-6FwZ &gt; ) # # # Thrilled to share our journey as a team—myself , MOHANAKUMAR K , Ajith Raghavendra , and HARI KRISHNAN.P —where we</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>[-0.11912282556295395, -0.005699331872165203, 0.06971149891614914, -0.06314191967248917, 0.027891552075743675, 0.029507653787732124, 0.08755724877119064, 0.004721295554190874, -0.045433271676301956, 0.009026795625686646, 0.041408002376556396, -0.06214355304837227, 0.05035598576068878, 0.011805971153080463, -0.04620197042822838, 0.056606896221637726, 0.022041823714971542, -0.03493430092930794, -0.06265565752983093, -0.04182961955666542, -0.022250603884458542, -0.04918638616800308, 0.028430134057998657, -0.02626788429915905, 0.03208786994218826, -0.014097393490374088, 0.016142187640070915, -0.013812684454023838, -0.05282238498330116, -0.0640210285782814, -0.028299011290073395, 0.08539247512817383, -0.06008660048246384, -0.009024483151733875, 0.020228976383805275, 0.04043615981936455, -0.08692656457424164, -0.04891958832740784, 0.09072410315275192, -0.06046328321099281, 0.048488326370716095, -0.04263819754123688, 0.029256142675876617, -0.036905594170093536, -0.02610909566283226, 0.01746072806417942, -0.034380342811346054, -0.11184490472078323, -0.015256848186254501, -0.011234680190682411, -0.07861584424972534, -0.027963852509856224, -0.0032531621400266886, 0.001737457700073719, 0.018527444452047348, -0.02587699331343174, -0.0555502288043499, -0.047124460339546204, 0.014179098419845104, -0.002260581124573946, 0.0661340281367302, 0.03170839697122574, 0.04695166274905205, -0.005655013024806976, 0.0320320799946785, -0.1283886730670929, -0.01957234926521778, 0.05424000695347786, -0.0037647499702870846, -0.006560804788023233, 0.029899051412940025, -0.004638785496354103, -0.07201118022203445, -0.03068608231842518, -0.005326196551322937, 0.03346005082130432, 0.03739926591515541, 0.04002472385764122, -0.0006355742807500064, -0.0988093912601471, -0.0379050113260746, -0.053227342665195465, 0.035279132425785065, 0.02815381996333599, -0.04209611192345619, -0.04196273162961006, -0.006801479961723089, -0.06090255826711655, 0.014048757962882519, 0.022546108812093735, 0.08567667007446289, 0.11579561978578568, -0.04869389533996582, -0.024443374946713448, 0.017060358077287674, 0.014937525615096092, -0.03360622003674507, -0.004854891449213028, -0.018262315541505814, 0.09131160378456116, -0.05202989652752876, -0.016001494601368904, -0.037160471081733704, 0.020381322130560875, -0.11739110201597214, -0.014699690043926239, 0.04975782334804535, -0.02412007935345173, 0.07133905589580536, -0.027665015310049057, -0.05067932605743408, -0.014926126226782799, -0.016925523057579994, -0.02065139263868332, -0.029903855174779892, 0.03933284804224968, 0.0021428316831588745, 0.07507013529539108, 0.12775863707065582, -0.03367339447140694, 0.024291424080729485, 0.06159234046936035, -0.007353333756327629, 0.013496268540620804, -0.11744170635938644, -0.03778991103172302, -0.03118160180747509, 5.0101185536778274e-33, 0.05581400543451309, 0.04720079153776169, 0.0503796823322773, -0.01999620720744133, -0.0029735646676272154, -0.051747068762779236, -0.07708761096000671, -0.012411960400640965, -0.06680978089570999, -0.09058557450771332, -0.12892912328243256, 0.04092483967542648, 0.03273240476846695, -0.007581574842333794, -0.09615670889616013, -0.02717648260295391, 0.042992644011974335, -0.018599851056933403, -0.03426697850227356, 0.05635221675038338, 0.07683424651622772, -0.006091938819736242, -0.005159538239240646, 0.030852876603603363, 0.013501616194844246, 0.010011992417275906, 0.10985012352466583, -0.03275526314973831, -0.009758392348885536, 0.05421653762459755, -0.01973951794207096, 0.04469290003180504, -0.06329067051410675, -0.02179107628762722, 0.011764414608478546, -0.013957765884697437, -0.05869002267718315, -0.08837464451789856, -0.014131186529994011, -0.04642685875296593, -0.0027368683367967606, 0.0018510909285396338, -0.047872647643089294, -0.050360966473817825, -0.09515559673309326, 0.05968213453888893, 0.023014623671770096, 0.05838526412844658, 0.1451522707939148, -0.03830159455537796, -0.061822954565286636, 0.017276551574468613, 0.002175357425585389, -0.05046159774065018, 0.009696519933640957, 0.04328205808997154, 0.020867330953478813, 0.025418125092983246, 0.06378276646137238, 0.01971893571317196, -0.004514486063271761, 0.007686267606914043, -0.08644484728574753, -0.025021584704518318, -0.08175636827945709, -0.03606562316417694, 0.02745787240564823, 0.011394255794584751, 0.11320000141859055, -0.06302300095558167, -0.08700445294380188, 0.03208092227578163, 0.03880676254630089, 0.015903042629361153, 0.005001463927328587, 0.000746541132684797, -0.06221748888492584, -0.002931289840489626, -0.039534516632556915, 0.04335479810833931, -0.0016867341473698616, 0.021062729880213737, -0.03557176887989044, -0.12884123623371124, 0.011916184797883034, -0.02114269509911537, 0.019842488691210747, -0.11051522195339203, 0.032657723873853683, 0.10319351404905319, 0.02149379439651966, -0.0005482305423356593, 0.030304396525025368, 0.061215147376060486, -0.05156991630792618, -8.321133491638965e-33, 0.10917267203330994, 0.044145189225673676, 0.046961959451436996, -0.07124842703342438, 0.08311652392148972, 0.04320929944515228, 0.015178101137280464, 0.07323507219552994, 0.05719977617263794, 0.03663245588541031, 0.06974006444215775, 0.06118404120206833, -0.042882706969976425, -0.06773880124092102, -0.05267917737364769, 0.025455376133322716, 0.014871079474687576, 0.056816499680280685, -0.039995282888412476, -0.05780268833041191, 0.01593654416501522, 0.06804762780666351, -0.05213785544037819, 0.01516767404973507, -0.002199998591095209, 0.009456687606871128, 0.025727976113557816, 0.10409252345561981, -0.04548449441790581, 0.03434160351753235, -0.004422798287123442, -0.04973577335476875, -0.17018185555934906, 0.034052684903144836, 0.006173017900437117, 0.037453342229127884, 0.017483917996287346, -0.011255720630288124, 0.011070872657001019, 0.07116319239139557, 0.06193296238780022, -0.004606430418789387, 0.030914047732949257, 0.03249605372548103, -0.022448791190981865, -0.06739550083875656, -0.012295003980398178, -0.018997622653841972, -0.08425332605838776, -0.035103630274534225, 0.019322259351611137, 0.016838589683175087, -0.0021017584949731827, -0.061785414814949036, 0.06561549752950668, 0.010297395288944244, 0.09795495867729187, 0.037020184099674225, -0.02472580596804619, -0.019972380250692368, -0.016157032921910286, 0.023655015975236893, 0.0710207000374794, 0.0342073030769825, -0.037559591233730316, -0.06638320535421371, 0.0854891985654831, -0.022933434695005417, 0.016877632588148117, -0.04869415611028671, -0.005215630866587162, -0.07341024279594421, -0.05692701414227486, 0.04304848983883858, 0.03214285895228386, -0.022836798802018166, 0.02460220456123352, 0.014501897618174553, 0.011564929969608784, -0.03939656913280487, -0.010588351637125015, 0.031838707625865936, 0.017100699245929718, 0.0012057260610163212, 0.09419853240251541, 0.016662269830703735, 0.022325124591588974, 0.06574253737926483, 0.02386036515235901, -0.022300709038972855, 0.006616694387048483, 0.02019786834716797, 0.01132320798933506, 0.044310878962278366, -0.001177028869278729, -5.7351517313009026e-08, -0.0031184284016489983, -0.025080807507038116, -0.026594510301947594, -0.012088235467672348, 0.03709983453154564, -0.06038728728890419, -0.05706784874200821, 0.0754229947924614, -0.010159911587834358, -0.035696085542440414, 0.07781734317541122, -0.0016964019741863012, -0.08568893373012543, -0.01896008662879467, 0.0039147729985415936, -0.049895089119672775, -0.0471959225833416, 0.07966648787260056, -0.02103998325765133, -0.08840163797140121, -0.003694591810926795, 0.005021736957132816, 0.01088334433734417, -0.02365834079682827, -0.028420519083738327, -0.006067845970392227, -0.04808805510401726, 0.025923781096935272, -0.03600684925913811, 0.02545875497162342, -0.043550897389650345, 0.010313240811228752, 0.04852747172117233, -0.11673151701688766, -0.037807684391736984, 0.06600213795900345, 0.041339438408613205, -0.046323832124471664, 0.04400245472788811, 0.02684144675731659, 0.05062548443675041, -0.03780566528439522, 0.10577617585659027, 0.01828773133456707, 0.08168284595012665, 0.03769730031490326, 0.05099082365632057, -0.09847858548164368, 0.015146905556321144, -0.05781179293990135, -0.024416379630565643, -0.05770256742835045, 0.007840396836400032, 0.06478884071111679, -0.061458759009838104, 0.016074230894446373, -0.12399311363697052, 0.04194645583629608, 0.06622670590877533, 0.012821340933442116, 0.12818950414657593, -0.02182900160551071, -0.07703081518411636, 0.07234011590480804]</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-20</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>participated in the `` Startup… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) * [ 🎓 𝙀𝙭𝙘𝙞𝙩𝙚𝙙 𝙩𝙤 𝙎𝙩𝙖𝙧𝙩 𝙈𝙮 𝘾++ 𝙇𝙚𝙖𝙧𝙣𝙞𝙣𝙜 𝙅𝙤𝙪𝙧𝙣𝙚𝙮 ! 🎓 I ’ m delighted to share that I ’ ve been offered an opportunity to take… ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/posts/madhan-raj-77621528a_c-programming-learningjourney-activity-7283536037807538176-hjTE &gt; ) # # # 🎓 𝙀𝙭𝙘𝙞𝙩𝙚𝙙 𝙩𝙤 𝙎𝙩𝙖𝙧𝙩 𝙈𝙮 𝘾++ 𝙇𝙚𝙖𝙧𝙣𝙞𝙣𝙜 𝙅𝙤𝙪𝙧𝙣𝙚𝙮 ! 🎓 I ’ m delighted to share that I ’ ve been offered an opportunity to take… # # # # Liked by [ Lakshana Rajendran ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-a179a02a1 ? trk=public_profile_actor-name &gt; ) # # View Lakshana ’ s full profile * See who you know in common * Get introduced * Contact Lakshana directly [ Join to view full profile ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; trk=public_profile_bottom-cta-banner &gt; ) # # Explore collaborative articles We ’ re unlocking community knowledge in a new way . Experts add insights directly into each article , started with the help of AI . [ Explore More ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/pulse/topics/home/ &gt; ) # # Others named * * Lakshana Rajendran * * * # # # [ Lakshana Rajendran Technical Marketing Engineer San Ramon , CA ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/in/lakshana-rajendran-78307b20 ? trk=public_profile_samename-profile &gt; ) * # # # [ Lakshana Rajendran Associate at Cognizant Chennai ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-624027231 ? trk=public_profile_samename-profile &gt; ) * # # # [ Lakshana Rajendran Just started my CS journey | Ready to innovate &amp; succeed Coimbatore ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /in.linkedin.com/in/lakshana-rajendran-70a401309 ? trk=public_profile_samename-profile &gt; ) * #</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[-0.10155010968446732, 0.026659995317459106, 0.09373919665813446, -0.018192928284406662, 0.04871537163853645, 0.06717945635318756, 0.08904342353343964, -0.041122354567050934, -0.020662227645516396, 0.0016366480849683285, 0.027463387697935104, -0.045824628323316574, 0.02936698868870735, 0.04704582691192627, -0.00777342077344656, 0.038274601101875305, -0.003994993399828672, -0.04093809425830841, -0.10285432636737823, 0.06160060316324234, -0.04758569225668907, -0.067756287753582, 0.02332288771867752, -0.021999184042215347, 0.05426792427897453, -0.09564247727394104, 0.03949391469359398, -0.009165629744529724, -0.03853321447968483, -0.00016868117381818593, 0.015213536098599434, 0.08869022876024246, -0.05389808490872383, 0.008060073480010033, -0.03719595447182655, 0.039457060396671295, -0.14170382916927338, -0.083468958735466, 0.06057943031191826, -0.030253814533352852, -0.019609464332461357, -0.06830974668264389, 0.02703283540904522, 0.012407146394252777, -0.051442086696624756, 0.03639949858188629, 0.001130406861193478, -0.11616702377796173, -0.03331335633993149, -0.017053265124559402, -0.04492725804448128, -0.04110128432512283, 0.020148396492004395, -0.04224967211484909, -0.011035035364329815, 0.01285550743341446, -0.07900862395763397, -0.04613756760954857, 0.011418335139751434, -0.07951965183019638, -0.041132714599370956, 0.008497176691889763, 0.02588369883596897, -0.021891023963689804, 0.02800923027098179, -0.06818071752786636, -0.05188045650720596, 0.04162052273750305, 0.00343607971444726, 0.04282381758093834, 0.035742808133363724, 0.018051788210868835, -0.06257466971874237, -0.0017225813353434205, -0.04425852745771408, -0.0044191558845341206, 0.01625550352036953, 0.027924761176109314, -0.057625461369752884, -0.07090528309345245, -0.006780149880796671, -0.02556328848004341, 0.018340900540351868, 0.027038712054491043, -0.10008601099252701, 0.02474808134138584, -0.020890582352876663, -0.028972992673516273, 0.04727909341454506, -0.04738793149590492, 0.07670126855373383, 0.1380075216293335, 0.0025883126072585583, -0.03574345260858536, 0.0846894234418869, 0.011929793283343315, -0.11226344853639603, -0.014707372523844242, -0.04669029638171196, 0.08404439687728882, 0.03281273692846298, 0.027408389374613762, -0.03242775797843933, -0.027483941987156868, -0.06596769392490387, 0.027292627841234207, -0.00939316488802433, 0.025934375822544098, 0.020000535994768143, -0.035476382821798325, -0.027808623388409615, 0.014974089339375496, 0.002939199563115835, 0.0039723943918943405, -0.014717071317136288, 0.07963987439870834, -0.02711021713912487, 0.024843869730830193, 0.1220235824584961, -0.05982581526041031, 0.06160445511341095, 0.07395988702774048, -0.0038344282656908035, -0.04048752039670944, -0.14426134526729584, -0.11810432374477386, 0.008984345942735672, 4.1844994434602395e-33, 0.0365975946187973, 0.04273524880409241, 0.06349272280931473, 0.0023545867297798395, 0.009129452519118786, -0.014559331350028515, -0.00980313215404749, 0.015463926829397678, -0.12487692385911942, -0.06643697619438171, -0.05367191508412361, 0.0707034021615982, -0.0025388437788933516, 0.028748974204063416, -0.06219456344842911, -0.0013261162675917149, 0.03443552926182747, -0.02241073176264763, 0.04992964491248131, 0.02545667067170143, 0.12952296435832977, 0.04145548865199089, -0.013997651636600494, 0.05416993051767349, -0.029616639018058777, -0.02500436268746853, 0.05532263219356537, -0.038168247789144516, 0.02708788588643074, 0.012780101038515568, -0.02554260566830635, 0.024945560842752457, -0.10046043246984482, -0.054159242659807205, 0.07631328701972961, -0.028924178332090378, -0.006266220938414335, -0.03810553997755051, -0.0011032958282157779, -0.05051925778388977, 0.01575125940144062, -0.013158733025193214, -0.07738684117794037, -0.05214419960975647, -0.11050072312355042, 0.033433862030506134, 0.00618066918104887, 0.031922630965709686, 0.04655105993151665, -0.00011254590936005116, -0.05109656974673271, -0.02594987116754055, -0.037126410752534866, -0.03659738600254059, -0.024654733017086983, -0.0011736656306311488, -0.02661077305674553, 0.03418111056089401, 0.021214695647358894, 0.0022556865587830544, 0.05311581492424011, 0.02775133028626442, -0.016175666823983192, -0.05124109983444214, -0.1181940957903862, -0.03200117126107216, 0.020117545500397682, 0.04085720703005791, 0.07047883421182632, -0.08822803944349289, -0.06899147480726242, 0.057726338505744934, -0.014225293882191181, -0.027399253100156784, 0.006013686303049326, -0.028998294845223427, -0.03407522663474083, 0.023530077189207077, 0.016066422685980797, 0.06497511267662048, 0.05588099732995033, -0.021215321496129036, -0.03592534735798836, -0.06288034468889236, -0.005134655628353357, 0.054078537970781326, 0.0020395489409565926, -0.15691329538822174, 0.04183414578437805, 0.09183067083358765, 0.017693674191832542, 0.023048512637615204, -0.013044117949903011, 0.060921188443899155, -0.01133792009204626, -8.487262434820832e-33, 0.031618863344192505, 0.06660293787717819, 0.030764373019337654, -0.04573534056544304, 0.07108612358570099, 0.018093939870595932, 0.017170313745737076, -0.019116554409265518, 0.06146537512540817, 0.04272451251745224, 0.003945246804505587, 0.07044833898544312, 0.007034728303551674, -0.1243029236793518, -0.03591395542025566, -0.032321423292160034, -0.005845003295689821, 0.05237327888607979, -0.039296772330999374, -0.0313427560031414, -0.003029786515980959, 0.08219344168901443, -0.07888581603765488, -0.008402112871408463, 0.06983284652233124, 0.04683254659175873, 0.0675017237663269, 0.11007065325975418, -0.011666683480143547, 0.04742845147848129, -0.0012812928762286901, -0.01852538250386715, -0.08489587157964706, 0.04569384828209877, 0.013822888024151325, -0.006914165336638689, 0.04327123612165451, 0.026404621079564095, -0.0009181067580357194, 0.07328132539987564, 0.04167468473315239, -0.04925478249788284, 0.04808242991566658, -0.0027281995862722397, -0.06064325198531151, -0.05135805904865265, 0.02078101597726345, -0.07720664888620377, -0.010302411392331123, -0.04427378997206688, 0.06441166251897812, 0.026550136506557465, 0.03533940389752388, -0.055852215737104416, 0.0859241858124733, -0.017254728823900223, 0.09080266207456589, 0.011860053054988384, 0.0356375090777874, -0.04282771795988083, 0.011419358663260937, 0.08950893580913544, -0.0001235677336808294, 0.01880168728530407, 0.012697340920567513, -0.1242133378982544, 0.03669726476073265, -0.05345102772116661, -0.05152134969830513, -0.09339408576488495, 0.029915232211351395, -0.07444433867931366, 0.035706035792827606, 0.013285188004374504, 0.062343716621398926, -0.0065304916352033615, 0.049574531614780426, -0.01605924777686596, -0.042500756680965424, 0.049918390810489655, -0.01905023492872715, 0.0007839426980353892, 0.055584847927093506, -0.022974317893385887, 0.051034487783908844, 0.052748218178749084, -0.008192512206733227, 0.053658727556467056, -0.03429804742336273, -0.015401441603899002, -0.010683750733733177, -0.028944402933120728, 0.057427987456321716, 0.08210916817188263, 0.031061621382832527, -6.149267051114293e-08, -0.0450093150138855, -0.03617203235626221, -0.020721476525068283, -0.04076109081506729, -0.03301634639501572, -0.05902470648288727, -0.049807436764240265, 0.01153863687068224, -0.06262380629777908, -0.028084615245461464, 0.03649454191327095, 0.030190512537956238, -0.10370927304029465, -0.003017173148691654, -0.0538143552839756, -0.07513230293989182, -0.0025226387660950422, -0.002593378536403179, 0.0046196854673326015, -0.021607063710689545, -0.001694582519121468, 0.0005445161368697882, 0.008463204838335514, -0.06637125462293625, -0.057094328105449677, 0.05077049508690834, -0.008461406454443932, 0.028286471962928772, -0.043607741594314575, -0.025652732700109482, -0.023552654311060905, -0.018024642020463943, 0.012872975319623947, -0.06306842714548111, -0.06477489322423935, -0.0057084402069449425, 0.0028547404799610376, -0.033960480242967606, 0.08300299942493439, 0.0016456798184663057, 0.0710352286696434, -0.007610428147017956, 0.07374321669340134, 0.038466423749923706, 0.03349626436829567, 0.028847845271229744, 0.018245398998260498, -0.07328814268112183, 0.04053167626261711, -0.049761928617954254, -0.0032375138252973557, -0.05868254229426384, 0.005427701398730278, 0.07093317806720734, -0.0744258314371109, 0.003202785737812519, -0.10322640091180801, 0.07403355091810226, 0.06294488161802292, 0.00909915380179882, 0.10222775489091873, -0.008974781259894371, -0.11424878984689713, 0.08293526619672775]</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-21</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t># # [ Lakshana Rajendran -- San Ramon , CA ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/in/lakshana-rajendran-1082862b0 ? trk=public_profile_samename-profile &gt; ) 5 others named Lakshana Rajendran are on LinkedIn [ See others named * * Lakshana Rajendran * * ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/pub/dir/Lakshana/Rajendran ? trk=public_profile_samename-see-all &gt; ) # # Add new skills with these courses * [ 1h 10m SQL for Data Analysis ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/learning/sql-for-data-analysis-22645200 ? trk=public_profile_recommended-course &gt; ) * [ 1h Google Cloud Professional Machine Learning Engineer Cert Prep : 3 Designing Data Preparation and Processing Systems ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/learning/google-cloud-professional-machine-learning-engineer-cert-prep-3-designing-data-preparation-and-processing-syst ? trk=public_profile_recommended-course &gt; ) * [ 1h Data Analytics for Students ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/learning/data-analytics-for-students-15608993 ? trk=public_profile_recommended-course &gt; ) [ See all courses ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/learning/ ? trk=seo_pp_d_cymbii_more_m015_learning &gt; ) * LinkedIn © 2025 * [ About ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /about.linkedin.com ? trk=public_profile_v3_desktop_footer-about &gt; ) * [ Accessibility ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/accessibility ? trk=public_profile_v3_desktop_footer-accessibility &gt; ) * [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/legal/user-agreement ? trk=public_profile_v3_desktop_footer-user-agreement &gt; ) * [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/legal/privacy-policy ? trk=public_profile_v3_desktop_footer-privacy-policy &gt; ) * [ Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/legal/cookie-policy ? trk=public_profile_v3_desktop_footer-cookie-policy &gt; ) * [ Copyright Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/legal/copyright-policy ? trk=public_profile_v3_desktop_footer-copyright-policy &gt; ) * [ Brand Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /brand.linkedin.com/policies ? trk=public_profile_v3_desktop_footer-brand-policy &gt; ) * [ Guest Controls ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/psettings/guest-controls ? trk=public_profile_v3_desktop_footer-guest-controls &gt; ) * [ Community Guidelines ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt;</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>[-0.05080023407936096, -0.07954660058021545, -0.03341588377952576, 0.011633857153356075, -0.015282699838280678, 0.01593836210668087, 0.07648327946662903, 0.006330657750368118, -0.12114652246236801, -0.02833404950797558, 0.04263205826282501, -0.03581387177109718, 0.033339109271764755, -0.048802606761455536, -0.03397773206233978, 0.06743783503770828, -0.0317455418407917, 0.003084666095674038, 0.015130055136978626, -0.05745993182063103, -0.004468442872166634, 0.012872353196144104, -0.01232004165649414, -0.012904043309390545, -0.0025567449629306793, -0.07075324654579163, 0.03838298097252846, 0.00935345608741045, -0.051374658942222595, -0.024106398224830627, -0.02057815156877041, 0.0760100856423378, -0.10341893881559372, 0.03472130000591278, -0.05529319494962692, -0.016358632594347, -0.04558364674448967, 0.045512545853853226, -0.024009548127651215, -0.048342496156692505, -0.00874337274581194, -0.05282397195696831, -0.0022312954533845186, -0.030569029971957207, -0.01636313647031784, -0.025314142927527428, -0.05408545583486557, -0.08407734334468842, 0.0007885628147050738, -0.017361348494887352, -0.12217524647712708, -0.05981061980128288, -0.03337732329964638, 0.01064523495733738, -0.01612870953977108, -0.03800543397665024, -0.011491913348436356, 0.0017866658745333552, -0.02675146982073784, 0.030912725254893303, 0.007526235654950142, 0.001404332579113543, -0.01293240487575531, 0.016290763393044472, 0.027897030115127563, -0.026453405618667603, -0.01631566323339939, 0.06627514213323593, 0.03884567320346832, -0.04244627431035042, -0.02231224626302719, 0.0032398102339357138, -0.10451217740774155, -0.014921522699296474, -0.018923765048384666, -0.001980358036234975, -0.022367339581251144, 0.07445201277732849, -0.05463026463985443, -0.08191283047199249, -0.03752909228205681, 0.03573700785636902, -0.022577667608857155, 0.02505650371313095, -0.03282485157251358, 0.008496521040797234, 0.017751706764101982, -0.017624465748667717, 0.007540740072727203, 0.007596570998430252, 0.1443130373954773, 0.10237758606672287, -0.024167535826563835, -0.015712155029177666, 0.01231437362730503, -0.054312579333782196, -0.000605959037784487, 0.00545850396156311, 0.060755036771297455, 0.030286414548754692, -0.0804985836148262, 0.004594059661030769, -0.06287453323602676, 0.06032459810376167, -0.1512715220451355, 0.02101833187043667, 0.0777646154165268, 0.02199086733162403, 0.0615227147936821, -0.03525800257921219, -0.016698220744729042, 0.02529340423643589, -0.10798085480928421, -0.039207085967063904, -0.03398837521672249, -0.0021303207613527775, -0.007912282831966877, -0.03606124967336655, 0.12700287997722626, 0.016162673011422157, -0.017355654388666153, 0.08148545771837234, -0.016722580417990685, -0.053050700575113297, -0.04520898312330246, -0.0828859955072403, -0.13062183558940887, 2.784897829337652e-33, 0.09619778394699097, 0.05697670578956604, 0.06698579341173172, -0.026675859466195107, 0.025697678327560425, -0.06187312304973602, -0.02651427686214447, 0.020089752972126007, -0.05281178280711174, 0.014155596494674683, -0.06654325127601624, 0.08346503227949142, 0.0010387049987912178, 0.0025422703474760056, 0.008491475135087967, -0.02486211247742176, 0.061883345246315, 0.0025807167403399944, -0.014058107510209084, 0.03862715885043144, 0.07712054252624512, 0.01342649944126606, 0.006494608707726002, 0.059792738407850266, 0.045488644391298294, 0.04202926903963089, 0.08495339006185532, 0.02304857410490513, 0.012030529789626598, 0.03740468621253967, -0.034388165920972824, -0.004350701346993446, -0.04347768798470497, 0.0077196815982460976, 0.1423950344324112, 0.011822234839200974, 0.05178499221801758, -0.054660797119140625, 0.04685654863715172, -0.03940245509147644, 0.0307941697537899, 0.0052324505522847176, 0.07298289984464645, -0.0011201801244169474, -0.061749424785375595, 0.0382920503616333, 0.05135553702712059, 0.04175972938537598, 0.07675638794898987, 0.008970638737082481, -0.05600474402308464, -0.03269140049815178, -0.07545739412307739, 0.003436449682340026, -0.009024495258927345, 0.04533078894019127, -0.019788535311818123, 0.02351188473403454, -0.030422229319810867, 0.069584421813488, 0.020254988223314285, -0.020294785499572754, -0.0853554978966713, -0.028100598603487015, -0.05409209430217743, -0.04662604257464409, 0.00709866126999259, -0.05501944571733475, 0.1511467546224594, -0.08861877024173737, -0.08305047452449799, 0.05473823472857475, 0.12905217707157135, 0.04693984612822533, 0.06768506020307541, 0.06310625374317169, -0.04743335396051407, -0.0019149169092997909, -0.07443232089281082, 0.0972183346748352, 0.012091098353266716, 0.023387564346194267, -0.06368119269609451, -0.07467179000377655, 0.02381691336631775, 0.005518765654414892, 0.024324750527739525, -0.09444424510002136, 0.000261286593740806, 0.05232823267579079, 0.03339045122265816, 0.09361851215362549, -0.0018377471715211868, 0.006631155032664537, -0.06465842574834824, -5.7263608532872786e-33, 0.033796388655900955, -0.0023084634449332952, 0.06696648895740509, 0.009612579829990864, 0.06317808479070663, 0.025346823036670685, 0.04963642358779907, 0.015120143070816994, 0.0632551982998848, -0.04742470756173134, 0.00385191454552114, 0.008330021984875202, -0.006086793262511492, -0.11117909848690033, 0.014725667424499989, 0.0450960248708725, -0.05604984983801842, 0.042461615055799484, -0.05881282687187195, -0.008093359880149364, 0.013418789021670818, 0.10193383693695068, -0.08034465461969376, -0.00927045103162527, 0.08482024073600769, -0.02246910333633423, 0.06576749682426453, 0.09506306797266006, -0.019733188673853874, 0.0626923069357872, -0.015624620951712132, -0.07789233326911926, -0.09665684401988983, 0.015265697613358498, -0.0846327692270279, 0.021923448890447617, 0.06495551764965057, -0.007644645404070616, 0.057248298078775406, 0.07983540743589401, 0.04846097528934479, -0.008243652060627937, 0.02770022489130497, -0.0646941214799881, -0.02846916764974594, -0.06694204360246658, -0.05760267749428749, -0.007192810066044331, -0.06350782513618469, -0.04125508666038513, 0.08524948358535767, -0.05529394745826721, 0.016013003885746002, -0.04008487984538078, 0.09394705295562744, -0.01989792101085186, 0.07696003466844559, -0.004645816516131163, -0.0332990363240242, -0.020548630505800247, 0.054002728313207626, 0.08527126908302307, 0.022327417507767677, 0.11520013213157654, -0.02460392750799656, -0.10575360059738159, 0.017026666551828384, 0.006877569947391748, -0.05417223274707794, -0.050053711980581284, -0.02247023582458496, -0.06056564673781395, 0.05226406827569008, -0.033922649919986725, -0.056249234825372696, -0.024899326264858246, -0.055272191762924194, 0.019441232085227966, -0.027840524911880493, 0.08563439548015594, -0.014327683486044407, 0.011513766832649708, -0.021143604069948196, 0.02406487986445427, 0.08858025819063187, 0.08931074291467667, 0.04847654327750206, 0.04448071867227554, 0.026662977412343025, -0.058827295899391174, -0.06212363392114639, -0.02871917188167572, -0.005210530944168568, 0.044118721038103104, -0.050951533019542694, -5.15037505977034e-08, 0.016567999497056007, -0.09118814766407013, -0.06612802296876907, -0.0015056078555062413, 0.05340887978672981, 0.008857536129653454, -0.05043848603963852, 0.1045420840382576, -0.08580788224935532, 0.04226207360625267, 0.03885258734226227, 0.018685946241021156, -0.03753679245710373, 0.010938502848148346, -0.02455892227590084, -0.08249731361865997, 0.007869759574532509, 0.019310133531689644, -0.014512831345200539, -0.039019614458084106, -0.028816351667046547, 0.013113670982420444, -0.034908413887023926, -0.003940927796065807, -0.003081494476646185, 0.0021015929523855448, -0.03068709746003151, 0.04387117177248001, -0.001751857460476458, -0.04468591883778572, -0.03625920042395592, 0.0016294935485348105, 0.05627104267477989, -0.11354395002126694, 0.000636570097412914, -0.0046383086591959, 0.04309163987636566, 0.018202712759375572, 0.022150829434394836, 0.03835495561361313, 0.014288323931396008, -0.024619806557893753, 0.08689683675765991, 0.040134355425834656, 0.061949800699949265, -0.030787019059062004, -0.027421219274401665, -0.03798414021730423, 0.040971316397190094, -0.07686279714107513, 0.005405919626355171, -0.008693251758813858, -0.02501925453543663, 0.01885434426367283, -0.006969066336750984, 0.007741814479231834, -0.04934212937951088, 0.07023485749959946, 0.019906505942344666, 0.013930308632552624, 0.0319022461771965, -0.0032263766042888165, -0.0312405563890934, 0.06273119151592255]</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-22</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>https : /www.linkedin.com/legal/professional-community-policies ? trk=public_profile_v3_desktop_footer-community-guide &gt; ) * * العربية ( Arabic ) * বাংলা ( Bangla ) * Čeština ( Czech ) * Dansk ( Danish ) * Deutsch ( German ) * Ελληνικά ( Greek ) * * * English ( English ) * * * Español ( Spanish ) * فارسی ( Persian ) * Suomi ( Finnish ) * Français ( French ) * हिंदी ( Hindi ) * Magyar ( Hungarian ) * Bahasa Indonesia ( Indonesian ) * Italiano ( Italian ) * עברית ( Hebrew ) * 日本語 ( Japanese ) * 한국어 ( Korean ) * मराठी ( Marathi ) * Bahasa Malaysia ( Malay ) * Nederlands ( Dutch ) * Norsk ( Norwegian ) * ਪੰਜਾਬੀ ( Punjabi ) * Polski ( Polish ) * Português ( Portuguese ) * Română ( Romanian ) * Русский ( Russian ) * Svenska ( Swedish ) * తెలుగు ( Telugu ) * ภาษาไทย ( Thai ) * Tagalog ( Tagalog ) * Türkçe ( Turkish ) * Українська ( Ukrainian ) * Tiếng Việt ( Vietnamese ) * 简体中文 ( Chinese ( Simplified ) ) * 正體中文 ( Chinese ( Traditional ) ) Language Agree &amp; Join LinkedIn By clicking Continue to join or sign in , you agree to LinkedIn ’ s [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/user-agreement ? trk=linkedin-tc_auth-button_user-agreement &gt; ) , [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/privacy-policy ? trk=linkedin-tc_auth-button_privacy-policy &gt; ) , and [ Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/cookie-policy ? trk=linkedin-tc_auth-button_cookie-policy &gt; ) . # # View Lakshana ’ s full profile Sign in # # Welcome back Email or phone Password Show [ Forgot password ? ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/uas/request-password-reset ?</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>By joining or signing in to LinkedIn, users agree to the platform's User Agreement, Privacy Policy, and Cookie Policy.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>[0.0020016219932585955, -0.010710388422012329, -0.042257387191057205, -0.03898734599351883, -0.0773714929819107, -0.00965967494994402, -0.0025837223511189222, -0.04138577729463577, -0.04679008573293686, 0.01674319989979267, 0.09295256435871124, -0.08003897219896317, -0.06021672859787941, 0.051651258021593094, -0.004414263181388378, -0.03961384296417236, -0.02921287529170513, 0.06272682547569275, -0.04391956329345703, -0.012455749325454235, 0.0022498583421111107, -0.046232618391513824, 0.10391815751791, 0.023026570677757263, 0.05828770995140076, -0.0759107694029808, 0.008550271391868591, -0.012925123795866966, 0.02415725588798523, -0.017419926822185516, -0.10427054762840271, 0.03485399857163429, 0.01858183927834034, -0.013664464466273785, 0.04422697052359581, -0.05497001111507416, -0.008389376103878021, 0.00261545367538929, 0.03852266073226929, 0.04625741019845009, -0.006336336489766836, -0.043271999806165695, 0.01775621622800827, -0.007818124257028103, 0.060423824936151505, 0.042139504104852676, -0.03302948549389839, 0.049266837537288666, -0.07995787262916565, -0.003266823710873723, -0.10515602678060532, -0.028949979692697525, 0.043771449476480484, 0.05210847780108452, 0.002733241068199277, -0.1869235783815384, 0.003157256403937936, 0.007285682018846273, -0.06621503084897995, -0.017009275034070015, -0.01612141914665699, 0.02067057229578495, -0.07349582761526108, 0.08220052719116211, -0.14252088963985443, -0.001490325783379376, 0.001483298372477293, 0.015598908998072147, -0.05674591660499573, 0.006224116310477257, -0.07873354852199554, -0.06319557130336761, -0.005894686561077833, 0.13621434569358826, -0.09312663972377777, -0.04178928583860397, 0.04448338970541954, 0.031210951507091522, -0.046297837048769, -0.07906085252761841, -0.008648271672427654, 0.038115255534648895, -0.01603263057768345, -0.07542980462312698, -0.02082609385251999, -0.009937646798789501, -0.03851233050227165, 0.02909146621823311, 0.04343636706471443, -0.020722486078739166, 0.0513448566198349, 0.04402267560362816, 0.07937769591808319, -0.026440726593136787, -0.008549940772354603, -0.06023011356592178, 0.027968840673565865, 0.044276800006628036, -0.04392704740166664, 0.024252498522400856, -0.04275547340512276, -0.09742913395166397, 0.05345849320292473, -0.0034282589331269264, -0.11037235707044601, 0.008671515621244907, -0.028116939589381218, -0.01168025191873312, 0.012524831108748913, -0.018557460978627205, -0.07926132529973984, -0.016521597281098366, -0.041156966239213943, -0.04499150440096855, 0.021565916016697884, 0.05586904659867287, -0.0020134244114160538, 0.0015340859536081553, 0.12810391187667847, 0.007358456030488014, -0.08505931496620178, 0.012175002135336399, -0.045693185180425644, -0.08856290578842163, -0.015380707569420338, 0.02294229529798031, -0.055730123072862625, 2.950495044996765e-33, 0.049868740141391754, 0.028122084215283394, -0.032948534935712814, -0.017502011731266975, 0.02978459745645523, -0.04945218190550804, -0.0378093458712101, -0.05068676546216011, -0.08237120509147644, -0.033481303602457047, -0.0012940637534484267, 0.027285361662507057, -0.03548632562160492, -0.00974081177264452, 0.00728621194139123, 0.10994088649749756, 0.06500401347875595, 0.039247315376996994, -0.06988054513931274, 0.05830157920718193, 0.12416645884513855, 0.07843124121427536, 0.0360533744096756, 0.010453685186803341, -0.13610614836215973, -0.008655240759253502, 0.023378293961286545, -0.039100758731365204, 0.03146108239889145, 0.02669808268547058, 0.0008503692806698382, -0.011348632164299488, 0.017694033682346344, -0.03491860628128052, -0.02809612825512886, 0.03570258617401123, 0.00455005606636405, -0.09003587812185287, 0.015741508454084396, 0.009591762907803059, -0.01522870548069477, -0.07538199424743652, -0.0042694914154708385, 0.10842962563037872, 0.03365952894091606, -0.008325720205903053, -0.06845469772815704, -0.09051496535539627, 0.022043215110898018, 0.029723430052399635, -0.04465517774224281, -0.0482647679746151, -0.012701181694865227, 0.060671038925647736, -0.012291963212192059, 0.040401361882686615, -0.005067638121545315, 0.0486503429710865, -0.011351684108376503, 0.008942265063524246, -0.06237894296646118, 0.016666768118739128, -0.008708665147423744, -0.04030319303274155, 0.01050240732729435, -0.07985205948352814, -0.05821233242750168, 0.058578308671712875, 0.03268861398100853, -0.07407794147729874, 0.0021317503415048122, 0.022505199536681175, 0.038842663168907166, 0.0963311716914177, -0.029273949563503265, 0.04968123510479927, 0.012364586815237999, -0.09002350270748138, 0.030478931963443756, 0.015049398876726627, -0.08521510660648346, 0.07473170757293701, -0.058474790304899216, -0.00390251399949193, -0.017026657238602638, 0.03363876789808273, 0.027850493788719177, -0.009499559178948402, 0.07152844220399857, 0.03513932600617409, -0.024955477565526962, -0.004283750895410776, 0.030717769637703896, -0.04204271361231804, -0.07651783525943756, -6.269383774727496e-33, -0.003924091812223196, 0.017145268619060516, -0.01809929683804512, 0.007844570092856884, -0.010883856564760208, 0.014069144614040852, 0.0594005286693573, 0.06663092225790024, 0.1152648776769638, -0.030260907486081123, 0.02153579704463482, -0.09316244721412659, 0.09349197894334793, 0.0043524508364498615, 0.02740614488720894, -0.016284417361021042, -0.007355827372521162, 0.06426568329334259, 0.020644308999180794, 0.04111509770154953, 0.007977110333740711, 0.0047005112282931805, -0.09804167598485947, 0.1059768870472908, -0.03219403326511383, -0.056393563747406006, -0.014438003301620483, -0.05210758373141289, -0.04465688392519951, 0.02206290140748024, 0.017893357202410698, 0.012053613550961018, -0.0903649553656578, 0.035409338772296906, -0.015567719005048275, 0.0005377643974497914, -0.033374011516571045, 0.02191612310707569, -0.012723456136882305, 0.09046177566051483, 0.03293296694755554, -0.059521276503801346, 0.024512045085430145, 0.03574192151427269, 0.01464063860476017, -0.04039092734456062, -0.09394854307174683, -0.0508640818297863, -0.04189975559711456, -0.10124576836824417, 0.05185810104012489, 0.038871318101882935, 0.006715122144669294, -0.011076116003096104, 0.07407690584659576, -0.009345293045043945, 0.016655294224619865, -0.03870818018913269, -0.04858536645770073, 0.010212265886366367, 0.012142922729253769, 0.0068832878023386, 0.02062130905687809, -0.006943997461348772, 0.03096674010157585, -0.06060956045985222, -0.018373902887105942, 0.09045560657978058, 0.07024049758911133, -0.09117995202541351, 0.04255300387740135, -0.05723012238740921, -0.11350799351930618, -0.03678968921303749, -0.022787006571888924, -0.043057724833488464, -0.0055478839203715324, 0.00021778710652142763, 0.006302851252257824, 0.034232135862112045, 0.00027778116054832935, -0.043074894696474075, -0.023083221167325974, 0.027860021218657494, 0.050925806164741516, 0.033163923770189285, -0.046058643609285355, 0.06287162750959396, 0.09063352644443512, -0.006093054078519344, 0.014167041517794132, 0.0398818664252758, 0.005691910162568092, 0.10299511253833771, 0.07453757524490356, -5.8495171373351695e-08, -0.003920757211744785, -0.022913161665201187, 0.012488935142755508, 0.0772123783826828, -0.00038684389437548816, -0.0674494281411171, -0.009387842379510403, -0.019448434934020042, -0.054693710058927536, -0.0011446707649156451, -0.04633784666657448, 0.05603092163801193, -0.03432384505867958, -0.08656520396471024, -0.0006873905076645315, 0.009506997652351856, 0.0396505631506443, 0.19939440488815308, 0.042618248611688614, 0.03165501356124878, 0.010325920768082142, -0.02929246425628662, 0.04592246562242508, -0.0010657616658136249, -0.08684326708316803, 0.004558795131742954, 0.0371815487742424, 0.014743559062480927, 0.026715394109487534, -0.06958203762769699, -0.043847035616636276, -0.006452480331063271, 0.0076090749353170395, -0.05483357608318329, -0.02325110323727131, 0.032443784177303314, -0.063687264919281, -0.031474579125642776, 0.021150881424546242, 0.1049947515130043, 0.08530300110578537, -0.065165676176548, 0.029479559510946274, 0.016813958063721657, -0.01330976840108633, 0.01985788345336914, -0.03041897714138031, 0.03272193670272827, 0.02298794873058796, -0.12534339725971222, -0.026317192241549492, 0.03322335332632065, -0.007015201263129711, 0.008945933543145657, -0.009432309307157993, 0.041868288069963455, -0.012724285945296288, 0.03975093737244606, 0.0808221697807312, 0.021941157057881355, 0.08115438371896744, -0.0068204510025680065, 0.05580643191933632, 0.02782648615539074]</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>lakshana.txt-part-23</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>trk=public_profile_contextual-sign-in-modal_sign-in-modal_forgot_password &gt; ) Sign in or By clicking Continue to join or sign in , you agree to LinkedIn ’ s [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/user-agreement ? trk=public_profile_contextual-sign-in-modal_sign-in-modal_auth-button_user-agreement &gt; ) , [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/privacy-policy ? trk=public_profile_contextual-sign-in-modal_sign-in-modal_auth-button_privacy-policy &gt; ) , and [ Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/cookie-policy ? trk=public_profile_contextual-sign-in-modal_sign-in-modal_auth-button_cookie-policy &gt; ) . New to LinkedIn ? [ Join now ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; trk=public_profile_contextual-sign-in-modal_sign-in-modal_join-link &gt; ) or New to LinkedIn ? [ Join now ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; https : /www.linkedin.com/signup/public-profile-join ? vieweeVanityName=lakshana-rajendran-a179a02a1 &amp; trk=public_profile_contextual-sign-in-modal_join-link &gt; ) By clicking Continue to join or sign in , you agree to LinkedIn ’ s [ User Agreement ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/user-agreement ? trk=linkedin-tc_auth-button_user-agreement &gt; ) , [ Privacy Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/privacy-policy ? trk=linkedin-tc_auth-button_privacy-policy &gt; ) , and [ Cookie Policy ] ( https : //www.linkedin.com/in/lakshana-rajendran-a179a02a1/ &lt; /legal/cookie-policy ? trk=linkedin-tc_auth-button_cookie-policy &gt; ) .</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>By signing in or joining LinkedIn, users agree to the platform's User Agreement, Privacy Policy, and Cookie Policy.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>[-0.06164027377963066, 0.010459902696311474, -0.0182587131857872, -0.003624450182542205, 0.06862036138772964, 0.06160885840654373, 0.08531089127063751, -0.0028345761820673943, -0.06475973129272461, -0.028080537915229797, 0.05623013153672218, -0.008673889562487602, 0.042310889810323715, -0.0004567389260046184, 0.07225338369607925, -0.008546112105250359, -0.09157334268093109, 0.02973521314561367, -0.04169042035937309, -0.009040887467563152, 0.05253608897328377, -0.0021940977312624454, -0.01168266125023365, -0.0036938830744475126, -0.004067884758114815, -0.16274183988571167, 0.04792620614171028, 0.03747927397489548, -0.04688144847750664, 0.026753460988402367, -0.011921294964849949, 0.10496234893798828, -0.14565755426883698, -0.10845701396465302, 0.026292867958545685, -0.09682387113571167, -0.06196959689259529, -0.023101314902305603, 0.017198223620653152, -0.10453793406486511, -0.03816540539264679, -0.09786749631166458, -0.06328127533197403, 0.011911733075976372, -0.033214274793863297, 0.009726597927510738, 0.0017192066879943013, 1.3391424545261543e-05, -0.0054768892005085945, 0.013413379900157452, 0.011682880111038685, -0.0014951799530535936, 0.004519292153418064, -0.017582932487130165, -0.050975166261196136, -0.01988546922802925, -0.01765352673828602, 0.011014738120138645, -0.0024319880176335573, 0.04217394441366196, -0.009966954588890076, -0.060141995549201965, -0.021747663617134094, 0.02685764618217945, 0.025958416983485222, 0.03784601762890816, 0.00838862918317318, -0.03404570370912552, -0.033406857401132584, -0.043105076998472214, -0.01847587153315544, -0.027394605800509453, -0.08380770683288574, -0.051712095737457275, -0.01036460418254137, 0.0021886916365474463, -0.038063377141952515, 0.05285043641924858, 0.001207896857522428, -0.08575958758592606, -0.033974841237068176, 0.03769867122173309, 0.011938638985157013, 0.009205056354403496, 0.019849445670843124, 0.041975680738687515, -0.02740427665412426, 0.042162492871284485, -0.017907150089740753, 0.03372790664434433, 0.08047311753034592, 0.04975138232111931, 0.02774660848081112, -0.06021323800086975, 0.05849273130297661, -0.022830244153738022, -0.016383923590183258, 0.03285122290253639, -0.022023402154445648, 0.044016193598508835, -0.04201529920101166, 0.015293187461793423, -0.03981320932507515, 0.02274484559893608, 0.03832590952515602, -0.017754051834344864, 0.06826423853635788, 0.06968656182289124, 0.10598370432853699, 0.026204591616988182, -0.020521586760878563, -0.048422474414110184, 0.028246648609638214, 0.04618293419480324, -0.026487642899155617, -0.014344220981001854, 0.028941242024302483, 0.0579010471701622, 0.18352702260017395, -0.07752998173236847, -0.0031908738892525434, 0.004925552289932966, -0.037108778953552246, -0.02414831519126892, -0.05498382821679115, -0.0649043470621109, -0.007636302150785923, -1.3297108296611472e-34, 0.06785442680120468, 0.0982118621468544, -0.043757904320955276, -0.036517687141895294, 0.015315305441617966, -0.007988578639924526, -0.013671686872839928, -0.075289785861969, -0.0675845742225647, 0.061202287673950195, -0.044813137501478195, 0.07937413454055786, 0.04726323112845421, 0.028020747005939484, -0.009489172138273716, -0.027160553261637688, 0.02793285995721817, 0.06028948351740837, -0.005575251765549183, 0.024626296013593674, 0.039710525423288345, 0.062036290764808655, 0.047920551151037216, 0.09533795714378357, -0.04156653955578804, 0.01681445725262165, 0.0648261308670044, -0.002335600322112441, -0.01754375360906124, 0.01330497581511736, -0.019136320799589157, 0.006000576075166464, -0.0023664089385420084, -0.007131629157811403, 0.11868459731340408, -0.04296853765845299, 0.025831235572695732, -0.03489305078983307, -0.035832371562719345, -0.07242660969495773, 0.04997103288769722, -0.046917032450437546, -0.02269085869193077, -0.019537433981895447, -0.08111792802810669, 0.040195364505052567, 0.03418662026524544, 0.054091859608888626, 0.09673422574996948, -0.006155950017273426, -0.0644715279340744, 0.03708403930068016, -0.11865010857582092, -0.04944460466504097, -0.022272834554314613, -0.05213887244462967, -0.10303424298763275, 0.0060770828276872635, -0.033053044229745865, -0.06672052294015884, 0.07999354600906372, -0.005876019597053528, -0.0016216913936659694, -0.026527082547545433, -0.0809277594089508, -0.03395513817667961, -0.02148151770234108, -0.06905212253332138, 0.01602839305996895, -0.13088460266590118, -0.0531369224190712, 0.08327682316303253, 0.03782312199473381, 0.05611022934317589, -0.045666277408599854, 0.015068372711539268, 0.013715595006942749, 0.10590513050556183, 0.02593742311000824, 0.051565904170274734, 0.027753952890634537, 0.05597841367125511, -0.06761407107114792, 0.0010884066578000784, 0.017702093347907066, -0.00642013642936945, -0.020521489903330803, -0.02815842255949974, -0.06672320514917374, 0.006572592072188854, 0.010030338540673256, 0.04494168236851692, 0.02108851447701454, 0.07075853645801544, -0.03924071416258812, -4.377031826471499e-33, 0.01753964088857174, -0.06728495657444, 0.09605754911899567, -0.05789116770029068, 0.013675396330654621, 0.008860808797180653, 0.04885489121079445, 0.03006015159189701, 0.06808874756097794, -0.0627184510231018, 0.09475423395633698, -0.006359351798892021, 0.0501251257956028, -0.056403275579214096, -0.007905611768364906, 0.017206808552145958, -0.02797183208167553, 0.06667350977659225, -0.04633017256855965, -0.024007605388760567, 0.0626329705119133, -0.031214062124490738, -0.03093380481004715, 0.06787946075201035, 0.0876208022236824, -0.07336863875389099, -0.005281470715999603, 0.0196284968405962, -0.005166065879166126, -0.0012020074063912034, 0.057240184396505356, -0.03301139920949936, -0.07624475657939911, 0.019869284704327583, 0.0028098623733967543, 0.008842093870043755, 0.02864229492843151, 0.03455845266580582, -0.023024385794997215, 0.026038797572255135, 0.045328572392463684, -0.03554314374923706, 0.04134047403931618, 0.010282072238624096, 0.0355258584022522, -0.026706747710704803, 0.007071148604154587, -0.08434950560331345, -0.09327000379562378, 0.051032304763793945, 0.09821296483278275, -0.034157894551754, 0.0880066305398941, -0.12209759652614594, -0.024103881791234016, 0.031018566340208054, 0.09144595265388489, -0.0462450236082077, 0.011696773581206799, -0.0790860503911972, 0.08774832636117935, -0.04347720742225647, 0.03253266215324402, 0.13246512413024902, -0.0133962482213974, -0.059472233057022095, 0.010335933417081833, 0.035282764583826065, 0.013491591438651085, 0.0005550836212933064, 0.002153633860871196, -0.07104864716529846, 0.039734192192554474, -0.016099797561764717, 0.07516414672136307, -0.03984466567635536, 0.006908638868480921, -0.044295839965343475, -0.030600860714912415, -0.03873666748404503, 0.016561133787035942, 0.003719078144058585, -0.06909826397895813, -0.043628476560115814, 0.02228846587240696, 0.01815273053944111, 0.019760221242904663, 0.044290367513895035, 0.023687705397605896, 0.0013436190783977509, -0.046967025846242905, -0.06715630739927292, -0.023527655750513077, 0.0487317331135273, -0.03872581943869591, -4.977845691200855e-08, 0.03476894646883011, -0.01272848155349493, 0.0200364850461483, -0.008479960262775421, 0.05960971862077713, 0.05711597576737404, -0.008204011246562004, -0.004971986636519432, -0.05851094424724579, -0.04588913172483444, -0.06009123474359512, 0.06861140578985214, -0.07532797753810883, -0.0279037207365036, -0.09499476850032806, -0.039185427129268646, -0.09390664845705032, -0.037760261446237564, 0.037168506532907486, 0.004493620712310076, -0.08201965689659119, -0.06236913800239563, -0.004279058426618576, 0.002379130572080612, -0.0404580794274807, 0.02144787460565567, 0.01032224204391241, 0.08220866322517395, 0.04045075178146362, -0.006843888200819492, -0.04370589181780815, 0.0058781118132174015, -0.007980022579431534, -0.11133989691734314, -0.13272053003311157, 0.05168331786990166, -0.019670648500323296, -0.02549465000629425, 0.035937510430812836, -0.029084544628858566, 0.06881578266620636, 0.008866577409207821, 0.11146434396505356, 0.012435940094292164, 0.022414682433009148, 0.013254567049443722, 0.029131444171071053, 0.03148895874619484, -0.022566551342606544, -0.08307097107172012, -0.040247078984975815, 0.023969503119587898, 0.032347679138183594, 0.07356730103492737, -0.045239951461553574, -0.049166951328516006, 0.009509947150945663, 0.07036346942186356, 0.04249586537480354, -0.03336144611239433, 0.108396977186203, 0.03797933831810951, -0.04576686769723892, -0.00667839590460062]</t>
+          <t>[-0.04433450847864151, -0.037814702838659286, -0.00525651965290308, 0.036553479731082916, 0.0043294089846313, 0.023527678102254868, -0.024353329092264175, 0.0021918965503573418, -0.0640433132648468, 0.04122278466820717, -0.06979372352361679, -0.04469689726829529, 0.0037951315753161907, -0.006611032411456108, 0.038088515400886536, 0.056702323257923126, -0.02179768495261669, -0.025634778663516045, 0.035077501088380814, -0.026264898478984833, -0.019874313846230507, 0.0019512515282258391, 0.007816733792424202, 0.039932981133461, -0.02299395576119423, 0.0561906099319458, -0.03676796704530716, -0.032846421003341675, -0.014163119718432426, -0.032577499747276306, 0.0019635658245533705, -0.0050982036627829075, 0.000650274392683059, 0.04551519826054573, -0.041395153850317, 0.05862560123205185, 0.022119591012597084, 0.029017899185419083, -0.09351333230733871, -0.09327690303325653, -0.13254474103450775, -0.052213799208402634, 0.009528256952762604, -0.010501953773200512, 0.09458786249160767, -0.0759836882352829, -0.12021216750144958, -0.01763148233294487, 0.01794593781232834, -0.006349840201437473, -0.03628548979759216, -0.12364613264799118, 0.07557518780231476, 0.01532013714313507, -0.030307713896036148, 0.05802526697516441, 0.02617497369647026, -0.007562106940895319, -0.05645745247602463, 0.03979696333408356, 0.02660669945180416, -0.02578386291861534, -0.05211476981639862, 0.012373950332403183, 0.033342428505420685, -0.011392473243176937, -0.03099128045141697, 0.05082199349999428, 0.03737998381257057, -0.07512736320495605, -0.015125878155231476, -0.05695423483848572, -0.0012760263634845614, 0.055443666875362396, 0.013446209020912647, 0.06733506917953491, 0.05732374265789986, 0.00481801712885499, 0.17446741461753845, 0.0507156141102314, -0.02991657704114914, 0.03822670131921768, 0.004043512046337128, 0.0711725726723671, -0.026795756071805954, -0.056026045233011246, 0.006196595262736082, 0.024070456624031067, -0.05986666679382324, 0.009652615524828434, 0.07909593731164932, 0.029842626303434372, 0.022846482694149017, -0.005260413512587547, -0.02260880544781685, 0.011197011917829514, -0.007087361998856068, -0.01868807151913643, -0.0844963937997818, 0.09120425581932068, -0.03152095898985863, 0.07601570338010788, 0.042018793523311615, -0.04487980529665947, -0.05080069229006767, 0.011301073245704174, 0.0675186812877655, -0.005379505455493927, 0.02180643007159233, -0.05765380710363388, -0.06404652446508408, -0.01594259776175022, -0.07150252163410187, -0.011047808453440666, 0.01842646114528179, 0.006652443204075098, -0.09139616787433624, 0.02205527573823929, 0.050586581230163574, 0.0653608962893486, 0.03479934111237526, 0.08696502447128296, -0.0027006736490875483, -0.015478013083338737, 0.029386166483163834, -0.0684882327914238, -0.04184228926897049, 5.539827164885059e-33, 0.11348339915275574, 0.004309717565774918, -0.01314146351069212, 0.039547257125377655, 0.040311332792043686, 0.008127576671540737, 0.012362537905573845, 0.017567871138453484, -0.13831761479377747, 0.00787775032222271, -0.03954237326979637, 0.04770201817154884, 0.019707486033439636, 0.04301480948925018, -0.0001517980854259804, -0.06695367395877838, -0.056772809475660324, 0.06028875708580017, -0.01599435694515705, 0.020502852275967598, -0.004927340429276228, -0.07761803269386292, 0.0039018045645207167, 0.016544099897146225, 0.0007651444175280631, 0.09666834771633148, 0.02705617994070053, 0.056689970195293427, 0.09220517426729202, 0.0541754849255085, -0.06944046169519424, -0.0190492682158947, -0.10593926161527634, -0.04516319930553436, -0.0037556772585958242, -0.019263856112957, -0.026811419054865837, -0.09276825934648514, 0.009670440107584, -0.03522253781557083, 0.020421423017978668, 0.06661611050367355, 0.005138323176652193, -0.02162802591919899, -0.018415341153740883, 0.054833702743053436, 0.08507023006677628, -0.04167057201266289, 0.04673720896244049, 0.05802347883582115, -0.12021990120410919, -0.04092153161764145, -0.06744140386581421, -0.04921603202819824, -0.03475280851125717, -0.031206410378217697, 0.030426286160945892, 0.02543337643146515, 0.02020997554063797, -0.040187038481235504, 0.05200573429465294, 0.016281066462397575, -0.08432633429765701, -0.02467445284128189, 0.013730304315686226, -0.05160197615623474, 0.012592539191246033, -0.019853945821523666, 0.08132921159267426, -0.014648066833615303, -0.01856876350939274, 0.04415493458509445, 0.07197508215904236, -0.0028642541728913784, -0.0652189552783966, -0.05279969051480293, -0.03343578055500984, -0.01652156375348568, -0.07653793692588806, 0.06437444686889648, -0.023232562467455864, -0.01373907271772623, -0.04462334141135216, -0.02095220796763897, 0.022408099845051765, 0.07419352233409882, 0.03270791471004486, -0.032335810363292694, -0.06788874417543411, 0.041130006313323975, 0.013155050575733185, 0.03123725950717926, 0.0663844496011734, 0.07520046830177307, -0.09990326315164566, -5.0214451764319694e-33, -0.017873961478471756, -0.021628206595778465, -0.023997792974114418, 0.022883664816617966, 0.1809787005186081, -0.014895542524755001, 0.0010365115012973547, -0.017037471756339073, 0.029660310596227646, 0.007860667072236538, 0.043397821485996246, -0.028741152957081795, -0.004792059306055307, -0.0007883043144829571, 0.0035369317047297955, 0.0179529320448637, -0.08670166879892349, -0.0693134143948555, -0.03973561152815819, -0.006263107992708683, -0.021630743518471718, 0.12475598603487015, -0.03136851638555527, 0.0608469657599926, 0.026073027402162552, -0.03577788546681404, -0.00979011319577694, -0.03981940075755119, 0.033642541617155075, 0.040072936564683914, 0.02998742274940014, -0.0011281671468168497, -0.07426929473876953, 0.039633795619010925, -0.00890872161835432, -0.03699878230690956, 0.011707761324942112, -0.06682740151882172, -0.03548339754343033, 0.1112866997718811, 0.10611187666654587, 0.06115523353219032, -0.091927170753479, -0.025485772639513016, 0.05295654758810997, 0.04572402685880661, -0.0610608272254467, 0.008030996657907963, 0.002407046500593424, -0.05153416469693184, 0.008855441585183144, -0.05252274498343468, 0.043593354523181915, -0.033209145069122314, 0.05583448335528374, -0.050574831664562225, -0.0039848098531365395, -0.0687955766916275, -0.042072322219610214, 0.019657984375953674, -0.03189750388264656, -0.010536856018006802, 0.03106747940182686, 0.021473119035363197, 0.018792899325489998, -0.012495037168264389, -0.07251574844121933, 0.07265102863311768, -0.10803724080324173, 0.008234018459916115, -0.035863246768713, 0.010808978229761124, -0.0059622470289468765, -0.027748888358473778, -0.046274345368146896, -0.03462480381131172, -0.09796442836523056, -0.08350204676389694, -0.0552983358502388, -0.041500337421894073, -0.03726334124803543, -0.045831918716430664, 0.06678204983472824, 0.03494861721992493, 0.018379956483840942, -0.00394442118704319, 0.07783670723438263, 0.06651236861944199, -0.0558248832821846, 0.025151442736387253, -0.08729220181703568, 0.07729530334472656, -0.035386305302381516, 0.04408847168087959, -0.000905460212379694, -6.258092355437839e-08, -0.020983964204788208, -0.01844630017876625, -0.05577842891216278, 0.031757209450006485, 0.030049091205000877, 0.07088347524404526, -0.025980811566114426, 0.0620252825319767, 0.06600912660360336, 0.10075709223747253, 0.04895898327231407, -0.047068770974874496, -0.04126453399658203, -0.01734306663274765, 0.09303629398345947, -0.014573106542229652, 0.014083925634622574, 0.13344226777553558, -0.013986805453896523, -0.03320103883743286, 0.12395480275154114, -0.031298600137233734, 0.000790911668445915, -0.036696575582027435, -0.0032030330039560795, -0.01869247853755951, -0.05952860414981842, 0.11798077076673508, -0.03663512319326401, -0.021374186500906944, 0.01590472087264061, 0.025362882763147354, 0.0522511787712574, -0.048539817333221436, 0.07211081683635712, 0.026798700913786888, -0.02152600698173046, -0.010762265883386135, 0.011941008269786835, 0.10071385651826859, -0.00437528733164072, 0.057224247604608536, 0.0011592312948778272, 0.024771589785814285, 0.0002031929325312376, -0.04679330065846443, -0.010075852274894714, -0.028515370562672615, 0.011093202978372574, -0.07328501343727112, 0.026829389855265617, -0.018279526382684708, 0.017965273931622505, 0.051685553044080734, 0.10816025733947754, 0.08448001742362976, 0.02727142535150051, -0.02691732719540596, -0.005284391809254885, 0.061311986297369, 0.1159570962190628, -0.04315062239766121, -0.022479021921753883, 0.018947530537843704]</t>
         </is>
       </c>
     </row>
